--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="289">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -703,6 +703,189 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>206-8552804-2156328</t>
+  </si>
+  <si>
+    <t>2025-09-02T23:27:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-03T06:45:35+00:00</t>
+  </si>
+  <si>
+    <t>Chester-Le-Street</t>
+  </si>
+  <si>
+    <t>DH3 3BD</t>
+  </si>
+  <si>
+    <t>204-7689920-5521156</t>
+  </si>
+  <si>
+    <t>2025-09-02T18:11:31+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-03T07:14:28+00:00</t>
+  </si>
+  <si>
+    <t>SS8 9TT</t>
+  </si>
+  <si>
+    <t>202-4421716-4133937</t>
+  </si>
+  <si>
+    <t>2025-09-02T16:35:40+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-03T06:45:37+00:00</t>
+  </si>
+  <si>
+    <t>NORWICH</t>
+  </si>
+  <si>
+    <t>NORFOLK</t>
+  </si>
+  <si>
+    <t>NR15 2XR</t>
+  </si>
+  <si>
+    <t>026-9626197-5797924</t>
+  </si>
+  <si>
+    <t>2025-09-02T07:59:01+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02T10:19:30+00:00</t>
+  </si>
+  <si>
+    <t>ENFIELD</t>
+  </si>
+  <si>
+    <t>EN1 1LT</t>
+  </si>
+  <si>
+    <t>204-8835865-8243529</t>
+  </si>
+  <si>
+    <t>2025-09-01T12:39:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02T08:46:45+00:00</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>W2 5SH</t>
+  </si>
+  <si>
+    <t>205-8587078-2625937</t>
+  </si>
+  <si>
+    <t>2025-09-01T12:36:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02T08:44:11+00:00</t>
+  </si>
+  <si>
+    <t>Wallingford</t>
+  </si>
+  <si>
+    <t>OX10 6HH</t>
+  </si>
+  <si>
+    <t>026-4762678-2251529</t>
+  </si>
+  <si>
+    <t>2025-09-01T10:54:52+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-02T07:35:44+00:00</t>
+  </si>
+  <si>
+    <t>BLACKPOOL</t>
+  </si>
+  <si>
+    <t>FY2 9UU</t>
+  </si>
+  <si>
+    <t>204-2614117-0833130</t>
+  </si>
+  <si>
+    <t>2025-08-31T18:14:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-01T17:45:21+00:00</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>M32 0HN</t>
+  </si>
+  <si>
+    <t>205-3127883-2863500</t>
+  </si>
+  <si>
+    <t>2025-08-31T18:02:35+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-01T08:23:35+00:00</t>
+  </si>
+  <si>
+    <t>IMMINGHAM</t>
+  </si>
+  <si>
+    <t>DN40 1LF</t>
+  </si>
+  <si>
+    <t>203-1906917-1461926</t>
+  </si>
+  <si>
+    <t>2025-08-31T15:45:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-01T08:24:14+00:00</t>
+  </si>
+  <si>
+    <t>DUNMOW</t>
+  </si>
+  <si>
+    <t>CM6 1HL</t>
+  </si>
+  <si>
+    <t>204-4990508-9429124</t>
+  </si>
+  <si>
+    <t>2025-08-31T10:34:19+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-01T08:23:33+00:00</t>
+  </si>
+  <si>
+    <t>PORT TALBOT</t>
+  </si>
+  <si>
+    <t>SA12 7RB</t>
+  </si>
+  <si>
+    <t>206-2710096-6637949</t>
+  </si>
+  <si>
+    <t>2025-08-31T07:02:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-08-31T10:20:09+00:00</t>
+  </si>
+  <si>
+    <t>STOCKPORT</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
+    <t>SK6 4EA</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,13 +1803,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1641,7 +1824,7 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -1668,13 +1851,10 @@
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -1688,13 +1868,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1709,16 +1889,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1730,19 +1910,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R3">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -1756,13 +1933,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1777,7 +1954,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
@@ -1804,10 +1981,13 @@
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>240</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>241</v>
       </c>
       <c r="AA4" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -1821,13 +2001,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1842,16 +2022,16 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -1869,10 +2049,10 @@
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="AA5" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -1886,13 +2066,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1907,16 +2087,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -1928,16 +2108,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="AA6" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -1951,13 +2131,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1972,16 +2152,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -1993,16 +2173,16 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AA7" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2016,13 +2196,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2037,7 +2217,7 @@
         <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
@@ -2064,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="AA8" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2081,16 +2261,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2113,29 +2293,23 @@
       <c r="M9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
       <c r="O9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R9">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="AA9" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2149,13 +2323,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2173,13 +2347,13 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -2191,16 +2365,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="AA10" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2214,13 +2388,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2238,37 +2412,34 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="AA11" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2282,13 +2453,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2306,13 +2477,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2324,19 +2495,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R12">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="AA12" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2350,13 +2518,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2374,13 +2542,13 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -2392,19 +2560,19 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R13">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="Z13" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2418,13 +2586,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2442,13 +2610,13 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2460,19 +2628,19 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R14">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2486,13 +2654,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2510,13 +2678,13 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -2528,19 +2696,19 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R15">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="AA15" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2554,13 +2722,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2578,13 +2746,13 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -2596,16 +2764,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R16">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="AA16" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -2619,13 +2787,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -2643,34 +2811,34 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>66.98</v>
+        <v>23.99</v>
       </c>
       <c r="R17">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AA17" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -2684,13 +2852,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -2708,13 +2876,13 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -2726,19 +2894,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R18">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -2752,13 +2917,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -2776,13 +2941,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -2794,19 +2959,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R19">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -2820,13 +2982,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -2868,10 +3030,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="AA20" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -2885,13 +3047,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -2909,40 +3071,43 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R21">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y21" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>93</v>
       </c>
       <c r="AA21" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
       </c>
       <c r="AD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="b">
         <v>0</v>
@@ -2950,13 +3115,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -2974,13 +3139,13 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -2992,19 +3157,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="AA22" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3018,13 +3180,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3042,13 +3204,13 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3060,16 +3222,19 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R23">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>103</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>104</v>
       </c>
       <c r="AA23" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3083,13 +3248,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3107,13 +3272,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3125,16 +3290,19 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R24">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>109</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>110</v>
       </c>
       <c r="AA24" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3148,13 +3316,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3172,13 +3340,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3190,19 +3358,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R25">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y25" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="Z25" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="AA25" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3216,13 +3384,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3240,13 +3408,13 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3258,19 +3426,19 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R26">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y26" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="Z26" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="AA26" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3284,13 +3452,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3308,13 +3476,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3326,16 +3494,19 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y27" t="s">
-        <v>195</v>
+        <v>127</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>128</v>
       </c>
       <c r="AA27" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3349,13 +3520,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3373,13 +3544,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3391,16 +3562,16 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R28">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="AA28" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3414,13 +3585,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3438,34 +3609,34 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y29" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="AA29" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3479,13 +3650,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3503,13 +3674,13 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -3521,16 +3692,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="s">
-        <v>210</v>
+        <v>146</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>147</v>
       </c>
       <c r="AA30" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3544,13 +3718,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3568,13 +3742,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -3586,16 +3760,19 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>152</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>153</v>
       </c>
       <c r="AA31" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -3609,66 +3786,855 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
         <v>39</v>
       </c>
       <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32">
+        <v>23.99</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="R33">
+        <v>13.33</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>23.99</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" t="s">
+        <v>175</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35">
+        <v>33.49</v>
+      </c>
+      <c r="R35">
+        <v>5.58</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>33.49</v>
+      </c>
+      <c r="R36">
+        <v>5.58</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37">
+        <v>33.49</v>
+      </c>
+      <c r="R37">
+        <v>5.58</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>33.49</v>
+      </c>
+      <c r="R38">
+        <v>5.58</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39">
+        <v>23.99</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40">
+        <v>99</v>
+      </c>
+      <c r="R40">
+        <v>16.5</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>23.99</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <v>23.99</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>23.99</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
         <v>222</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K44" t="s">
         <v>223</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L44" t="s">
         <v>90</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M44" t="s">
         <v>91</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
         <v>224</v>
       </c>
-      <c r="Q32">
+      <c r="Q44">
         <v>31.46</v>
       </c>
-      <c r="R32">
+      <c r="R44">
         <v>6.92</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y44" t="s">
         <v>225</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Z44" t="s">
         <v>226</v>
       </c>
-      <c r="AA32">
+      <c r="AA44">
         <v>20861</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AB44" t="s">
         <v>227</v>
       </c>
-      <c r="AD32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="b">
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="297">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -711,9 +711,6 @@
     <t>2025-09-02T23:27:10+00:00</t>
   </si>
   <si>
-    <t>2025-09-03T06:45:35+00:00</t>
-  </si>
-  <si>
     <t>Chester-Le-Street</t>
   </si>
   <si>
@@ -886,6 +883,33 @@
   </si>
   <si>
     <t>SK6 4EA</t>
+  </si>
+  <si>
+    <t>206-2305372-3932322</t>
+  </si>
+  <si>
+    <t>2025-09-03T15:10:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-03T15:40:42+00:00</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Unshipped</t>
+  </si>
+  <si>
+    <t>EDINBURGH</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>EH14 3HS</t>
+  </si>
+  <si>
+    <t>2025-09-03T21:19:35+00:00</t>
   </si>
 </sst>
 </file>
@@ -1692,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,16 +1827,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1836,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1851,10 +1875,13 @@
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>231</v>
+        <v>293</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>294</v>
       </c>
       <c r="AA2" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -1868,13 +1895,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1892,13 +1919,13 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1910,16 +1937,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R3">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="AA3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -1933,13 +1960,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1957,13 +1984,13 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -1975,19 +2002,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AA4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2001,13 +2025,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2025,13 +2049,13 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -2049,10 +2073,13 @@
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>240</v>
       </c>
       <c r="AA5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2066,13 +2093,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2090,13 +2117,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2108,16 +2135,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R6">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2131,13 +2158,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2179,10 +2206,10 @@
         <v>5.83</v>
       </c>
       <c r="Y7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2196,13 +2223,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2220,13 +2247,13 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2238,16 +2265,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AA8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2261,16 +2288,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2282,34 +2309,37 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R9">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AA9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2323,16 +2353,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -2347,34 +2377,31 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R10">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AA10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2388,13 +2415,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2412,34 +2439,34 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>69.98</v>
+        <v>99</v>
       </c>
       <c r="R11">
-        <v>11.66</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AA11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2453,13 +2480,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2477,34 +2504,34 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R12">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AA12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2518,13 +2545,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2542,13 +2569,13 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -2560,19 +2587,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AA13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2586,13 +2610,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2610,13 +2634,13 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2634,13 +2658,13 @@
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="Z14" t="s">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="AA14" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2654,13 +2678,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2678,13 +2702,13 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -2696,19 +2720,19 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R15">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2722,13 +2746,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2746,13 +2770,13 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -2764,16 +2788,19 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y16" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
       </c>
       <c r="AA16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -2787,13 +2814,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -2835,10 +2862,10 @@
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AA17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -2852,13 +2879,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -2900,10 +2927,10 @@
         <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AA18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -2917,13 +2944,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -2941,13 +2968,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -2965,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -2982,13 +3009,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3006,13 +3033,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -3030,10 +3057,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3047,13 +3074,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3071,37 +3098,34 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R21">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3115,13 +3139,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3151,22 +3175,25 @@
         <v>36</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R22">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y22" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>93</v>
       </c>
       <c r="AA22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3180,13 +3207,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3204,13 +3231,13 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3222,19 +3249,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3248,13 +3272,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3272,13 +3296,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3290,19 +3314,19 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R24">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AA24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3316,13 +3340,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3364,13 +3388,13 @@
         <v>13.33</v>
       </c>
       <c r="Y25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Z25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3384,13 +3408,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3432,13 +3456,13 @@
         <v>13.33</v>
       </c>
       <c r="Y26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Z26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AA26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3452,13 +3476,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3476,13 +3500,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3494,19 +3518,19 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R27">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Z27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AA27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3520,13 +3544,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3568,10 +3592,13 @@
         <v>5.58</v>
       </c>
       <c r="Y28" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>128</v>
       </c>
       <c r="AA28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3585,13 +3612,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3621,22 +3648,22 @@
         <v>36</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R29">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AA29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3650,13 +3677,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3674,37 +3701,34 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R30">
-        <v>16.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y30" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AA30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3718,13 +3742,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3742,13 +3766,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -3760,19 +3784,19 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R31">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Z31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AA31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -3786,13 +3810,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -3810,13 +3834,13 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -3828,16 +3852,19 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y32" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>153</v>
       </c>
       <c r="AA32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -3851,13 +3878,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -3875,13 +3902,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -3893,22 +3920,22 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R33">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="AA33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
       </c>
       <c r="AD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
@@ -3916,13 +3943,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -3940,13 +3967,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -3958,25 +3985,22 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y34" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AA34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
       </c>
       <c r="AD34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -3984,13 +4008,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4008,13 +4032,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4026,16 +4050,19 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R35">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>168</v>
       </c>
       <c r="AA35" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4049,13 +4076,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4073,13 +4100,13 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4097,10 +4124,10 @@
         <v>5.58</v>
       </c>
       <c r="Y36" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AA36" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4114,13 +4141,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4162,13 +4189,10 @@
         <v>5.58</v>
       </c>
       <c r="Y37" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AA37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4182,13 +4206,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4230,13 +4254,13 @@
         <v>5.58</v>
       </c>
       <c r="Y38" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="Z38" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="AA38" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4250,13 +4274,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4274,13 +4298,13 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -4292,16 +4316,19 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y39" t="s">
-        <v>195</v>
+        <v>152</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>153</v>
       </c>
       <c r="AA39" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4315,13 +4342,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4339,13 +4366,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4357,16 +4384,16 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R40">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AA40" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4380,13 +4407,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4404,13 +4431,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4422,16 +4449,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AA41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4445,13 +4472,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4493,10 +4520,10 @@
         <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AA42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4510,13 +4537,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4534,13 +4561,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4558,10 +4585,10 @@
         <v>4</v>
       </c>
       <c r="Y43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AA43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4575,66 +4602,131 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
         <v>39</v>
       </c>
       <c r="J44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44">
+        <v>23.99</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
         <v>222</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" t="s">
         <v>223</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L45" t="s">
         <v>90</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M45" t="s">
         <v>91</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
         <v>224</v>
       </c>
-      <c r="Q44">
+      <c r="Q45">
         <v>31.46</v>
       </c>
-      <c r="R44">
+      <c r="R45">
         <v>6.92</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y45" t="s">
         <v>225</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Z45" t="s">
         <v>226</v>
       </c>
-      <c r="AA44">
+      <c r="AA45">
         <v>20861</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB45" t="s">
         <v>227</v>
       </c>
-      <c r="AD44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="b">
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5664CF-E8B9-490B-A3D5-B72BB2BE6919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="120460738613020330" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="314">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -910,12 +911,63 @@
   </si>
   <si>
     <t>2025-09-03T21:19:35+00:00</t>
+  </si>
+  <si>
+    <t>026-8963265-6046736</t>
+  </si>
+  <si>
+    <t>2025-09-04T18:44:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-04T19:14:34+00:00</t>
+  </si>
+  <si>
+    <t>Coppull Chorley</t>
+  </si>
+  <si>
+    <t>Lancs</t>
+  </si>
+  <si>
+    <t>PR7 4PA</t>
+  </si>
+  <si>
+    <t>203-8858258-7768358</t>
+  </si>
+  <si>
+    <t>2025-09-04T16:36:07+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-04T23:26:06+00:00</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Nottinghamshire</t>
+  </si>
+  <si>
+    <t>NG2 7GL</t>
+  </si>
+  <si>
+    <t>202-4176722-0809902</t>
+  </si>
+  <si>
+    <t>2025-09-04T06:20:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-04T08:08:32+00:00</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>L10 0AG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1715,11 +1767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,6 +4782,207 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N46" t="s">
+        <v>292</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>34.99</v>
+      </c>
+      <c r="R46">
+        <v>5.83</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>99</v>
+      </c>
+      <c r="R47">
+        <v>16.5</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48">
+        <v>23.99</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5664CF-E8B9-490B-A3D5-B72BB2BE6919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="120460738613020330" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="346">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -892,15 +886,6 @@
     <t>2025-09-03T15:10:12+00:00</t>
   </si>
   <si>
-    <t>2025-09-03T15:40:42+00:00</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Unshipped</t>
-  </si>
-  <si>
     <t>EDINBURGH</t>
   </si>
   <si>
@@ -919,9 +904,6 @@
     <t>2025-09-04T18:44:57+00:00</t>
   </si>
   <si>
-    <t>2025-09-04T19:14:34+00:00</t>
-  </si>
-  <si>
     <t>Coppull Chorley</t>
   </si>
   <si>
@@ -937,9 +919,6 @@
     <t>2025-09-04T16:36:07+00:00</t>
   </si>
   <si>
-    <t>2025-09-04T23:26:06+00:00</t>
-  </si>
-  <si>
     <t>Nottingham</t>
   </si>
   <si>
@@ -962,12 +941,123 @@
   </si>
   <si>
     <t>L10 0AG</t>
+  </si>
+  <si>
+    <t>205-2010900-5439508</t>
+  </si>
+  <si>
+    <t>2025-09-07T23:35:08+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-08T06:04:27+00:00</t>
+  </si>
+  <si>
+    <t>NEWPORT</t>
+  </si>
+  <si>
+    <t>NP19 4LG</t>
+  </si>
+  <si>
+    <t>205-2177917-5455508</t>
+  </si>
+  <si>
+    <t>2025-09-07T22:31:03+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-08T06:05:31+00:00</t>
+  </si>
+  <si>
+    <t>G53 6JD</t>
+  </si>
+  <si>
+    <t>204-9206967-5560359</t>
+  </si>
+  <si>
+    <t>2025-09-06T20:13:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-07T20:29:09+00:00</t>
+  </si>
+  <si>
+    <t>PERRANPORTH</t>
+  </si>
+  <si>
+    <t>TR6 0LL</t>
+  </si>
+  <si>
+    <t>026-6845205-0108331</t>
+  </si>
+  <si>
+    <t>2025-09-06T19:16:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-07T16:55:55+00:00</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>North Lincolnshire</t>
+  </si>
+  <si>
+    <t>DN17 2EQ</t>
+  </si>
+  <si>
+    <t>204-5094663-6633103</t>
+  </si>
+  <si>
+    <t>2025-09-05T15:31:59+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-06T06:50:10+00:00</t>
+  </si>
+  <si>
+    <t>Leigh</t>
+  </si>
+  <si>
+    <t>WN72XJ</t>
+  </si>
+  <si>
+    <t>205-1386258-0175559</t>
+  </si>
+  <si>
+    <t>2025-09-05T09:20:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-05T12:45:15+00:00</t>
+  </si>
+  <si>
+    <t>BALLYCASTLE</t>
+  </si>
+  <si>
+    <t>Antrim</t>
+  </si>
+  <si>
+    <t>BT54 6WX</t>
+  </si>
+  <si>
+    <t>2025-09-05T08:49:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-05T07:42:36+00:00</t>
+  </si>
+  <si>
+    <t>206-2897361-9951540</t>
+  </si>
+  <si>
+    <t>2025-09-04T05:34:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-04T05:39:06+00:00</t>
+  </si>
+  <si>
+    <t>FAZAKERLEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1548,7 +1638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,7 +1673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1760,18 +1850,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,16 +1969,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1903,16 +1993,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1921,19 +2011,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="AA2" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -1947,13 +2034,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1971,34 +2058,34 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="AA3" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2012,13 +2099,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2036,13 +2123,13 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2054,16 +2141,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R4">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="AA4" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2077,13 +2164,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2101,13 +2188,13 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -2119,19 +2206,19 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y5" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="Z5" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="AA5" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2145,13 +2232,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2169,13 +2256,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2193,10 +2280,10 @@
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="AA6" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2210,13 +2297,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2234,13 +2321,13 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -2252,16 +2339,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R7">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>250</v>
+        <v>337</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>338</v>
       </c>
       <c r="AA7" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2275,13 +2365,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2323,10 +2413,13 @@
         <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>255</v>
+        <v>296</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>297</v>
       </c>
       <c r="AA8" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2340,13 +2433,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2364,13 +2457,13 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -2382,16 +2475,19 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>260</v>
+        <v>301</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>302</v>
       </c>
       <c r="AA9" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2405,16 +2501,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -2426,34 +2522,37 @@
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="AA10" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2467,16 +2566,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2488,37 +2587,28 @@
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11">
-        <v>99</v>
-      </c>
-      <c r="R11">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>270</v>
+        <v>345</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2532,13 +2622,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2553,37 +2643,40 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R12">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>275</v>
+        <v>290</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>291</v>
       </c>
       <c r="AA12" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2597,13 +2690,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2618,16 +2711,16 @@
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -2639,16 +2732,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R13">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AA13" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2662,13 +2755,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2683,16 +2776,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2704,19 +2797,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="AA14" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2730,13 +2820,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2751,7 +2841,7 @@
         <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K15" t="s">
         <v>41</v>
@@ -2778,13 +2868,13 @@
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="Z15" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AA15" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2798,13 +2888,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2819,16 +2909,16 @@
         <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -2840,19 +2930,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R16">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="AA16" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -2866,13 +2953,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -2887,16 +2974,16 @@
         <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -2908,16 +2995,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -2931,13 +3018,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -2952,16 +3039,16 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -2973,16 +3060,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="AA18" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -2996,13 +3083,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3017,7 +3104,7 @@
         <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
@@ -3044,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="AA19" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3061,16 +3148,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3085,34 +3172,31 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y20" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AA20" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3126,13 +3210,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3150,13 +3234,13 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3168,16 +3252,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="AA21" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3191,13 +3275,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3239,13 +3323,10 @@
         <v>11.66</v>
       </c>
       <c r="Y22" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="AA22" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3259,13 +3340,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3283,13 +3364,13 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3301,16 +3382,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R23">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="AA23" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3324,13 +3405,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3348,13 +3429,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3372,13 +3453,13 @@
         <v>4</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="Z24" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="AA24" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3392,13 +3473,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3416,13 +3497,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3434,19 +3515,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R25">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y25" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AA25" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3460,13 +3541,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3508,13 +3589,13 @@
         <v>13.33</v>
       </c>
       <c r="Y26" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="Z26" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="AA26" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3528,13 +3609,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3552,13 +3633,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3570,19 +3651,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R27">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="AA27" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3596,13 +3674,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3620,13 +3698,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3638,19 +3716,16 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R28">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="AA28" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3664,13 +3739,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3688,13 +3763,13 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -3706,16 +3781,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3729,13 +3804,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3753,34 +3828,34 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>66.98</v>
+        <v>23.99</v>
       </c>
       <c r="R30">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3794,13 +3869,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3818,13 +3893,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -3836,19 +3911,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R31">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="AA31" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -3862,13 +3934,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -3898,25 +3970,25 @@
         <v>36</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R32">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y32" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="Z32" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="AA32" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -3930,13 +4002,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -3954,13 +4026,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -3972,16 +4044,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y33" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="AA33" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -3995,13 +4067,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4019,13 +4091,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4037,22 +4109,25 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R34">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>104</v>
       </c>
       <c r="AA34" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
       </c>
       <c r="AD34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4060,13 +4135,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4084,13 +4159,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4102,19 +4177,19 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y35" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="Z35" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="AA35" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4128,13 +4203,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4152,13 +4227,13 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L36" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4170,16 +4245,19 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R36">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y36" t="s">
-        <v>176</v>
+        <v>115</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>116</v>
       </c>
       <c r="AA36" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4193,13 +4271,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4217,13 +4295,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4235,16 +4313,19 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R37">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y37" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>122</v>
       </c>
       <c r="AA37" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4258,13 +4339,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4306,13 +4387,13 @@
         <v>5.58</v>
       </c>
       <c r="Y38" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="Z38" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="AA38" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4326,13 +4407,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4374,13 +4455,10 @@
         <v>5.58</v>
       </c>
       <c r="Y39" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA39" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4394,13 +4472,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4418,34 +4496,34 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y40" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="AA40" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4459,13 +4537,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4507,10 +4585,13 @@
         <v>16.5</v>
       </c>
       <c r="Y41" t="s">
-        <v>200</v>
+        <v>146</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>147</v>
       </c>
       <c r="AA41" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4524,13 +4605,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4548,13 +4629,13 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -4566,16 +4647,19 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y42" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>153</v>
       </c>
       <c r="AA42" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4589,13 +4673,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4637,10 +4721,10 @@
         <v>4</v>
       </c>
       <c r="Y43" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="AA43" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4654,13 +4738,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4678,13 +4762,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -4696,22 +4780,22 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y44" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="AA44" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
       </c>
       <c r="AD44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" t="b">
         <v>0</v>
@@ -4719,61 +4803,64 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q45">
-        <v>31.46</v>
+        <v>23.99</v>
       </c>
       <c r="R45">
-        <v>6.92</v>
+        <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="Z45" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA45">
-        <v>20861</v>
+        <v>168</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>169</v>
       </c>
       <c r="AB45" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
@@ -4784,16 +4871,16 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>37</v>
@@ -4805,19 +4892,19 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N46" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4826,19 +4913,16 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R46">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y46" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>301</v>
+        <v>176</v>
       </c>
       <c r="AA46" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -4852,16 +4936,16 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -4873,19 +4957,19 @@
         <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4894,19 +4978,16 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R47">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y47" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="AA47" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -4920,13 +5001,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -4941,16 +5022,16 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -4962,16 +5043,19 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R48">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y48" t="s">
-        <v>312</v>
+        <v>186</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>187</v>
       </c>
       <c r="AA48" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -4980,6 +5064,464 @@
         <v>0</v>
       </c>
       <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
+        <v>89</v>
+      </c>
+      <c r="L49" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <v>33.49</v>
+      </c>
+      <c r="R49">
+        <v>5.58</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50">
+        <v>23.99</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" t="s">
+        <v>145</v>
+      </c>
+      <c r="N51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51">
+        <v>99</v>
+      </c>
+      <c r="R51">
+        <v>16.5</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <v>23.99</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53">
+        <v>23.99</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54">
+        <v>23.99</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>221</v>
+      </c>
+      <c r="H55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" t="s">
+        <v>223</v>
+      </c>
+      <c r="L55" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" t="s">
+        <v>91</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q55">
+        <v>31.46</v>
+      </c>
+      <c r="R55">
+        <v>6.92</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA55">
+        <v>20861</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="120460738613020330" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="353">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1052,6 +1057,27 @@
   </si>
   <si>
     <t>FAZAKERLEY</t>
+  </si>
+  <si>
+    <t>026-6772029-6865958</t>
+  </si>
+  <si>
+    <t>2025-09-09T15:25:55+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T15:52:06+00:00</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Unshipped</t>
+  </si>
+  <si>
+    <t>LOSSIEMOUTH</t>
+  </si>
+  <si>
+    <t>IV31 6TN</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1858,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,6 +5551,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" t="s">
+        <v>143</v>
+      </c>
+      <c r="L56" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" t="s">
+        <v>145</v>
+      </c>
+      <c r="N56" t="s">
+        <v>350</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56">
+        <v>99</v>
+      </c>
+      <c r="R56">
+        <v>16.5</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="367">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1078,6 +1078,48 @@
   </si>
   <si>
     <t>IV31 6TN</t>
+  </si>
+  <si>
+    <t>026-1450774-3129108</t>
+  </si>
+  <si>
+    <t>2025-09-11T18:20:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-11T18:58:47+00:00</t>
+  </si>
+  <si>
+    <t>Buckchi Motion Sensor Lights Indoor, 4 Pack Cupboard Light, Stair Lights Night Light, 3 Modes USB Charging Wall, Magnetic for Kitchen Stair Closet Under Cabinet, 50 Lumens 6000K Warm White</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Warm 250601000010</t>
+  </si>
+  <si>
+    <t>B0FND8L7N5</t>
+  </si>
+  <si>
+    <t>Langho</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>BB6 8DT</t>
+  </si>
+  <si>
+    <t>205-8164344-9869957</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:24:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:55:03+00:00</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>L21 8HU</t>
   </si>
 </sst>
 </file>
@@ -1884,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,16 +2037,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2019,16 +2061,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>358</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2037,16 +2079,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R2">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y2" t="s">
-        <v>312</v>
+        <v>359</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>360</v>
       </c>
       <c r="AA2" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2060,16 +2105,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2084,34 +2129,37 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>198</v>
+        <v>23.99</v>
       </c>
       <c r="R3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>215</v>
+        <v>365</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>93</v>
       </c>
       <c r="AA3" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2125,13 +2173,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2173,10 +2221,10 @@
         <v>5.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AA4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2190,13 +2238,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2214,37 +2262,34 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>79.989999999999995</v>
+        <v>198</v>
       </c>
       <c r="R5">
-        <v>13.33</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="AA5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2258,13 +2303,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2282,13 +2327,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2300,16 +2345,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AA6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2323,13 +2368,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2347,13 +2392,13 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -2365,19 +2410,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R7">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Z7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AA7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2391,13 +2436,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2415,13 +2460,13 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2433,19 +2478,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R8">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AA8" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2459,13 +2501,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2507,13 +2549,13 @@
         <v>16.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="Z9" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="AA9" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2527,13 +2569,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2551,13 +2593,13 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -2569,16 +2611,19 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>297</v>
       </c>
       <c r="AA10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2592,16 +2637,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2616,25 +2661,37 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <v>99</v>
+      </c>
+      <c r="R11">
+        <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="Z11" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="AA11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2648,10 +2705,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>306</v>
@@ -2696,13 +2753,10 @@
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA12" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2716,16 +2770,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -2748,26 +2802,17 @@
       <c r="M13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13">
-        <v>23.99</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>230</v>
+        <v>345</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>93</v>
       </c>
       <c r="AA13" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2781,13 +2826,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2805,13 +2850,13 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2823,16 +2868,19 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R14">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>290</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>291</v>
       </c>
       <c r="AA14" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2846,13 +2894,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2894,13 +2942,10 @@
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2914,13 +2959,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2938,13 +2983,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -2956,16 +3001,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="AA16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -2979,13 +3024,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3003,13 +3048,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3021,16 +3066,19 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R17">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>240</v>
       </c>
       <c r="AA17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3044,13 +3092,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3068,13 +3116,13 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -3086,16 +3134,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R18">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AA18" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3109,13 +3157,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3133,13 +3181,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3151,16 +3199,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y19" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA19" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3174,16 +3222,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3195,7 +3243,7 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
         <v>89</v>
@@ -3206,23 +3254,26 @@
       <c r="M20" t="s">
         <v>91</v>
       </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R20">
         <v>5.83</v>
       </c>
       <c r="Y20" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3236,13 +3287,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3257,16 +3308,16 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3278,16 +3329,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R21">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA21" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3301,16 +3352,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3333,26 +3384,23 @@
       <c r="M22" t="s">
         <v>91</v>
       </c>
-      <c r="N22" t="s">
-        <v>36</v>
-      </c>
       <c r="O22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R22">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA22" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3366,13 +3414,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3414,10 +3462,10 @@
         <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA23" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3431,13 +3479,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3455,37 +3503,34 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y24" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AA24" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3499,13 +3544,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3523,13 +3568,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3541,19 +3586,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AA25" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3567,13 +3609,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3591,13 +3633,13 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3609,19 +3651,19 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R26">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="Z26" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="AA26" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3635,13 +3677,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3683,10 +3725,13 @@
         <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>46</v>
       </c>
       <c r="AA27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3700,13 +3745,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3724,13 +3769,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3742,16 +3787,19 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y28" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
       </c>
       <c r="AA28" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3765,13 +3813,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3813,10 +3861,10 @@
         <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3830,13 +3878,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3854,13 +3902,13 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -3878,10 +3926,10 @@
         <v>4</v>
       </c>
       <c r="Y30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AA30" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3895,13 +3943,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3943,10 +3991,10 @@
         <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AA31" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -3960,13 +4008,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -3984,37 +4032,34 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R32">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4028,13 +4073,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4052,13 +4097,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4070,16 +4115,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R33">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AA33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4093,13 +4138,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4117,37 +4162,37 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y34" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z34" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA34" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4161,13 +4206,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4185,13 +4230,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4203,19 +4248,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R35">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y35" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AA35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4229,13 +4271,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4253,13 +4295,13 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4271,19 +4313,19 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R36">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4297,13 +4339,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4345,13 +4387,13 @@
         <v>13.33</v>
       </c>
       <c r="Y37" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z37" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AA37" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4365,13 +4407,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4389,13 +4431,13 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4407,19 +4449,19 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R38">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y38" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z38" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AA38" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4433,13 +4475,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4457,13 +4499,13 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M39" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -4475,16 +4517,19 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R39">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y39" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>122</v>
       </c>
       <c r="AA39" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4498,13 +4543,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4534,22 +4579,25 @@
         <v>36</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R40">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y40" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>128</v>
       </c>
       <c r="AA40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4563,13 +4611,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4587,13 +4635,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4605,19 +4653,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R41">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y41" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AA41" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4631,13 +4676,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4667,25 +4712,22 @@
         <v>36</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R42">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y42" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AA42" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4699,13 +4741,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4723,13 +4765,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4741,16 +4783,19 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R43">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>147</v>
       </c>
       <c r="AA43" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4764,13 +4809,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4788,13 +4833,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -4806,22 +4851,25 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R44">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y44" t="s">
-        <v>133</v>
+        <v>152</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>153</v>
       </c>
       <c r="AA44" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
       </c>
       <c r="AD44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="b">
         <v>0</v>
@@ -4829,13 +4877,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -4853,13 +4901,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -4877,13 +4925,10 @@
         <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AA45" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -4897,13 +4942,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -4921,13 +4966,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -4939,22 +4984,22 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R46">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y46" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA46" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -4962,13 +5007,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -4986,13 +5031,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5004,16 +5049,19 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R47">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>168</v>
       </c>
       <c r="AA47" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5027,13 +5075,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5051,13 +5099,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M48" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5075,13 +5123,10 @@
         <v>5.58</v>
       </c>
       <c r="Y48" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA48" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5095,13 +5140,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5143,13 +5188,10 @@
         <v>5.58</v>
       </c>
       <c r="Y49" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AA49" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5163,13 +5205,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5187,13 +5229,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5205,16 +5247,19 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y50" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>187</v>
       </c>
       <c r="AA50" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5228,13 +5273,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5252,13 +5297,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5270,16 +5315,19 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R51">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y51" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>153</v>
       </c>
       <c r="AA51" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5293,13 +5341,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5341,10 +5389,10 @@
         <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AA52" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5358,13 +5406,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5382,13 +5430,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5400,16 +5448,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA53" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5423,13 +5471,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5447,13 +5495,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -5471,10 +5519,10 @@
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AA54" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5488,61 +5536,61 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
         <v>39</v>
       </c>
       <c r="J55" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N55" t="s">
+        <v>36</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q55">
-        <v>31.46</v>
+        <v>23.99</v>
       </c>
       <c r="R55">
-        <v>6.92</v>
+        <v>4</v>
       </c>
       <c r="Y55" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA55">
-        <v>20861</v>
+        <v>210</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>211</v>
       </c>
       <c r="AB55" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD55" t="b">
         <v>0</v>
@@ -5553,16 +5601,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -5574,19 +5622,19 @@
         <v>39</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M56" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N56" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -5595,16 +5643,16 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R56">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="AA56" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5613,6 +5661,136 @@
         <v>0</v>
       </c>
       <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>221</v>
+      </c>
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" t="s">
+        <v>223</v>
+      </c>
+      <c r="L57" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" t="s">
+        <v>91</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q57">
+        <v>31.46</v>
+      </c>
+      <c r="R57">
+        <v>6.92</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA57">
+        <v>20861</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58" t="s">
+        <v>348</v>
+      </c>
+      <c r="E58" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" t="s">
+        <v>143</v>
+      </c>
+      <c r="L58" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" t="s">
+        <v>145</v>
+      </c>
+      <c r="N58" t="s">
+        <v>350</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q58">
+        <v>99</v>
+      </c>
+      <c r="R58">
+        <v>16.5</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="368">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>L21 8HU</t>
+  </si>
+  <si>
+    <t>2025-09-10T07:42:39+00:00</t>
   </si>
 </sst>
 </file>
@@ -1926,13 +1929,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG58"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2173,13 +2180,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2197,13 +2204,13 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2215,16 +2222,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R4">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="AA4" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2238,16 +2245,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2271,25 +2278,25 @@
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="AA5" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2303,13 +2310,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2351,10 +2358,10 @@
         <v>5.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AA6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2368,13 +2375,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2392,37 +2399,34 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>79.989999999999995</v>
+        <v>198</v>
       </c>
       <c r="R7">
-        <v>13.33</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="AA7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2436,13 +2440,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2460,13 +2464,13 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2478,16 +2482,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AA8" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2501,13 +2505,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2525,13 +2529,13 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -2543,19 +2547,19 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R9">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Z9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AA9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2569,13 +2573,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2593,13 +2597,13 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -2611,19 +2615,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AA10" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2637,13 +2638,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2685,13 +2686,13 @@
         <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="Z11" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="AA11" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2705,13 +2706,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2729,13 +2730,13 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2747,16 +2748,19 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>297</v>
       </c>
       <c r="AA12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2770,16 +2774,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -2794,25 +2798,37 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>99</v>
+      </c>
+      <c r="R13">
+        <v>16.5</v>
       </c>
       <c r="Y13" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="AA13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2826,10 +2842,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
         <v>306</v>
@@ -2874,13 +2890,10 @@
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA14" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2894,16 +2907,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -2926,26 +2939,17 @@
       <c r="M15" t="s">
         <v>43</v>
       </c>
-      <c r="N15" t="s">
-        <v>36</v>
-      </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15">
-        <v>23.99</v>
-      </c>
-      <c r="R15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>230</v>
+        <v>345</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>93</v>
       </c>
       <c r="AA15" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2959,13 +2963,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2983,13 +2987,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3001,16 +3005,19 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R16">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>290</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>291</v>
       </c>
       <c r="AA16" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3024,13 +3031,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3072,13 +3079,10 @@
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA17" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3092,13 +3096,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3116,13 +3120,13 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -3134,16 +3138,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="AA18" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3157,13 +3161,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3181,13 +3185,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3199,16 +3203,19 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R19">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>240</v>
       </c>
       <c r="AA19" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3222,13 +3229,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3246,13 +3253,13 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -3264,16 +3271,16 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R20">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AA20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3287,13 +3294,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3311,13 +3318,13 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3329,16 +3336,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA21" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3352,16 +3359,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3373,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
         <v>89</v>
@@ -3384,23 +3391,26 @@
       <c r="M22" t="s">
         <v>91</v>
       </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R22">
         <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA22" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3414,13 +3424,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3435,16 +3445,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3456,16 +3466,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R23">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA23" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3479,16 +3489,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -3511,26 +3521,23 @@
       <c r="M24" t="s">
         <v>91</v>
       </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
       <c r="O24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R24">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA24" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3544,13 +3551,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3592,10 +3599,10 @@
         <v>16.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA25" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3609,13 +3616,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3633,37 +3640,34 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y26" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3677,13 +3681,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3701,13 +3705,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3719,19 +3723,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AA27" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3745,13 +3746,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3769,13 +3770,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3787,19 +3788,19 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R28">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y28" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="Z28" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="AA28" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3813,13 +3814,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3861,10 +3862,13 @@
         <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>46</v>
       </c>
       <c r="AA29" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3878,13 +3882,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3902,13 +3906,13 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -3920,16 +3924,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y30" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
       </c>
       <c r="AA30" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3943,13 +3950,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3991,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA31" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4008,13 +4015,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4032,13 +4039,13 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4056,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AA32" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4073,13 +4080,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4121,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AA33" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4138,13 +4145,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4162,37 +4169,34 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R34">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4206,13 +4210,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4230,13 +4234,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4248,16 +4252,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R35">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AA35" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4271,13 +4275,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4295,37 +4299,37 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4339,13 +4343,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4363,13 +4367,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4381,19 +4385,16 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R37">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y37" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AA37" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4407,13 +4408,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4431,13 +4432,13 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4449,19 +4450,19 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R38">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Z38" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA38" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4475,13 +4476,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4523,13 +4524,13 @@
         <v>13.33</v>
       </c>
       <c r="Y39" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z39" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AA39" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4543,13 +4544,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4567,13 +4568,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4585,19 +4586,19 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R40">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y40" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z40" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AA40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4611,13 +4612,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4635,13 +4636,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4653,16 +4654,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R41">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y41" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>122</v>
       </c>
       <c r="AA41" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4676,13 +4680,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4712,22 +4716,25 @@
         <v>36</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R42">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y42" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>128</v>
       </c>
       <c r="AA42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4741,13 +4748,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4765,13 +4772,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4783,19 +4790,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R43">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y43" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AA43" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4809,13 +4813,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4845,25 +4849,22 @@
         <v>36</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R44">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y44" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AA44" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4877,13 +4878,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -4901,13 +4902,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M45" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -4919,16 +4920,19 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y45" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>147</v>
       </c>
       <c r="AA45" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -4942,13 +4946,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -4966,13 +4970,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M46" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -4984,22 +4988,25 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R46">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y46" t="s">
-        <v>133</v>
+        <v>152</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>153</v>
       </c>
       <c r="AA46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5007,13 +5014,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5031,13 +5038,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5055,13 +5062,10 @@
         <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AA47" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5075,13 +5079,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5099,13 +5103,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5117,22 +5121,22 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R48">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y48" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA48" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
       </c>
       <c r="AD48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" t="b">
         <v>0</v>
@@ -5140,13 +5144,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5164,13 +5168,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5182,16 +5186,19 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R49">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>168</v>
       </c>
       <c r="AA49" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5205,13 +5212,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5229,13 +5236,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5253,13 +5260,10 @@
         <v>5.58</v>
       </c>
       <c r="Y50" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA50" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5273,13 +5277,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5321,13 +5325,10 @@
         <v>5.58</v>
       </c>
       <c r="Y51" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AA51" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5341,13 +5342,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5365,13 +5366,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5383,16 +5384,19 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y52" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>187</v>
       </c>
       <c r="AA52" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5406,13 +5410,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5430,13 +5434,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5448,16 +5452,19 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R53">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y53" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>153</v>
       </c>
       <c r="AA53" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5471,13 +5478,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5519,10 +5526,10 @@
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AA54" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5536,13 +5543,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5560,13 +5567,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5578,16 +5585,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA55" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5601,13 +5608,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5625,13 +5632,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5649,10 +5656,10 @@
         <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AA56" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5666,61 +5673,61 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
         <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q57">
-        <v>31.46</v>
+        <v>23.99</v>
       </c>
       <c r="R57">
-        <v>6.92</v>
+        <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA57">
-        <v>20861</v>
+        <v>210</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>211</v>
       </c>
       <c r="AB57" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD57" t="b">
         <v>0</v>
@@ -5731,16 +5738,16 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -5752,19 +5759,19 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N58" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5773,16 +5780,16 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R58">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y58" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="AA58" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5791,6 +5798,71 @@
         <v>0</v>
       </c>
       <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>221</v>
+      </c>
+      <c r="H59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59" t="s">
+        <v>91</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q59">
+        <v>31.46</v>
+      </c>
+      <c r="R59">
+        <v>6.92</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA59">
+        <v>20861</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="369">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1123,6 +1123,9 @@
   </si>
   <si>
     <t>2025-09-10T07:42:39+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-12T05:56:01+00:00</t>
   </si>
 </sst>
 </file>
@@ -1929,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,16 +2047,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2068,16 +2071,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2086,19 +2089,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>14.49</v>
+        <v>23.99</v>
       </c>
       <c r="R2">
-        <v>2.42</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Z2" t="s">
-        <v>360</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2112,13 +2115,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
         <v>349</v>
@@ -2136,13 +2139,13 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="N3" t="s">
         <v>350</v>
@@ -2154,19 +2157,19 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>23.99</v>
+        <v>14.49</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>2.42</v>
       </c>
       <c r="Y3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Z3" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="AA3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2180,16 +2183,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2204,16 +2207,16 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2222,16 +2225,19 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>99</v>
+        <v>14.49</v>
       </c>
       <c r="R4">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y4" t="s">
-        <v>351</v>
+        <v>359</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>360</v>
       </c>
       <c r="AA4" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2245,13 +2251,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
         <v>349</v>
@@ -2269,13 +2275,13 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>350</v>
@@ -2287,16 +2293,19 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R5">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>351</v>
+        <v>365</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>93</v>
       </c>
       <c r="AA5" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2310,13 +2319,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2334,13 +2343,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2352,16 +2361,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R6">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="AA6" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2375,13 +2384,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2411,22 +2420,22 @@
         <v>36</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="R7">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="AA7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2440,16 +2449,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2464,16 +2473,16 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2482,16 +2491,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R8">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="AA8" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2505,13 +2514,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2529,13 +2538,13 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -2547,19 +2556,16 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R9">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AA9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2573,13 +2579,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2597,34 +2603,34 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="AA10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2638,13 +2644,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2662,13 +2668,13 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -2680,19 +2686,16 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R11">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="AA11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2706,13 +2709,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2730,13 +2733,13 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2748,19 +2751,19 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R12">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y12" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Z12" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="AA12" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2774,13 +2777,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2798,13 +2801,13 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -2816,19 +2819,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R13">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="AA13" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2866,13 +2866,13 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2884,16 +2884,19 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="s">
-        <v>307</v>
+        <v>337</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>338</v>
       </c>
       <c r="AA14" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2907,16 +2910,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -2931,25 +2934,37 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15">
+        <v>34.99</v>
+      </c>
+      <c r="R15">
+        <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="Z15" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AA15" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2963,13 +2978,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -2987,13 +3002,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3005,19 +3020,19 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Z16" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AA16" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3031,13 +3046,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3079,10 +3094,10 @@
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="AA17" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3096,16 +3111,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3120,34 +3135,25 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18">
-        <v>99</v>
-      </c>
-      <c r="R18">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>345</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>93</v>
       </c>
       <c r="AA18" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3161,13 +3167,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3209,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="Z19" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AA19" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3229,13 +3235,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3253,13 +3259,13 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -3277,10 +3283,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AA20" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3294,13 +3300,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3318,13 +3324,13 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3336,16 +3342,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AA21" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3359,13 +3365,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3383,13 +3389,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -3401,16 +3407,19 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R22">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>240</v>
       </c>
       <c r="AA22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3424,13 +3433,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3448,13 +3457,13 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3472,10 +3481,10 @@
         <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3489,16 +3498,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -3510,7 +3519,7 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
         <v>89</v>
@@ -3521,23 +3530,26 @@
       <c r="M24" t="s">
         <v>91</v>
       </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R24">
         <v>5.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3551,13 +3563,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3572,16 +3584,16 @@
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3593,16 +3605,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R25">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AA25" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3616,13 +3628,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3637,37 +3649,37 @@
         <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R26">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3681,16 +3693,16 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3705,34 +3717,31 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R27">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AA27" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3746,13 +3755,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3770,13 +3779,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3788,19 +3797,16 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3814,13 +3820,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3838,37 +3844,34 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AA29" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3882,13 +3885,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -3906,13 +3909,13 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -3924,19 +3927,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R30">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="AA30" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3950,13 +3950,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3974,13 +3974,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -3998,10 +3998,13 @@
         <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>286</v>
       </c>
       <c r="AA31" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4015,13 +4018,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4063,10 +4066,13 @@
         <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>46</v>
       </c>
       <c r="AA32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4080,13 +4086,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4104,13 +4110,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4122,16 +4128,19 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y33" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
       </c>
       <c r="AA33" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4145,13 +4154,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4169,13 +4178,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4193,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AA34" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4210,13 +4219,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4258,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AA35" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4275,13 +4284,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4299,37 +4308,34 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R36">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AA36" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4343,13 +4349,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4367,13 +4373,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4385,16 +4391,16 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R37">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y37" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4408,13 +4414,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4456,13 +4462,10 @@
         <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AA38" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4476,13 +4479,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4500,37 +4503,37 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R39">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Z39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AA39" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4544,13 +4547,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4568,13 +4571,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4586,19 +4589,16 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R40">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4636,13 +4636,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4654,19 +4654,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R41">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Z41" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AA41" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4704,13 +4704,13 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -4722,19 +4722,19 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R42">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y42" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Z42" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AA42" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4748,13 +4748,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4772,13 +4772,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4790,16 +4790,19 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R43">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y43" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>116</v>
       </c>
       <c r="AA43" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4813,13 +4816,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4837,34 +4840,37 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P44" t="s">
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R44">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y44" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>122</v>
       </c>
       <c r="AA44" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4878,13 +4884,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -4902,13 +4908,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -4920,19 +4926,19 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R45">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y45" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z45" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA45" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -4946,13 +4952,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -4994,13 +5000,10 @@
         <v>5.58</v>
       </c>
       <c r="Y46" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA46" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5014,13 +5017,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5038,34 +5041,34 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" t="s">
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y47" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AA47" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5079,13 +5082,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5103,13 +5106,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M48" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5121,22 +5124,25 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R48">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>147</v>
       </c>
       <c r="AA48" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
       </c>
       <c r="AD48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="b">
         <v>0</v>
@@ -5144,13 +5150,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5168,13 +5174,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5186,19 +5192,19 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y49" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Z49" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AA49" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5212,13 +5218,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5236,13 +5242,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M50" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5254,16 +5260,16 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R50">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AA50" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5277,13 +5283,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5301,13 +5307,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5319,22 +5325,22 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R51">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y51" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AA51" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
       </c>
       <c r="AD51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="b">
         <v>0</v>
@@ -5342,13 +5348,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5366,13 +5372,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5384,19 +5390,19 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R52">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Z52" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AA52" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5410,13 +5416,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5434,13 +5440,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M53" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5458,13 +5464,10 @@
         <v>5.58</v>
       </c>
       <c r="Y53" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AA53" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5478,13 +5481,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5502,13 +5505,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -5520,16 +5523,16 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y54" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AA54" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5543,13 +5546,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5567,13 +5570,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5585,16 +5588,19 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R55">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y55" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>187</v>
       </c>
       <c r="AA55" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5608,13 +5614,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5632,13 +5638,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5650,16 +5656,19 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y56" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>153</v>
       </c>
       <c r="AA56" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5673,13 +5682,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -5721,10 +5730,10 @@
         <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AA57" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5738,13 +5747,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -5762,13 +5771,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -5780,16 +5789,16 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R58">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AA58" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5803,66 +5812,261 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
         <v>39</v>
       </c>
       <c r="J59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59">
+        <v>23.99</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60">
+        <v>23.99</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61">
+        <v>23.99</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
         <v>222</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K62" t="s">
         <v>223</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L62" t="s">
         <v>90</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M62" t="s">
         <v>91</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
         <v>224</v>
       </c>
-      <c r="Q59">
+      <c r="Q62">
         <v>31.46</v>
       </c>
-      <c r="R59">
+      <c r="R62">
         <v>6.92</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Y62" t="s">
         <v>225</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Z62" t="s">
         <v>226</v>
       </c>
-      <c r="AA59">
+      <c r="AA62">
         <v>20861</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB62" t="s">
         <v>227</v>
       </c>
-      <c r="AD59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="b">
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="408">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -969,9 +969,6 @@
     <t>2025-09-07T22:31:03+00:00</t>
   </si>
   <si>
-    <t>2025-09-08T06:05:31+00:00</t>
-  </si>
-  <si>
     <t>G53 6JD</t>
   </si>
   <si>
@@ -981,9 +978,6 @@
     <t>2025-09-06T20:13:10+00:00</t>
   </si>
   <si>
-    <t>2025-09-07T20:29:09+00:00</t>
-  </si>
-  <si>
     <t>PERRANPORTH</t>
   </si>
   <si>
@@ -1065,9 +1059,6 @@
     <t>2025-09-09T15:25:55+00:00</t>
   </si>
   <si>
-    <t>2025-09-09T15:52:06+00:00</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -1086,9 +1077,6 @@
     <t>2025-09-11T18:20:36+00:00</t>
   </si>
   <si>
-    <t>2025-09-11T18:58:47+00:00</t>
-  </si>
-  <si>
     <t>Buckchi Motion Sensor Lights Indoor, 4 Pack Cupboard Light, Stair Lights Night Light, 3 Modes USB Charging Wall, Magnetic for Kitchen Stair Closet Under Cabinet, 50 Lumens 6000K Warm White</t>
   </si>
   <si>
@@ -1113,9 +1101,6 @@
     <t>2025-09-11T16:24:57+00:00</t>
   </si>
   <si>
-    <t>2025-09-11T16:55:03+00:00</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -1125,7 +1110,139 @@
     <t>2025-09-10T07:42:39+00:00</t>
   </si>
   <si>
-    <t>2025-09-12T05:56:01+00:00</t>
+    <t>026-3412412-5830705</t>
+  </si>
+  <si>
+    <t>2025-09-14T10:38:54+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-14T11:09:23+00:00</t>
+  </si>
+  <si>
+    <t>METHIL</t>
+  </si>
+  <si>
+    <t>KY8 2BL</t>
+  </si>
+  <si>
+    <t>204-3700131-2152334</t>
+  </si>
+  <si>
+    <t>2025-09-13T12:52:57+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-15T04:30:11+00:00</t>
+  </si>
+  <si>
+    <t>CUMNOCK</t>
+  </si>
+  <si>
+    <t>KA18 3RE</t>
+  </si>
+  <si>
+    <t>203-5635102-1997125</t>
+  </si>
+  <si>
+    <t>2025-09-12T17:38:09+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-13T07:57:34+00:00</t>
+  </si>
+  <si>
+    <t>LEEDS</t>
+  </si>
+  <si>
+    <t>LS26 8EE</t>
+  </si>
+  <si>
+    <t>205-0035924-1648331</t>
+  </si>
+  <si>
+    <t>2025-09-12T12:26:12+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-13T07:54:21+00:00</t>
+  </si>
+  <si>
+    <t>COTTINGHAM</t>
+  </si>
+  <si>
+    <t>HU16 4AD</t>
+  </si>
+  <si>
+    <t>2025-09-13T03:05:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-12T06:26:39+00:00</t>
+  </si>
+  <si>
+    <t>204-5980798-3633964</t>
+  </si>
+  <si>
+    <t>2025-09-09T00:14:19+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T05:33:05+00:00</t>
+  </si>
+  <si>
+    <t>L9 9DU</t>
+  </si>
+  <si>
+    <t>205-3451485-4517119</t>
+  </si>
+  <si>
+    <t>2025-09-08T23:04:56+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T20:05:02+00:00</t>
+  </si>
+  <si>
+    <t>Honiton</t>
+  </si>
+  <si>
+    <t>EX14 1EF</t>
+  </si>
+  <si>
+    <t>026-4331872-8893128</t>
+  </si>
+  <si>
+    <t>2025-09-08T11:41:37+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T05:33:35+00:00</t>
+  </si>
+  <si>
+    <t>STOKE-ON-TRENT</t>
+  </si>
+  <si>
+    <t>ST4 6TH</t>
+  </si>
+  <si>
+    <t>2025-09-09T01:30:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T15:59:30+00:00</t>
+  </si>
+  <si>
+    <t>407-2137741-6745920</t>
+  </si>
+  <si>
+    <t>2025-09-08T18:13:11+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-09T07:20:04+00:00</t>
+  </si>
+  <si>
+    <t>Sedia da ufficio con seduta massaggiante a 8 punti riscaldata, sedia da gioco con braccioli, schienale alto, reclinabile a 150Â°, girevole, in pelle PU, colore grigio</t>
+  </si>
+  <si>
+    <t>Executive Grey Chair 250601000003</t>
+  </si>
+  <si>
+    <t>B0FP91W434</t>
+  </si>
+  <si>
+    <t>VARESE</t>
   </si>
 </sst>
 </file>
@@ -1932,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG62"/>
+  <dimension ref="A1:AG66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,16 +2164,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2071,16 +2188,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2089,19 +2206,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="AA2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2115,16 +2229,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2139,16 +2253,16 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2157,19 +2271,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R3">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y3" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AA3" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2183,16 +2294,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2207,16 +2318,16 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2225,19 +2336,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R4">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="AA4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2251,16 +2359,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2284,7 +2392,7 @@
         <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2299,13 +2407,10 @@
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AA5" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2319,13 +2424,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2343,13 +2448,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2361,16 +2466,19 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>99</v>
+        <v>14.49</v>
       </c>
       <c r="R6">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y6" t="s">
-        <v>351</v>
+        <v>355</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>356</v>
       </c>
       <c r="AA6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2384,13 +2492,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2408,13 +2516,13 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -2426,16 +2534,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R7">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>351</v>
+        <v>360</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>93</v>
       </c>
       <c r="AA7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2449,16 +2560,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2482,7 +2593,7 @@
         <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2497,10 +2608,10 @@
         <v>16.5</v>
       </c>
       <c r="Y8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AA8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2514,13 +2625,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2550,22 +2661,22 @@
         <v>36</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R9">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AA9" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2579,13 +2690,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2603,34 +2714,34 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>198</v>
+        <v>34.99</v>
       </c>
       <c r="R10">
-        <v>33</v>
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="AA10" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2644,13 +2755,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2668,13 +2779,13 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -2686,22 +2797,22 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R11">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="AA11" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
       </c>
       <c r="AD11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -2709,13 +2820,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2733,13 +2844,13 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2751,19 +2862,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R12">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AA12" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2777,13 +2885,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2801,34 +2909,34 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="AA13" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2842,13 +2950,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2866,13 +2974,13 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2884,19 +2992,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R14">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="AA14" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2910,13 +3015,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2934,13 +3039,13 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -2952,19 +3057,19 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R15">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Z15" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AA15" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2978,13 +3083,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3002,13 +3107,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3020,19 +3125,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R16">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AA16" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3046,13 +3148,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3070,13 +3172,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3088,16 +3190,19 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="s">
-        <v>307</v>
+        <v>335</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>336</v>
       </c>
       <c r="AA17" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3111,16 +3216,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3135,25 +3240,37 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18">
+        <v>34.99</v>
+      </c>
+      <c r="R18">
+        <v>5.83</v>
       </c>
       <c r="Y18" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="Z18" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AA18" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3167,13 +3284,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3191,13 +3308,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3209,19 +3326,19 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Z19" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AA19" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3235,13 +3352,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3283,10 +3400,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="AA20" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3300,16 +3417,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -3324,34 +3441,25 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21">
-        <v>99</v>
-      </c>
-      <c r="R21">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>343</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>93</v>
       </c>
       <c r="AA21" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3365,13 +3473,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3413,13 +3521,13 @@
         <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="Z22" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AA22" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3433,13 +3541,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3457,13 +3565,13 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3481,10 +3589,10 @@
         <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3498,13 +3606,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3522,13 +3630,13 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3540,16 +3648,16 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R24">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AA24" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3563,13 +3671,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3587,13 +3695,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3605,16 +3713,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R25">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y25" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>240</v>
       </c>
       <c r="AA25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3628,13 +3739,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3652,13 +3763,13 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3676,10 +3787,10 @@
         <v>4</v>
       </c>
       <c r="Y26" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3693,16 +3804,16 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3714,7 +3825,7 @@
         <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
         <v>89</v>
@@ -3725,23 +3836,26 @@
       <c r="M27" t="s">
         <v>91</v>
       </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R27">
         <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3755,13 +3869,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -3776,16 +3890,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3797,16 +3911,16 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R28">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AA28" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3820,13 +3934,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3841,37 +3955,37 @@
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AA29" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3885,16 +3999,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -3909,34 +4023,31 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N30" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R30">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AA30" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -3950,13 +4061,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -3974,13 +4085,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -3992,19 +4103,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4018,13 +4126,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4042,37 +4150,34 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4086,13 +4191,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4110,13 +4215,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4128,19 +4233,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R33">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4154,13 +4256,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4178,13 +4280,13 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4202,10 +4304,13 @@
         <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>286</v>
       </c>
       <c r="AA34" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4219,13 +4324,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4267,10 +4372,13 @@
         <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>46</v>
       </c>
       <c r="AA35" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4284,13 +4392,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4308,13 +4416,13 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4326,16 +4434,19 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y36" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
       </c>
       <c r="AA36" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4349,13 +4460,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4373,13 +4484,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4397,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="Y37" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AA37" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4414,13 +4525,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4462,10 +4573,10 @@
         <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AA38" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4479,13 +4590,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4503,37 +4614,34 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M39" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R39">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AA39" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4547,13 +4655,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4571,13 +4679,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4589,16 +4697,16 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R40">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4612,13 +4720,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4660,13 +4768,10 @@
         <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AA41" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4680,13 +4785,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4704,37 +4809,37 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R42">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Z42" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AA42" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4748,13 +4853,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4772,13 +4877,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4790,19 +4895,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R43">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y43" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AA43" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4816,13 +4918,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4840,13 +4942,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -4858,19 +4960,19 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R44">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Z44" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AA44" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4884,13 +4986,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -4908,13 +5010,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -4926,19 +5028,19 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R45">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Z45" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -4952,13 +5054,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -4976,13 +5078,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -4994,16 +5096,19 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R46">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y46" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>116</v>
       </c>
       <c r="AA46" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5017,13 +5122,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5041,34 +5146,37 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R47">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y47" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>122</v>
       </c>
       <c r="AA47" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5082,13 +5190,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5106,13 +5214,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5124,19 +5232,19 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R48">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y48" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z48" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA48" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5150,13 +5258,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5198,13 +5306,10 @@
         <v>5.58</v>
       </c>
       <c r="Y49" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA49" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5218,13 +5323,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5242,34 +5347,34 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="s">
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y50" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AA50" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5283,13 +5388,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5307,13 +5412,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L51" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M51" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5325,22 +5430,25 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R51">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y51" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>147</v>
       </c>
       <c r="AA51" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
       </c>
       <c r="AD51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="b">
         <v>0</v>
@@ -5348,13 +5456,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5372,13 +5480,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5390,19 +5498,19 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y52" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Z52" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AA52" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5416,13 +5524,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5440,13 +5548,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M53" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5458,16 +5566,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R53">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y53" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AA53" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5481,13 +5589,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5505,13 +5613,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -5523,22 +5631,22 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R54">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y54" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AA54" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
       </c>
       <c r="AD54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" t="b">
         <v>0</v>
@@ -5546,13 +5654,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5570,13 +5678,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5588,19 +5696,19 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R55">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y55" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Z55" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AA55" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5614,13 +5722,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5638,13 +5746,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5662,13 +5770,10 @@
         <v>5.58</v>
       </c>
       <c r="Y56" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AA56" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5682,13 +5787,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -5706,13 +5811,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -5724,16 +5829,16 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y57" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AA57" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5747,13 +5852,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -5771,13 +5876,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -5789,16 +5894,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R58">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y58" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>187</v>
       </c>
       <c r="AA58" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5812,13 +5920,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -5836,13 +5944,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L59" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -5854,16 +5962,19 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R59">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y59" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>153</v>
       </c>
       <c r="AA59" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -5877,13 +5988,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -5925,10 +6036,10 @@
         <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AA60" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -5942,13 +6053,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -5966,13 +6077,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M61" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -5984,16 +6095,16 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R61">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y61" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AA61" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6007,66 +6118,326 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H62" t="s">
         <v>39</v>
       </c>
       <c r="J62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62">
+        <v>23.99</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <v>23.99</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64">
+        <v>23.99</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" t="s">
+        <v>403</v>
+      </c>
+      <c r="E65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s">
         <v>222</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K65" t="s">
+        <v>404</v>
+      </c>
+      <c r="L65" t="s">
+        <v>405</v>
+      </c>
+      <c r="M65" t="s">
+        <v>406</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q65">
+        <v>84.72</v>
+      </c>
+      <c r="R65">
+        <v>18.64</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA65">
+        <v>21100</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>221</v>
+      </c>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" t="s">
         <v>223</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L66" t="s">
         <v>90</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M66" t="s">
         <v>91</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
         <v>224</v>
       </c>
-      <c r="Q62">
+      <c r="Q66">
         <v>31.46</v>
       </c>
-      <c r="R62">
+      <c r="R66">
         <v>6.92</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y66" t="s">
         <v>225</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Z66" t="s">
         <v>226</v>
       </c>
-      <c r="AA62">
+      <c r="AA66">
         <v>20861</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB66" t="s">
         <v>227</v>
       </c>
-      <c r="AD62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="b">
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="448">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1243,6 +1243,126 @@
   </si>
   <si>
     <t>VARESE</t>
+  </si>
+  <si>
+    <t>205-8950625-9276321</t>
+  </si>
+  <si>
+    <t>P504230</t>
+  </si>
+  <si>
+    <t>SO19 7TG</t>
+  </si>
+  <si>
+    <t>Hampshire</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>2025-09-15T19:32:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-15T07:10:59+00:00</t>
+  </si>
+  <si>
+    <t>202-3472236-4281148</t>
+  </si>
+  <si>
+    <t>PA11QU</t>
+  </si>
+  <si>
+    <t>.paisley</t>
+  </si>
+  <si>
+    <t>2025-09-16T12:15:00+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-15T09:44:53+00:00</t>
+  </si>
+  <si>
+    <t>202-6329464-0264320</t>
+  </si>
+  <si>
+    <t>SS8 9TG</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>CANVEY ISLAND</t>
+  </si>
+  <si>
+    <t>Executive Office Chair with 8-point Massage Seat Heated, PC Desk Gaming Chair with Armrests, Footrest High Back 150Â° Recliner Tilt Padded Swivel PU Leather, Grey Color</t>
+  </si>
+  <si>
+    <t>2025-09-16T08:23:53+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-15T12:44:19+00:00</t>
+  </si>
+  <si>
+    <t>IG3 9JF</t>
+  </si>
+  <si>
+    <t>ILFORD</t>
+  </si>
+  <si>
+    <t>2025-09-16T12:53:03+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-15T22:27:48+00:00</t>
+  </si>
+  <si>
+    <t>202-3835589-2501139</t>
+  </si>
+  <si>
+    <t>CO14 8HP</t>
+  </si>
+  <si>
+    <t>WALTON ON THE NAZE</t>
+  </si>
+  <si>
+    <t>2025-09-16T18:52:27+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-16T18:21:18+00:00</t>
+  </si>
+  <si>
+    <t>026-5508196-8845119</t>
+  </si>
+  <si>
+    <t>DE24 3BA</t>
+  </si>
+  <si>
+    <t>Derbyshire</t>
+  </si>
+  <si>
+    <t>DERBY</t>
+  </si>
+  <si>
+    <t>2025-09-16T18:57:35+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-16T18:27:21+00:00</t>
+  </si>
+  <si>
+    <t>204-4085189-7862735</t>
+  </si>
+  <si>
+    <t>LA2 6ND</t>
+  </si>
+  <si>
+    <t>LANCASTER</t>
+  </si>
+  <si>
+    <t>2025-09-16T21:50:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-16T21:20:18+00:00</t>
+  </si>
+  <si>
+    <t>026-6570111-9221161</t>
   </si>
 </sst>
 </file>
@@ -2049,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG66"/>
+  <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,13 +2284,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2185,16 +2305,16 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2206,16 +2326,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R2">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y2" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="AA2" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2229,16 +2349,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2250,19 +2370,19 @@
         <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2271,16 +2391,19 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R3">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>371</v>
+        <v>439</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>438</v>
       </c>
       <c r="AA3" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2294,16 +2417,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2315,7 +2438,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
         <v>89</v>
@@ -2327,25 +2450,25 @@
         <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R4">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y4" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="AA4" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2359,16 +2482,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2380,19 +2503,19 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2403,14 +2526,11 @@
       <c r="Q5">
         <v>23.99</v>
       </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
       <c r="Y5" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="AA5" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2424,13 +2544,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2445,16 +2565,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="L6" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="M6" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2466,19 +2586,19 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>14.49</v>
+        <v>89</v>
       </c>
       <c r="R6">
-        <v>2.42</v>
+        <v>14.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="Z6" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="AA6" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2492,13 +2612,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2513,16 +2633,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -2534,19 +2654,16 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="AA7" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2560,13 +2677,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2581,16 +2698,16 @@
         <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2602,22 +2719,28 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R8">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>348</v>
+        <v>412</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>411</v>
       </c>
       <c r="AA8" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>409</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -2625,16 +2748,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2658,25 +2781,25 @@
         <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R9">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AA9" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2690,13 +2813,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2738,10 +2861,10 @@
         <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="AA10" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2755,13 +2878,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2779,13 +2902,13 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -2797,22 +2920,22 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R11">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="AA11" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
       </c>
       <c r="AD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -2820,13 +2943,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2844,13 +2967,13 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -2862,16 +2985,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R12">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="AA12" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2885,13 +3008,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2909,34 +3032,37 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>198</v>
+        <v>14.49</v>
       </c>
       <c r="R13">
-        <v>33</v>
+        <v>2.42</v>
       </c>
       <c r="Y13" t="s">
-        <v>215</v>
+        <v>355</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>356</v>
       </c>
       <c r="AA13" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2950,13 +3076,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2974,13 +3100,13 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -2992,16 +3118,19 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R14">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>319</v>
+        <v>360</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>93</v>
       </c>
       <c r="AA14" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3015,13 +3144,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3039,13 +3168,13 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -3057,19 +3186,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R15">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="AA15" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3083,13 +3209,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3107,34 +3233,34 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="AA16" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3148,13 +3274,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3172,13 +3298,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3190,19 +3316,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R17">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="AA17" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3216,13 +3339,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3240,13 +3363,13 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -3258,25 +3381,22 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R18">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="AA18" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
       </c>
       <c r="AD18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -3284,13 +3404,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3308,13 +3428,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3326,19 +3446,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R19">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AA19" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3352,13 +3469,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3376,34 +3493,34 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3417,16 +3534,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -3441,25 +3558,34 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <v>34.99</v>
+      </c>
+      <c r="R21">
+        <v>5.83</v>
       </c>
       <c r="Y21" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="AA21" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3473,13 +3599,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3497,13 +3623,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -3515,19 +3641,19 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y22" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="Z22" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AA22" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3541,13 +3667,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3589,10 +3715,10 @@
         <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="AA23" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3606,13 +3732,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3654,10 +3780,13 @@
         <v>16.5</v>
       </c>
       <c r="Y24" t="s">
-        <v>168</v>
+        <v>335</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>336</v>
       </c>
       <c r="AA24" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3671,13 +3800,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3695,13 +3824,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3713,19 +3842,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="Z25" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="AA25" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3739,13 +3868,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3763,13 +3892,13 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3781,16 +3910,19 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>301</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>302</v>
       </c>
       <c r="AA26" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3804,13 +3936,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3828,13 +3960,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3846,16 +3978,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R27">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AA27" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3869,16 +4001,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -3893,34 +4025,25 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28">
-        <v>34.99</v>
-      </c>
-      <c r="R28">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>343</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>93</v>
       </c>
       <c r="AA28" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3934,13 +4057,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -3982,10 +4105,13 @@
         <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>290</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>291</v>
       </c>
       <c r="AA29" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3999,16 +4125,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4020,34 +4146,37 @@
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R30">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AA30" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4061,13 +4190,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4082,7 +4211,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s">
         <v>143</v>
@@ -4109,10 +4238,10 @@
         <v>16.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="AA31" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4126,13 +4255,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4147,37 +4276,40 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R32">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>239</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>240</v>
       </c>
       <c r="AA32" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4191,13 +4323,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4212,16 +4344,16 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4233,16 +4365,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R33">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="AA33" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4256,13 +4388,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4277,16 +4409,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4298,19 +4430,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="AA34" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4324,13 +4453,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4345,16 +4474,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4366,19 +4495,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4392,13 +4518,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4413,16 +4539,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4434,19 +4560,16 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R36">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="AA36" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4460,16 +4583,16 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -4484,34 +4607,31 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y37" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="AA37" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4525,13 +4645,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4549,13 +4669,13 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M38" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4567,16 +4687,16 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y38" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="AA38" t="s">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4590,13 +4710,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4614,34 +4734,34 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y39" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="AA39" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4655,13 +4775,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4679,13 +4799,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4697,16 +4817,16 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y40" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AA40" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4720,13 +4840,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4744,13 +4864,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4768,10 +4888,13 @@
         <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>84</v>
+        <v>285</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>286</v>
       </c>
       <c r="AA41" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4785,13 +4908,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4809,37 +4932,37 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R42">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="AA42" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4853,13 +4976,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4877,13 +5000,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -4895,16 +5018,19 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R43">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y43" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
       </c>
       <c r="AA43" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4918,13 +5044,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -4966,13 +5092,10 @@
         <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="AA44" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4986,13 +5109,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5010,13 +5133,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -5028,19 +5151,16 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R45">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AA45" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5054,13 +5174,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5078,13 +5198,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5096,19 +5216,16 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R46">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y46" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AA46" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5122,13 +5239,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5146,13 +5263,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5164,19 +5281,16 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R47">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5190,13 +5304,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5214,13 +5328,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5232,19 +5346,16 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R48">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="AA48" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5258,13 +5369,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5294,22 +5405,25 @@
         <v>36</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" t="s">
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R49">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y49" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>93</v>
       </c>
       <c r="AA49" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5323,13 +5437,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5359,22 +5473,22 @@
         <v>36</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R50">
-        <v>2.8</v>
+        <v>5.83</v>
       </c>
       <c r="Y50" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AA50" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5388,13 +5502,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5412,13 +5526,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5430,19 +5544,19 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R51">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="Z51" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="AA51" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5456,13 +5570,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5480,13 +5594,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5498,19 +5612,19 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R52">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y52" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="Z52" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="AA52" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5524,13 +5638,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5548,13 +5662,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5566,16 +5680,19 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y53" t="s">
-        <v>158</v>
+        <v>115</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>116</v>
       </c>
       <c r="AA53" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5589,13 +5706,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5637,16 +5754,19 @@
         <v>13.33</v>
       </c>
       <c r="Y54" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>122</v>
       </c>
       <c r="AA54" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
       </c>
       <c r="AD54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="b">
         <v>0</v>
@@ -5654,13 +5774,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5678,13 +5798,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5696,19 +5816,19 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y55" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="Z55" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AA55" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5722,13 +5842,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5746,13 +5866,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5770,10 +5890,10 @@
         <v>5.58</v>
       </c>
       <c r="Y56" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA56" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5787,13 +5907,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -5823,22 +5943,22 @@
         <v>36</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R57">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y57" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="AA57" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5852,13 +5972,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -5876,13 +5996,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -5894,19 +6014,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R58">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="Z58" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="AA58" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5920,13 +6040,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -5988,13 +6108,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6036,10 +6156,10 @@
         <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="AA60" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6053,13 +6173,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6077,13 +6197,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6095,22 +6215,22 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R61">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y61" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="AA61" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
       </c>
       <c r="AD61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" t="b">
         <v>0</v>
@@ -6118,13 +6238,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6142,13 +6262,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L62" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6166,10 +6286,13 @@
         <v>4</v>
       </c>
       <c r="Y62" t="s">
-        <v>205</v>
+        <v>167</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>168</v>
       </c>
       <c r="AA62" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6183,13 +6306,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6207,13 +6330,13 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6225,16 +6348,16 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y63" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AA63" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6248,13 +6371,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6272,13 +6395,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6290,16 +6413,16 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R64">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y64" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="AA64" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6313,61 +6436,64 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
         <v>39</v>
       </c>
       <c r="J65" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>406</v>
+        <v>91</v>
+      </c>
+      <c r="N65" t="s">
+        <v>36</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q65">
-        <v>84.72</v>
+        <v>33.49</v>
       </c>
       <c r="R65">
-        <v>18.64</v>
+        <v>5.58</v>
       </c>
       <c r="Y65" t="s">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="Z65" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA65">
-        <v>21100</v>
+        <v>187</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>188</v>
       </c>
       <c r="AB65" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD65" t="b">
         <v>0</v>
@@ -6378,31 +6504,31 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H66" t="s">
         <v>39</v>
       </c>
       <c r="J66" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="L66" t="s">
         <v>90</v>
@@ -6410,34 +6536,492 @@
       <c r="M66" t="s">
         <v>91</v>
       </c>
+      <c r="N66" t="s">
+        <v>36</v>
+      </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66">
+        <v>33.49</v>
+      </c>
+      <c r="R66">
+        <v>5.58</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q67">
+        <v>23.99</v>
+      </c>
+      <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" t="s">
+        <v>143</v>
+      </c>
+      <c r="L68" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" t="s">
+        <v>145</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68">
+        <v>99</v>
+      </c>
+      <c r="R68">
+        <v>16.5</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69">
+        <v>23.99</v>
+      </c>
+      <c r="R69">
+        <v>4</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q70">
+        <v>23.99</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71" t="s">
+        <v>78</v>
+      </c>
+      <c r="N71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71">
+        <v>23.99</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" t="s">
+        <v>403</v>
+      </c>
+      <c r="E72" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>221</v>
+      </c>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s">
+        <v>222</v>
+      </c>
+      <c r="K72" t="s">
+        <v>404</v>
+      </c>
+      <c r="L72" t="s">
+        <v>405</v>
+      </c>
+      <c r="M72" t="s">
+        <v>406</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
         <v>224</v>
       </c>
-      <c r="Q66">
+      <c r="Q72">
+        <v>84.72</v>
+      </c>
+      <c r="R72">
+        <v>18.64</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA72">
+        <v>21100</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" t="s">
+        <v>223</v>
+      </c>
+      <c r="L73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M73" t="s">
+        <v>91</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q73">
         <v>31.46</v>
       </c>
-      <c r="R66">
+      <c r="R73">
         <v>6.92</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y73" t="s">
         <v>225</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Z73" t="s">
         <v>226</v>
       </c>
-      <c r="AA66">
+      <c r="AA73">
         <v>20861</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB73" t="s">
         <v>227</v>
       </c>
-      <c r="AD66" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="b">
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="462">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1363,6 +1363,48 @@
   </si>
   <si>
     <t>026-6570111-9221161</t>
+  </si>
+  <si>
+    <t>CM20 2QS</t>
+  </si>
+  <si>
+    <t>2025-09-17T23:04:17+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-17T08:29:28+00:00</t>
+  </si>
+  <si>
+    <t>205-6841038-0993959</t>
+  </si>
+  <si>
+    <t>WN3 6XP</t>
+  </si>
+  <si>
+    <t>WIGAN</t>
+  </si>
+  <si>
+    <t>2025-09-17T21:33:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-17T11:03:44+00:00</t>
+  </si>
+  <si>
+    <t>205-8993844-3509102</t>
+  </si>
+  <si>
+    <t>IP14 1NR</t>
+  </si>
+  <si>
+    <t>STOWMARKET</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:50:54+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:21:18+00:00</t>
+  </si>
+  <si>
+    <t>204-0322018-6080350</t>
   </si>
 </sst>
 </file>
@@ -2169,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,13 +2326,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2308,13 +2350,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2326,16 +2368,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R2">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AA2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2349,13 +2391,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -2373,43 +2415,40 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>23.99</v>
+        <v>178</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>29.66</v>
       </c>
       <c r="Y3" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AA3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -2417,16 +2456,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2441,34 +2480,34 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>104.97</v>
+        <v>23.99</v>
       </c>
       <c r="R4">
-        <v>17.489999999999998</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="AA4" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2482,13 +2521,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
         <v>346</v>
@@ -2506,13 +2545,13 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
         <v>347</v>
@@ -2524,13 +2563,16 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>23.99</v>
+        <v>33.49</v>
+      </c>
+      <c r="R5">
+        <v>5.58</v>
       </c>
       <c r="Y5" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="AA5" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2544,16 +2586,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2568,16 +2610,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2586,19 +2628,19 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>23.99</v>
       </c>
       <c r="R6">
-        <v>14.83</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="Z6" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="AA6" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2612,16 +2654,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2645,25 +2687,25 @@
         <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R7">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AA7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2677,16 +2719,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2710,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2721,26 +2763,17 @@
       <c r="Q8">
         <v>23.99</v>
       </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
       <c r="Y8" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="AA8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
       </c>
       <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -2748,16 +2781,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="C9" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2769,19 +2802,19 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2790,16 +2823,19 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R9">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>366</v>
+        <v>423</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>422</v>
       </c>
       <c r="AA9" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2813,13 +2849,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2834,7 +2870,7 @@
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>89</v>
@@ -2861,10 +2897,10 @@
         <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA10" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2878,13 +2914,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2899,16 +2935,16 @@
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -2920,22 +2956,28 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R11">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>376</v>
+        <v>412</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>411</v>
       </c>
       <c r="AA11" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
       </c>
       <c r="AD11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>409</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -2943,16 +2985,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -2967,16 +3009,16 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2985,16 +3027,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AA12" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3008,13 +3050,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3032,13 +3074,13 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -3050,19 +3092,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R13">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y13" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AA13" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3076,13 +3115,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3100,13 +3139,13 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -3118,19 +3157,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="AA14" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3144,13 +3180,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3168,13 +3204,13 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -3186,16 +3222,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R15">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AA15" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3209,13 +3245,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3233,34 +3269,37 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>69.98</v>
+        <v>14.49</v>
       </c>
       <c r="R16">
-        <v>11.66</v>
+        <v>2.42</v>
       </c>
       <c r="Y16" t="s">
-        <v>307</v>
+        <v>355</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>356</v>
       </c>
       <c r="AA16" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3274,13 +3313,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3298,13 +3337,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3316,16 +3355,19 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R17">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>93</v>
       </c>
       <c r="AA17" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3339,13 +3381,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3387,16 +3429,16 @@
         <v>16.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="AA18" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
       </c>
       <c r="AD18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -3404,13 +3446,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3440,22 +3482,22 @@
         <v>36</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R19">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AA19" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3469,13 +3511,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3493,34 +3535,34 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>198</v>
+        <v>34.99</v>
       </c>
       <c r="R20">
-        <v>33</v>
+        <v>5.83</v>
       </c>
       <c r="Y20" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="AA20" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3534,13 +3576,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3558,13 +3600,13 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3576,22 +3618,22 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="AA21" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
       </c>
       <c r="AD21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="b">
         <v>0</v>
@@ -3599,13 +3641,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3623,13 +3665,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -3641,19 +3683,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R22">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AA22" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3667,13 +3706,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3691,34 +3730,34 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y23" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="AA23" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3732,13 +3771,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3756,13 +3795,13 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3774,19 +3813,16 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R24">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AA24" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3800,13 +3836,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3824,13 +3860,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3842,19 +3878,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R25">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y25" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Z25" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AA25" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3868,13 +3904,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3892,13 +3928,13 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -3910,19 +3946,16 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R26">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AA26" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3936,13 +3969,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3960,13 +3993,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -3978,16 +4011,19 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="s">
-        <v>307</v>
+        <v>335</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>336</v>
       </c>
       <c r="AA27" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4001,16 +4037,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4025,25 +4061,37 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28">
+        <v>34.99</v>
+      </c>
+      <c r="R28">
+        <v>5.83</v>
       </c>
       <c r="Y28" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Z28" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AA28" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4057,13 +4105,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4081,13 +4129,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4099,19 +4147,19 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y29" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Z29" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AA29" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4125,13 +4173,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4173,10 +4221,10 @@
         <v>4</v>
       </c>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="AA30" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4190,16 +4238,16 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -4214,34 +4262,25 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
-      </c>
-      <c r="N31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31">
-        <v>99</v>
-      </c>
-      <c r="R31">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>168</v>
+        <v>343</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>93</v>
       </c>
       <c r="AA31" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4255,13 +4294,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4303,13 +4342,13 @@
         <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AA32" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4323,13 +4362,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4347,13 +4386,13 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4371,10 +4410,10 @@
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AA33" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4388,13 +4427,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4412,13 +4451,13 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4430,16 +4469,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R34">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AA34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4453,13 +4492,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4477,13 +4516,13 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4495,16 +4534,19 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R35">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>240</v>
       </c>
       <c r="AA35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4518,13 +4560,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4542,13 +4584,13 @@
         <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4566,10 +4608,10 @@
         <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AA36" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4583,16 +4625,16 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -4604,7 +4646,7 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s">
         <v>89</v>
@@ -4615,23 +4657,26 @@
       <c r="M37" t="s">
         <v>91</v>
       </c>
+      <c r="N37" t="s">
+        <v>36</v>
+      </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R37">
         <v>5.83</v>
       </c>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AA37" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4645,13 +4690,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4666,16 +4711,16 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4687,16 +4732,16 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R38">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AA38" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4710,13 +4755,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4731,37 +4776,37 @@
         <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M39" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R39">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AA39" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4775,16 +4820,16 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -4799,34 +4844,31 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>145</v>
-      </c>
-      <c r="N40" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R40">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AA40" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4840,13 +4882,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4864,13 +4906,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4882,19 +4924,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y41" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AA41" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4908,13 +4947,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4932,37 +4971,34 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AA42" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4976,13 +5012,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -5000,13 +5036,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -5018,19 +5054,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R43">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="AA43" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5044,13 +5077,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5068,13 +5101,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5092,10 +5125,13 @@
         <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>286</v>
       </c>
       <c r="AA44" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5109,13 +5145,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5157,10 +5193,13 @@
         <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>46</v>
       </c>
       <c r="AA45" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5174,13 +5213,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5198,13 +5237,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5216,16 +5255,19 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y46" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
       </c>
       <c r="AA46" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5239,13 +5281,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5263,13 +5305,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5287,10 +5329,10 @@
         <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AA47" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5304,13 +5346,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5352,10 +5394,10 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AA48" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5369,13 +5411,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5393,37 +5435,34 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M49" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R49">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AA49" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5437,13 +5476,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5461,13 +5500,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5479,16 +5518,16 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R50">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5502,13 +5541,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5550,13 +5589,10 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AA51" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5570,13 +5606,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5594,37 +5630,37 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="s">
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R52">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y52" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Z52" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AA52" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5638,13 +5674,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5662,13 +5698,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5680,19 +5716,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R53">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y53" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AA53" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5706,13 +5739,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5730,13 +5763,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -5748,19 +5781,19 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R54">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Z54" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AA54" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5774,13 +5807,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5798,13 +5831,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5816,19 +5849,19 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R55">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y55" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AA55" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5842,13 +5875,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5866,13 +5899,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5884,16 +5917,19 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R56">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y56" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>116</v>
       </c>
       <c r="AA56" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5907,13 +5943,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -5931,34 +5967,37 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R57">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y57" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>122</v>
       </c>
       <c r="AA57" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5972,13 +6011,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -5996,13 +6035,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6014,19 +6053,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R58">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y58" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z58" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA58" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6040,13 +6079,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6088,13 +6127,10 @@
         <v>5.58</v>
       </c>
       <c r="Y59" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA59" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6108,13 +6144,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6132,34 +6168,34 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M60" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R60">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y60" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AA60" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6173,13 +6209,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6197,13 +6233,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M61" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6215,22 +6251,25 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R61">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>147</v>
       </c>
       <c r="AA61" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
       </c>
       <c r="AD61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="b">
         <v>0</v>
@@ -6238,13 +6277,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6262,13 +6301,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6280,19 +6319,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R62">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y62" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Z62" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AA62" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6306,13 +6345,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6330,13 +6369,13 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L63" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6348,16 +6387,16 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R63">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AA63" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6371,13 +6410,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6395,13 +6434,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M64" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6413,22 +6452,22 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R64">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y64" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AA64" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
       </c>
       <c r="AD64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" t="b">
         <v>0</v>
@@ -6436,13 +6475,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6460,13 +6499,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M65" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -6478,19 +6517,19 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R65">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y65" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Z65" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AA65" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6504,13 +6543,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6528,13 +6567,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M66" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6552,13 +6591,10 @@
         <v>5.58</v>
       </c>
       <c r="Y66" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AA66" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6572,13 +6608,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6596,13 +6632,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M67" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6614,16 +6650,16 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R67">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y67" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AA67" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6637,13 +6673,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6661,13 +6697,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -6679,16 +6715,19 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R68">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y68" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>187</v>
       </c>
       <c r="AA68" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6702,13 +6741,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -6726,13 +6765,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -6744,16 +6783,19 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y69" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>153</v>
       </c>
       <c r="AA69" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -6767,13 +6809,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -6815,10 +6857,10 @@
         <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AA70" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -6832,13 +6874,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -6856,13 +6898,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L71" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M71" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -6874,16 +6916,16 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R71">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y71" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AA71" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -6897,61 +6939,61 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
         <v>39</v>
       </c>
       <c r="J72" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L72" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q72">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R72">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y72" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA72">
-        <v>21100</v>
+        <v>205</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>206</v>
       </c>
       <c r="AB72" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD72" t="b">
         <v>0</v>
@@ -6962,66 +7004,261 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" t="s">
+        <v>43</v>
+      </c>
+      <c r="N73" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73">
+        <v>23.99</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" t="s">
+        <v>77</v>
+      </c>
+      <c r="M74" t="s">
+        <v>78</v>
+      </c>
+      <c r="N74" t="s">
+        <v>36</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74">
+        <v>23.99</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" t="s">
+        <v>222</v>
+      </c>
+      <c r="K75" t="s">
+        <v>404</v>
+      </c>
+      <c r="L75" t="s">
+        <v>405</v>
+      </c>
+      <c r="M75" t="s">
+        <v>406</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q75">
+        <v>84.72</v>
+      </c>
+      <c r="R75">
+        <v>18.64</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA75">
+        <v>21100</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>217</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>218</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D76" t="s">
         <v>219</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E76" t="s">
         <v>220</v>
       </c>
-      <c r="F73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
         <v>221</v>
       </c>
-      <c r="H73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
         <v>222</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K76" t="s">
         <v>223</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L76" t="s">
         <v>90</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M76" t="s">
         <v>91</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
         <v>224</v>
       </c>
-      <c r="Q73">
+      <c r="Q76">
         <v>31.46</v>
       </c>
-      <c r="R73">
+      <c r="R76">
         <v>6.92</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Y76" t="s">
         <v>225</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Z76" t="s">
         <v>226</v>
       </c>
-      <c r="AA73">
+      <c r="AA76">
         <v>20861</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AB76" t="s">
         <v>227</v>
       </c>
-      <c r="AD73" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="b">
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="477">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1405,6 +1405,51 @@
   </si>
   <si>
     <t>204-0322018-6080350</t>
+  </si>
+  <si>
+    <t>205-8783384-0815508</t>
+  </si>
+  <si>
+    <t>2025-09-18T22:51:54+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-18T23:22:20+00:00</t>
+  </si>
+  <si>
+    <t>FALKIRK</t>
+  </si>
+  <si>
+    <t>FK2 8NT</t>
+  </si>
+  <si>
+    <t>203-7067695-7228313</t>
+  </si>
+  <si>
+    <t>2025-09-18T21:46:44+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-18T22:16:37+00:00</t>
+  </si>
+  <si>
+    <t>SOLIHULL</t>
+  </si>
+  <si>
+    <t>B92 9AX</t>
+  </si>
+  <si>
+    <t>026-8129159-9647563</t>
+  </si>
+  <si>
+    <t>2025-09-18T08:18:01+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-18T09:54:08+00:00</t>
+  </si>
+  <si>
+    <t>CALNE</t>
+  </si>
+  <si>
+    <t>SN11 9RN</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2326,13 +2371,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2350,13 +2395,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2368,16 +2413,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R2">
-        <v>16.5</v>
+        <v>14.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AA2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2391,13 +2436,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -2415,40 +2460,40 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="R3">
-        <v>29.66</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="AA3" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
       </c>
       <c r="AD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -2456,13 +2501,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2480,13 +2525,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2498,16 +2543,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y4" t="s">
-        <v>167</v>
+        <v>475</v>
       </c>
       <c r="AA4" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2521,13 +2566,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E5" t="s">
         <v>346</v>
@@ -2545,13 +2590,13 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N5" t="s">
         <v>347</v>
@@ -2563,16 +2608,16 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AA5" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2586,13 +2631,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
         <v>346</v>
@@ -2610,43 +2655,40 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N6" t="s">
         <v>347</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>23.99</v>
+        <v>178</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>29.66</v>
       </c>
       <c r="Y6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AA6" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
       </c>
       <c r="AD6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2654,16 +2696,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2678,34 +2720,34 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>104.97</v>
+        <v>23.99</v>
       </c>
       <c r="R7">
-        <v>17.489999999999998</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="AA7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2719,13 +2761,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
         <v>346</v>
@@ -2743,13 +2785,13 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
         <v>347</v>
@@ -2761,13 +2803,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>23.99</v>
+        <v>33.49</v>
+      </c>
+      <c r="R8">
+        <v>5.58</v>
       </c>
       <c r="Y8" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="AA8" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2781,16 +2826,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2805,16 +2850,16 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2823,19 +2868,19 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>89</v>
+        <v>23.99</v>
       </c>
       <c r="R9">
-        <v>14.83</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="Z9" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="AA9" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2849,16 +2894,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -2882,25 +2927,25 @@
         <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y10" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AA10" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2914,16 +2959,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2947,7 +2992,7 @@
         <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2958,26 +3003,17 @@
       <c r="Q11">
         <v>23.99</v>
       </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
       <c r="Y11" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="AA11" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
       </c>
       <c r="AD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
@@ -2985,16 +3021,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -3006,19 +3042,19 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N12" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -3027,16 +3063,19 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R12">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>366</v>
+        <v>423</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>422</v>
       </c>
       <c r="AA12" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3050,13 +3089,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3071,7 +3110,7 @@
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>89</v>
@@ -3098,10 +3137,10 @@
         <v>5.83</v>
       </c>
       <c r="Y13" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA13" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3115,13 +3154,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3136,16 +3175,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -3157,22 +3196,28 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R14">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>376</v>
+        <v>412</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>411</v>
       </c>
       <c r="AA14" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
       </c>
       <c r="AD14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>409</v>
       </c>
       <c r="AG14" t="b">
         <v>0</v>
@@ -3180,16 +3225,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3204,16 +3249,16 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3222,16 +3267,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AA15" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3245,13 +3290,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3269,13 +3314,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3287,19 +3332,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R16">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y16" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AA16" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3313,13 +3355,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3337,13 +3379,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3355,19 +3397,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="AA17" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3381,13 +3420,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3405,13 +3444,13 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -3423,16 +3462,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R18">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AA18" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3446,13 +3485,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3470,34 +3509,37 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>69.98</v>
+        <v>14.49</v>
       </c>
       <c r="R19">
-        <v>11.66</v>
+        <v>2.42</v>
       </c>
       <c r="Y19" t="s">
-        <v>307</v>
+        <v>355</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>356</v>
       </c>
       <c r="AA19" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3511,13 +3553,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3535,13 +3577,13 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -3553,16 +3595,19 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R20">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>93</v>
       </c>
       <c r="AA20" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3576,13 +3621,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3624,16 +3669,16 @@
         <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="AA21" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
       </c>
       <c r="AD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="b">
         <v>0</v>
@@ -3641,13 +3686,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3677,22 +3722,22 @@
         <v>36</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R22">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AA22" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3706,13 +3751,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3730,34 +3775,34 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>198</v>
+        <v>34.99</v>
       </c>
       <c r="R23">
-        <v>33</v>
+        <v>5.83</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="AA23" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3771,13 +3816,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3795,13 +3840,13 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -3813,22 +3858,22 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R24">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="AA24" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
       </c>
       <c r="AD24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3836,13 +3881,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3860,13 +3905,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -3878,19 +3923,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R25">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AA25" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3904,13 +3946,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3928,34 +3970,34 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y26" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="AA26" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3969,13 +4011,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -3993,13 +4035,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4011,19 +4053,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R27">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AA27" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4037,13 +4076,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4061,13 +4100,13 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -4079,19 +4118,19 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R28">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y28" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Z28" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AA28" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4105,13 +4144,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4129,13 +4168,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4147,19 +4186,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AA29" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4173,13 +4209,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4197,13 +4233,13 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -4215,16 +4251,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="s">
-        <v>307</v>
+        <v>335</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>336</v>
       </c>
       <c r="AA30" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4238,16 +4277,16 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -4262,25 +4301,37 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31">
+        <v>34.99</v>
+      </c>
+      <c r="R31">
+        <v>5.83</v>
       </c>
       <c r="Y31" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Z31" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AA31" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4294,13 +4345,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4318,13 +4369,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4336,19 +4387,19 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Z32" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AA32" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4362,13 +4413,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4410,10 +4461,10 @@
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="AA33" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4427,16 +4478,16 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -4451,34 +4502,25 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34">
-        <v>99</v>
-      </c>
-      <c r="R34">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>168</v>
+        <v>343</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>93</v>
       </c>
       <c r="AA34" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4492,13 +4534,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4540,13 +4582,13 @@
         <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="Z35" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AA35" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4560,13 +4602,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4584,13 +4626,13 @@
         <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4608,10 +4650,10 @@
         <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AA36" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4625,13 +4667,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4649,13 +4691,13 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4667,16 +4709,16 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R37">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AA37" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4690,13 +4732,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4714,13 +4756,13 @@
         <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4732,16 +4774,19 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R38">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>240</v>
       </c>
       <c r="AA38" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4755,13 +4800,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4779,13 +4824,13 @@
         <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -4803,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="Y39" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AA39" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4820,16 +4865,16 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -4841,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s">
         <v>89</v>
@@ -4852,23 +4897,26 @@
       <c r="M40" t="s">
         <v>91</v>
       </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R40">
         <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AA40" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4882,13 +4930,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4903,16 +4951,16 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4924,16 +4972,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R41">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y41" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AA41" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4947,13 +4995,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4968,37 +5016,37 @@
         <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R42">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AA42" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5012,16 +5060,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5036,34 +5084,31 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
-      </c>
-      <c r="N43" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="s">
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R43">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y43" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AA43" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5077,13 +5122,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5101,13 +5146,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5119,19 +5164,16 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y44" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AA44" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5145,13 +5187,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5169,37 +5211,34 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="s">
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y45" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AA45" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5213,13 +5252,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5237,13 +5276,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M46" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5255,19 +5294,16 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R46">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="AA46" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5281,13 +5317,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5305,13 +5341,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5329,10 +5365,13 @@
         <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>286</v>
       </c>
       <c r="AA47" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5346,13 +5385,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5394,10 +5433,13 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>46</v>
       </c>
       <c r="AA48" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5411,13 +5453,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5435,13 +5477,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5453,16 +5495,19 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y49" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
       </c>
       <c r="AA49" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5476,13 +5521,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5500,13 +5545,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M50" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5524,10 +5569,10 @@
         <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AA50" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5541,13 +5586,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5589,10 +5634,10 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AA51" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5606,13 +5651,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5630,37 +5675,34 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" t="s">
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R52">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AA52" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5674,13 +5716,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5698,13 +5740,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5716,16 +5758,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R53">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y53" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5739,13 +5781,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5787,13 +5829,10 @@
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AA54" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5807,13 +5846,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5831,37 +5870,37 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" t="s">
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R55">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y55" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Z55" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AA55" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5875,13 +5914,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5899,13 +5938,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5917,19 +5956,16 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R56">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y56" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AA56" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5943,13 +5979,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -5967,13 +6003,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -5985,19 +6021,19 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R57">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Z57" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AA57" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6011,13 +6047,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6035,13 +6071,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6053,19 +6089,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R58">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y58" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Z58" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AA58" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6079,13 +6115,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6103,13 +6139,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6121,16 +6157,19 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R59">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>116</v>
       </c>
       <c r="AA59" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6144,13 +6183,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6168,34 +6207,37 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R60">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y60" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>122</v>
       </c>
       <c r="AA60" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6209,13 +6251,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6233,13 +6275,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6251,19 +6293,19 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R61">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y61" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z61" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA61" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6277,13 +6319,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6325,13 +6367,10 @@
         <v>5.58</v>
       </c>
       <c r="Y62" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA62" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6345,13 +6384,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6369,34 +6408,34 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" t="s">
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y63" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AA63" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6410,13 +6449,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6434,13 +6473,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6452,22 +6491,25 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R64">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>147</v>
       </c>
       <c r="AA64" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
       </c>
       <c r="AD64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="b">
         <v>0</v>
@@ -6475,13 +6517,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6499,13 +6541,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -6517,19 +6559,19 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y65" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Z65" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AA65" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6543,13 +6585,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6567,13 +6609,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L66" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6585,16 +6627,16 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R66">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AA66" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6608,13 +6650,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6632,13 +6674,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M67" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6650,22 +6692,22 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R67">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y67" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AA67" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
       </c>
       <c r="AD67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -6673,13 +6715,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6697,13 +6739,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M68" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -6715,19 +6757,19 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R68">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y68" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Z68" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AA68" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6741,13 +6783,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -6765,13 +6807,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M69" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -6789,13 +6831,10 @@
         <v>5.58</v>
       </c>
       <c r="Y69" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AA69" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -6809,13 +6848,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -6833,13 +6872,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -6851,16 +6890,16 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R70">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y70" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AA70" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -6874,13 +6913,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -6898,13 +6937,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -6916,16 +6955,19 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R71">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y71" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>187</v>
       </c>
       <c r="AA71" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -6939,13 +6981,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -6963,13 +7005,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -6981,16 +7023,19 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y72" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>153</v>
       </c>
       <c r="AA72" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7004,13 +7049,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7052,10 +7097,10 @@
         <v>4</v>
       </c>
       <c r="Y73" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AA73" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7069,13 +7114,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7093,13 +7138,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L74" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M74" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7111,16 +7156,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R74">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y74" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AA74" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7134,61 +7179,61 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
         <v>39</v>
       </c>
       <c r="J75" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M75" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N75" t="s">
+        <v>36</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q75">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R75">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA75">
-        <v>21100</v>
+        <v>205</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>206</v>
       </c>
       <c r="AB75" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD75" t="b">
         <v>0</v>
@@ -7199,66 +7244,261 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" t="s">
+        <v>43</v>
+      </c>
+      <c r="N76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q76">
+        <v>23.99</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" t="s">
+        <v>76</v>
+      </c>
+      <c r="L77" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" t="s">
+        <v>78</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77">
+        <v>23.99</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" t="s">
+        <v>402</v>
+      </c>
+      <c r="D78" t="s">
+        <v>403</v>
+      </c>
+      <c r="E78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>221</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" t="s">
+        <v>404</v>
+      </c>
+      <c r="L78" t="s">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s">
+        <v>406</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q78">
+        <v>84.72</v>
+      </c>
+      <c r="R78">
+        <v>18.64</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA78">
+        <v>21100</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>217</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>218</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D79" t="s">
         <v>219</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E79" t="s">
         <v>220</v>
       </c>
-      <c r="F76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
         <v>221</v>
       </c>
-      <c r="H76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
         <v>222</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K79" t="s">
         <v>223</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L79" t="s">
         <v>90</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M79" t="s">
         <v>91</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
         <v>224</v>
       </c>
-      <c r="Q76">
+      <c r="Q79">
         <v>31.46</v>
       </c>
-      <c r="R76">
+      <c r="R79">
         <v>6.92</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Y79" t="s">
         <v>225</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Z79" t="s">
         <v>226</v>
       </c>
-      <c r="AA76">
+      <c r="AA79">
         <v>20861</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AB79" t="s">
         <v>227</v>
       </c>
-      <c r="AD76" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="b">
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="486">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1450,6 +1450,33 @@
   </si>
   <si>
     <t>SN11 9RN</t>
+  </si>
+  <si>
+    <t>205-9784292-2548335</t>
+  </si>
+  <si>
+    <t>2025-09-19T19:13:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-19T19:44:01+00:00</t>
+  </si>
+  <si>
+    <t>Ledbury</t>
+  </si>
+  <si>
+    <t>HR8 1FR</t>
+  </si>
+  <si>
+    <t>026-4179487-7574722</t>
+  </si>
+  <si>
+    <t>2025-09-19T11:46:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-19T12:36:06+00:00</t>
+  </si>
+  <si>
+    <t>BT15 3AL</t>
   </si>
 </sst>
 </file>
@@ -2256,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG79"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,13 +2398,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2392,16 +2419,16 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2413,16 +2440,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R2">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="AA2" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2436,16 +2463,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2460,16 +2487,16 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2478,16 +2505,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R3">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y3" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="AA3" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2501,16 +2528,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2525,16 +2552,16 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2543,16 +2570,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R4">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AA4" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2566,13 +2593,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
         <v>346</v>
@@ -2614,10 +2641,10 @@
         <v>16.5</v>
       </c>
       <c r="Y5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AA5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2631,16 +2658,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2655,40 +2682,40 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>178</v>
+        <v>33.49</v>
       </c>
       <c r="R6">
-        <v>29.66</v>
+        <v>5.58</v>
       </c>
       <c r="Y6" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AA6" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
       </c>
       <c r="AD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -2696,16 +2723,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2720,16 +2747,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2738,16 +2765,16 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="AA7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2761,13 +2788,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
         <v>346</v>
@@ -2785,40 +2812,40 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N8" t="s">
         <v>347</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>33.49</v>
+        <v>178</v>
       </c>
       <c r="R8">
-        <v>5.58</v>
+        <v>29.66</v>
       </c>
       <c r="Y8" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AA8" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -2826,16 +2853,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2859,7 +2886,7 @@
         <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2874,13 +2901,10 @@
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="AA9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2894,13 +2918,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
         <v>346</v>
@@ -2918,34 +2942,34 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N10" t="s">
         <v>347</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>104.97</v>
+        <v>33.49</v>
       </c>
       <c r="R10">
-        <v>17.489999999999998</v>
+        <v>5.58</v>
       </c>
       <c r="Y10" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2959,13 +2983,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E11" t="s">
         <v>346</v>
@@ -3003,11 +3027,17 @@
       <c r="Q11">
         <v>23.99</v>
       </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
       <c r="Y11" t="s">
-        <v>428</v>
+        <v>439</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>438</v>
       </c>
       <c r="AA11" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3021,16 +3051,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -3045,37 +3075,34 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>104.97</v>
       </c>
       <c r="R12">
-        <v>14.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y12" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AA12" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3089,16 +3116,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3113,16 +3140,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3131,16 +3158,13 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>34.99</v>
-      </c>
-      <c r="R13">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y13" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AA13" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3154,13 +3178,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3178,13 +3202,13 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -3196,28 +3220,25 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>23.99</v>
+        <v>89</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>14.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Z14" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AA14" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
       </c>
       <c r="AD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="b">
         <v>0</v>
@@ -3225,16 +3246,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3246,7 +3267,7 @@
         <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
         <v>89</v>
@@ -3258,7 +3279,7 @@
         <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3273,10 +3294,10 @@
         <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="AA15" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3290,13 +3311,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3311,16 +3332,16 @@
         <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3332,22 +3353,28 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R16">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>371</v>
+        <v>412</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>411</v>
       </c>
       <c r="AA16" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
       </c>
       <c r="AD16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>409</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3355,16 +3382,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3388,7 +3415,7 @@
         <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3403,10 +3430,10 @@
         <v>5.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AA17" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3420,13 +3447,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -3444,13 +3471,13 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -3462,16 +3489,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y18" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AA18" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3485,13 +3512,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3509,13 +3536,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3527,19 +3554,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R19">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y19" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="AA19" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3553,13 +3577,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3601,13 +3625,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AA20" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3621,13 +3642,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3645,13 +3666,13 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3663,16 +3684,19 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>14.49</v>
       </c>
       <c r="R21">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y21" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>356</v>
       </c>
       <c r="AA21" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3686,13 +3710,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3710,34 +3734,37 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R22">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>307</v>
+        <v>360</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>93</v>
       </c>
       <c r="AA22" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3751,13 +3778,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3775,13 +3802,13 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3793,16 +3820,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R23">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="AA23" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3816,13 +3843,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -3840,40 +3867,40 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R24">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y24" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="AA24" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
       </c>
       <c r="AD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3881,13 +3908,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3929,10 +3956,10 @@
         <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="AA25" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3946,13 +3973,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3982,28 +4009,28 @@
         <v>36</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="R26">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="AA26" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
       </c>
       <c r="AD26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -4011,13 +4038,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D27" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4059,10 +4086,10 @@
         <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AA27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4076,13 +4103,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4100,37 +4127,34 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>79.989999999999995</v>
+        <v>198</v>
       </c>
       <c r="R28">
-        <v>13.33</v>
+        <v>33</v>
       </c>
       <c r="Y28" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="AA28" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4144,13 +4168,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4168,13 +4192,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4186,16 +4210,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y29" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AA29" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4209,13 +4233,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4233,13 +4257,13 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -4251,19 +4275,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R30">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y30" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="Z30" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AA30" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4277,13 +4301,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4301,13 +4325,13 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -4319,19 +4343,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R31">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AA31" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4345,13 +4366,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4393,13 +4414,13 @@
         <v>16.5</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Z32" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AA32" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4413,13 +4434,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4437,13 +4458,13 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4455,16 +4476,19 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>297</v>
       </c>
       <c r="AA33" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4478,16 +4502,16 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -4502,25 +4526,37 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M34" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>99</v>
+      </c>
+      <c r="R34">
+        <v>16.5</v>
       </c>
       <c r="Y34" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="Z34" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="AA34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4534,10 +4570,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
         <v>306</v>
@@ -4582,13 +4618,10 @@
         <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA35" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4602,16 +4635,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4634,26 +4667,17 @@
       <c r="M36" t="s">
         <v>43</v>
       </c>
-      <c r="N36" t="s">
-        <v>36</v>
-      </c>
       <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36">
-        <v>23.99</v>
-      </c>
-      <c r="R36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>230</v>
+        <v>343</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>93</v>
       </c>
       <c r="AA36" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4667,13 +4691,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4691,13 +4715,13 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4709,16 +4733,19 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R37">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y37" t="s">
-        <v>168</v>
+        <v>290</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>291</v>
       </c>
       <c r="AA37" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4732,13 +4759,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4780,13 +4807,10 @@
         <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA38" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4800,13 +4824,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4824,13 +4848,13 @@
         <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M39" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -4842,16 +4866,16 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="AA39" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4865,13 +4889,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4889,13 +4913,13 @@
         <v>222</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4907,16 +4931,19 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R40">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>240</v>
       </c>
       <c r="AA40" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4930,13 +4957,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4954,13 +4981,13 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4972,16 +4999,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R41">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AA41" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4995,13 +5022,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5019,13 +5046,13 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5037,16 +5064,16 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y42" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA42" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5060,16 +5087,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5081,7 +5108,7 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s">
         <v>89</v>
@@ -5092,23 +5119,26 @@
       <c r="M43" t="s">
         <v>91</v>
       </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="s">
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R43">
         <v>5.83</v>
       </c>
       <c r="Y43" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA43" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5122,13 +5152,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5143,16 +5173,16 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5164,16 +5194,16 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R44">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA44" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5187,16 +5217,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -5219,26 +5249,23 @@
       <c r="M45" t="s">
         <v>91</v>
       </c>
-      <c r="N45" t="s">
-        <v>36</v>
-      </c>
       <c r="O45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P45" t="s">
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R45">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA45" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5252,13 +5279,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5300,10 +5327,10 @@
         <v>16.5</v>
       </c>
       <c r="Y46" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA46" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5317,13 +5344,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5341,37 +5368,34 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" t="s">
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y47" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AA47" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5385,13 +5409,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5409,13 +5433,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5427,19 +5451,16 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R48">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AA48" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5453,13 +5474,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5477,13 +5498,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L49" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5495,19 +5516,19 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R49">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="Z49" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="AA49" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5521,13 +5542,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5569,10 +5590,13 @@
         <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>46</v>
       </c>
       <c r="AA50" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5586,13 +5610,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5610,13 +5634,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5628,16 +5652,19 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R51">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y51" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
       </c>
       <c r="AA51" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5651,13 +5678,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5699,10 +5726,10 @@
         <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA52" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5716,13 +5743,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5740,13 +5767,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M53" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5764,10 +5791,10 @@
         <v>4</v>
       </c>
       <c r="Y53" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AA53" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5781,13 +5808,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5829,10 +5856,10 @@
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AA54" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5846,13 +5873,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5870,37 +5897,34 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" t="s">
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R55">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y55" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5914,13 +5938,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5938,13 +5962,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5956,16 +5980,16 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R56">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AA56" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5979,13 +6003,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6003,37 +6027,37 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y57" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z57" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA57" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6047,13 +6071,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6071,13 +6095,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6089,19 +6113,16 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R58">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y58" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AA58" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6115,13 +6136,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6139,13 +6160,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L59" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M59" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6157,19 +6178,19 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R59">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y59" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Z59" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA59" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6183,13 +6204,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6231,13 +6252,13 @@
         <v>13.33</v>
       </c>
       <c r="Y60" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z60" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AA60" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6251,13 +6272,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6275,13 +6296,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6293,19 +6314,19 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R61">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AA61" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6319,13 +6340,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6343,13 +6364,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M62" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6361,16 +6382,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R62">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>122</v>
       </c>
       <c r="AA62" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6384,13 +6408,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6420,22 +6444,25 @@
         <v>36</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" t="s">
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R63">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>128</v>
       </c>
       <c r="AA63" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6449,13 +6476,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6473,13 +6500,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6491,19 +6518,16 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R64">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y64" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AA64" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6517,13 +6541,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6553,25 +6577,22 @@
         <v>36</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R65">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y65" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AA65" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6585,13 +6606,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6609,13 +6630,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6627,16 +6648,19 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R66">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y66" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>147</v>
       </c>
       <c r="AA66" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6650,13 +6674,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6674,13 +6698,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M67" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6692,22 +6716,25 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R67">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y67" t="s">
-        <v>133</v>
+        <v>152</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>153</v>
       </c>
       <c r="AA67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
       </c>
       <c r="AD67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -6715,13 +6742,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6739,13 +6766,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L68" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M68" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -6763,13 +6790,10 @@
         <v>4</v>
       </c>
       <c r="Y68" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AA68" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6783,13 +6807,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -6807,13 +6831,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L69" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M69" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -6825,22 +6849,22 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R69">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y69" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA69" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
       </c>
       <c r="AD69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="b">
         <v>0</v>
@@ -6848,13 +6872,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -6872,13 +6896,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L70" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M70" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -6890,16 +6914,19 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R70">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>168</v>
       </c>
       <c r="AA70" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -6913,13 +6940,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -6937,13 +6964,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -6961,13 +6988,10 @@
         <v>5.58</v>
       </c>
       <c r="Y71" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA71" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -6981,13 +7005,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7029,13 +7053,10 @@
         <v>5.58</v>
       </c>
       <c r="Y72" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AA72" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7049,13 +7070,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7073,13 +7094,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7091,16 +7112,19 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R73">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>187</v>
       </c>
       <c r="AA73" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7114,13 +7138,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7138,13 +7162,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L74" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7156,16 +7180,19 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R74">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y74" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>153</v>
       </c>
       <c r="AA74" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7179,13 +7206,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7227,10 +7254,10 @@
         <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AA75" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7244,13 +7271,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7268,13 +7295,13 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L76" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M76" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7286,16 +7313,16 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y76" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA76" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7309,13 +7336,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7333,13 +7360,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M77" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -7357,10 +7384,10 @@
         <v>4</v>
       </c>
       <c r="Y77" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AA77" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7374,61 +7401,61 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
         <v>39</v>
       </c>
       <c r="J78" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M78" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N78" t="s">
+        <v>36</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q78">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R78">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y78" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA78">
-        <v>21100</v>
+        <v>210</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>211</v>
       </c>
       <c r="AB78" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD78" t="b">
         <v>0</v>
@@ -7439,66 +7466,196 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" t="s">
+        <v>76</v>
+      </c>
+      <c r="L79" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" t="s">
+        <v>78</v>
+      </c>
+      <c r="N79" t="s">
+        <v>36</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79">
+        <v>23.99</v>
+      </c>
+      <c r="R79">
+        <v>4</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" t="s">
+        <v>403</v>
+      </c>
+      <c r="E80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" t="s">
+        <v>404</v>
+      </c>
+      <c r="L80" t="s">
+        <v>405</v>
+      </c>
+      <c r="M80" t="s">
+        <v>406</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q80">
+        <v>84.72</v>
+      </c>
+      <c r="R80">
+        <v>18.64</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA80">
+        <v>21100</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>217</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>218</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>219</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>220</v>
       </c>
-      <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
         <v>221</v>
       </c>
-      <c r="H79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s">
         <v>222</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K81" t="s">
         <v>223</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L81" t="s">
         <v>90</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M81" t="s">
         <v>91</v>
       </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
         <v>224</v>
       </c>
-      <c r="Q79">
+      <c r="Q81">
         <v>31.46</v>
       </c>
-      <c r="R79">
+      <c r="R81">
         <v>6.92</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y81" t="s">
         <v>225</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Z81" t="s">
         <v>226</v>
       </c>
-      <c r="AA79">
+      <c r="AA81">
         <v>20861</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AB81" t="s">
         <v>227</v>
       </c>
-      <c r="AD79" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="b">
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="523">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1477,6 +1477,117 @@
   </si>
   <si>
     <t>BT15 3AL</t>
+  </si>
+  <si>
+    <t>202-9333187-6126726</t>
+  </si>
+  <si>
+    <t>2025-09-20T21:14:25+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T08:16:16+00:00</t>
+  </si>
+  <si>
+    <t>WHITTLESEY</t>
+  </si>
+  <si>
+    <t>PE7 1JN</t>
+  </si>
+  <si>
+    <t>202-9158128-7307550</t>
+  </si>
+  <si>
+    <t>2025-09-20T20:42:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T08:19:36+00:00</t>
+  </si>
+  <si>
+    <t>ABERDEEN</t>
+  </si>
+  <si>
+    <t>AB21 7AF</t>
+  </si>
+  <si>
+    <t>026-8779448-1998730</t>
+  </si>
+  <si>
+    <t>2025-09-20T20:33:17+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T08:16:41+00:00</t>
+  </si>
+  <si>
+    <t>READING</t>
+  </si>
+  <si>
+    <t>RG2 8BA</t>
+  </si>
+  <si>
+    <t>026-2119659-7208344</t>
+  </si>
+  <si>
+    <t>2025-09-20T18:49:42+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T09:25:18+00:00</t>
+  </si>
+  <si>
+    <t>ST. HELENS</t>
+  </si>
+  <si>
+    <t>WA9 3UQ</t>
+  </si>
+  <si>
+    <t>026-0850700-5753912</t>
+  </si>
+  <si>
+    <t>2025-09-20T16:13:32+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T08:46:24+00:00</t>
+  </si>
+  <si>
+    <t>SOUTH SHIELDS</t>
+  </si>
+  <si>
+    <t>Tyne &amp; Wear</t>
+  </si>
+  <si>
+    <t>NE34 6AX</t>
+  </si>
+  <si>
+    <t>026-6673856-5050750</t>
+  </si>
+  <si>
+    <t>2025-09-20T11:37:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-21T08:46:19+00:00</t>
+  </si>
+  <si>
+    <t>BEXLEY</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>DA5 2JW</t>
+  </si>
+  <si>
+    <t>203-0690567-3941146</t>
+  </si>
+  <si>
+    <t>2025-09-20T07:24:54+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-20T08:46:44+00:00</t>
+  </si>
+  <si>
+    <t>HATFIELD</t>
+  </si>
+  <si>
+    <t>AL9 5EG</t>
   </si>
 </sst>
 </file>
@@ -2283,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG81"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,16 +2509,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2431,7 +2542,7 @@
         <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2446,10 +2557,10 @@
         <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AA2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2463,13 +2574,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2484,16 +2595,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2505,16 +2616,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R3">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>494</v>
       </c>
       <c r="AA3" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2528,16 +2639,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2549,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
         <v>424</v>
@@ -2561,7 +2672,7 @@
         <v>406</v>
       </c>
       <c r="N4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2576,10 +2687,10 @@
         <v>14.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="AA4" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2593,16 +2704,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2614,37 +2725,40 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R5">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y5" t="s">
-        <v>470</v>
+        <v>504</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>93</v>
       </c>
       <c r="AA5" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2658,13 +2772,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="C6" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2679,7 +2793,7 @@
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
         <v>173</v>
@@ -2706,10 +2820,13 @@
         <v>5.58</v>
       </c>
       <c r="Y6" t="s">
-        <v>475</v>
+        <v>509</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>510</v>
       </c>
       <c r="AA6" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2723,16 +2840,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2744,19 +2861,19 @@
         <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N7" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2765,16 +2882,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R7">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y7" t="s">
-        <v>458</v>
+        <v>515</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>516</v>
       </c>
       <c r="AA7" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2788,16 +2908,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2809,43 +2929,43 @@
         <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>178</v>
+        <v>33.49</v>
       </c>
       <c r="R8">
-        <v>29.66</v>
+        <v>5.58</v>
       </c>
       <c r="Y8" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="AA8" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
       </c>
       <c r="AD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -2853,16 +2973,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2874,19 +2994,19 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2895,16 +3015,16 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="AA9" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -2918,16 +3038,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -2942,16 +3062,16 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2960,16 +3080,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R10">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AA10" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2983,13 +3103,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
         <v>346</v>
@@ -3007,13 +3127,13 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N11" t="s">
         <v>347</v>
@@ -3025,19 +3145,16 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>23.99</v>
+        <v>89</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>14.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="AA11" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3051,13 +3168,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
         <v>346</v>
@@ -3075,34 +3192,34 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N12" t="s">
         <v>347</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>104.97</v>
+        <v>99</v>
       </c>
       <c r="R12">
-        <v>17.489999999999998</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="AA12" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3116,16 +3233,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3140,16 +3257,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N13" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3158,13 +3275,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>23.99</v>
+        <v>33.49</v>
+      </c>
+      <c r="R13">
+        <v>5.58</v>
       </c>
       <c r="Y13" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="AA13" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3178,16 +3298,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -3202,16 +3322,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -3220,19 +3340,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R14">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="AA14" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3246,16 +3363,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C15" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3270,40 +3387,40 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15">
+        <v>178</v>
+      </c>
+      <c r="R15">
+        <v>29.66</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" t="b">
         <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15">
-        <v>34.99</v>
-      </c>
-      <c r="R15">
-        <v>5.83</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -3311,13 +3428,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3359,22 +3476,16 @@
         <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="AA16" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
       </c>
       <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3382,13 +3493,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
         <v>346</v>
@@ -3403,16 +3514,16 @@
         <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s">
         <v>347</v>
@@ -3424,16 +3535,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R17">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y17" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="AA17" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3447,16 +3558,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3468,19 +3579,19 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3489,16 +3600,19 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R18">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>371</v>
+        <v>439</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>438</v>
       </c>
       <c r="AA18" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3512,16 +3626,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -3533,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
         <v>89</v>
@@ -3545,25 +3659,25 @@
         <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R19">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y19" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="AA19" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3577,16 +3691,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3598,19 +3712,19 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3621,14 +3735,11 @@
       <c r="Q20">
         <v>23.99</v>
       </c>
-      <c r="R20">
-        <v>4</v>
-      </c>
       <c r="Y20" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="AA20" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3642,13 +3753,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3663,16 +3774,16 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="L21" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="M21" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3684,19 +3795,19 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>14.49</v>
+        <v>89</v>
       </c>
       <c r="R21">
-        <v>2.42</v>
+        <v>14.83</v>
       </c>
       <c r="Y21" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="Z21" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="AA21" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3710,13 +3821,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3731,16 +3842,16 @@
         <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -3752,19 +3863,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="AA22" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3778,13 +3886,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -3799,16 +3907,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3820,22 +3928,28 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R23">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="s">
-        <v>348</v>
+        <v>412</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>411</v>
       </c>
       <c r="AA23" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
       </c>
       <c r="AD23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>409</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3843,16 +3957,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -3876,25 +3990,25 @@
         <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R24">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AA24" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3908,13 +4022,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D25" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -3956,10 +4070,10 @@
         <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="AA25" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3973,13 +4087,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -3997,13 +4111,13 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -4015,22 +4129,22 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R26">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y26" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="AA26" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
       </c>
       <c r="AD26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -4038,13 +4152,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4062,13 +4176,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4080,16 +4194,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R27">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="AA27" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4103,13 +4217,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4127,34 +4241,37 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>198</v>
+        <v>14.49</v>
       </c>
       <c r="R28">
-        <v>33</v>
+        <v>2.42</v>
       </c>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>355</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>356</v>
       </c>
       <c r="AA28" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4168,13 +4285,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4192,13 +4309,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4210,16 +4327,19 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>319</v>
+        <v>360</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>93</v>
       </c>
       <c r="AA29" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4233,13 +4353,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4257,13 +4377,13 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -4275,19 +4395,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R30">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="AA30" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4301,13 +4418,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4325,34 +4442,34 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y31" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="AA31" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4366,13 +4483,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4390,13 +4507,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4408,19 +4525,16 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R32">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y32" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="AA32" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4434,13 +4548,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4458,13 +4572,13 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4476,25 +4590,22 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R33">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="AA33" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
       </c>
       <c r="AD33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
@@ -4502,13 +4613,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4526,13 +4637,13 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4544,19 +4655,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R34">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4570,13 +4678,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4594,34 +4702,34 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="AA35" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4635,16 +4743,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4659,25 +4767,34 @@
         <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>34.99</v>
+      </c>
+      <c r="R36">
+        <v>5.83</v>
       </c>
       <c r="Y36" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4691,13 +4808,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4715,13 +4832,13 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4733,19 +4850,19 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y37" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="Z37" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AA37" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4759,13 +4876,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4807,10 +4924,10 @@
         <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="AA38" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4824,13 +4941,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4872,10 +4989,13 @@
         <v>16.5</v>
       </c>
       <c r="Y39" t="s">
-        <v>168</v>
+        <v>335</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>336</v>
       </c>
       <c r="AA39" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4889,13 +5009,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -4913,13 +5033,13 @@
         <v>222</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -4931,19 +5051,19 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="Z40" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="AA40" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4957,13 +5077,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -4981,13 +5101,13 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -4999,16 +5119,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y41" t="s">
-        <v>245</v>
+        <v>301</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>302</v>
       </c>
       <c r="AA41" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5022,13 +5145,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5046,13 +5169,13 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5064,16 +5187,16 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R42">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AA42" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5087,16 +5210,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5111,34 +5234,25 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N43" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43">
-        <v>34.99</v>
-      </c>
-      <c r="R43">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>255</v>
+        <v>343</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>93</v>
       </c>
       <c r="AA43" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5152,13 +5266,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5200,10 +5314,13 @@
         <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>260</v>
+        <v>290</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>291</v>
       </c>
       <c r="AA44" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5217,16 +5334,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -5238,34 +5355,37 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R45">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y45" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AA45" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5279,13 +5399,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5300,7 +5420,7 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s">
         <v>143</v>
@@ -5327,10 +5447,10 @@
         <v>16.5</v>
       </c>
       <c r="Y46" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="AA46" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5344,13 +5464,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5365,37 +5485,40 @@
         <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R47">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>275</v>
+        <v>239</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>240</v>
       </c>
       <c r="AA47" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5409,13 +5532,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5430,16 +5553,16 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L48" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5451,16 +5574,16 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R48">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="AA48" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5474,13 +5597,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5495,16 +5618,16 @@
         <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5516,19 +5639,16 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="AA49" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5542,13 +5662,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5563,16 +5683,16 @@
         <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5584,19 +5704,16 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y50" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="AA50" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5610,13 +5727,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5631,16 +5748,16 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5652,19 +5769,16 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R51">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="AA51" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5678,16 +5792,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5702,34 +5816,31 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N52" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="s">
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y52" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="AA52" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5743,13 +5854,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5767,13 +5878,13 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5785,16 +5896,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="AA53" t="s">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5808,13 +5919,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5832,34 +5943,34 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" t="s">
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y54" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="AA54" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5873,13 +5984,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -5897,13 +6008,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -5915,16 +6026,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AA55" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5938,13 +6049,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -5962,13 +6073,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -5986,10 +6097,13 @@
         <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>84</v>
+        <v>285</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>286</v>
       </c>
       <c r="AA56" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6003,13 +6117,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6027,37 +6141,37 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R57">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="AA57" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6071,13 +6185,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6095,13 +6209,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6113,16 +6227,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R58">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y58" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
       </c>
       <c r="AA58" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6136,13 +6253,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6184,13 +6301,10 @@
         <v>4</v>
       </c>
       <c r="Y59" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="AA59" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6204,13 +6318,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6228,13 +6342,13 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L60" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
@@ -6246,19 +6360,16 @@
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R60">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AA60" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6272,13 +6383,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6296,13 +6407,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L61" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6314,19 +6425,16 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R61">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y61" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AA61" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6340,13 +6448,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6364,13 +6472,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L62" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6382,19 +6490,16 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R62">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y62" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6408,13 +6513,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6432,13 +6537,13 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L63" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6450,19 +6555,16 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R63">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6476,13 +6578,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6512,22 +6614,25 @@
         <v>36</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R64">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>93</v>
       </c>
       <c r="AA64" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6541,13 +6646,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6577,22 +6682,22 @@
         <v>36</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R65">
-        <v>2.8</v>
+        <v>5.83</v>
       </c>
       <c r="Y65" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AA65" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6606,13 +6711,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6630,13 +6735,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L66" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6648,19 +6753,19 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R66">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="Z66" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="AA66" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6674,13 +6779,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6698,13 +6803,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M67" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6716,19 +6821,19 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R67">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y67" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="Z67" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="AA67" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6742,13 +6847,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6766,13 +6871,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L68" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M68" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -6784,16 +6889,19 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R68">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y68" t="s">
-        <v>158</v>
+        <v>115</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>116</v>
       </c>
       <c r="AA68" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6807,13 +6915,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -6855,16 +6963,19 @@
         <v>13.33</v>
       </c>
       <c r="Y69" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>122</v>
       </c>
       <c r="AA69" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
       </c>
       <c r="AD69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="b">
         <v>0</v>
@@ -6872,13 +6983,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -6896,13 +7007,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -6914,19 +7025,19 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R70">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y70" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="Z70" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AA70" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -6940,13 +7051,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -6964,13 +7075,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -6988,10 +7099,10 @@
         <v>5.58</v>
       </c>
       <c r="Y71" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA71" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7005,13 +7116,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7041,22 +7152,22 @@
         <v>36</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" t="s">
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R72">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y72" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="AA72" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7070,13 +7181,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7094,13 +7205,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M73" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7112,19 +7223,19 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R73">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y73" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="Z73" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="AA73" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7138,13 +7249,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7206,13 +7317,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7254,10 +7365,10 @@
         <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="AA75" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7271,13 +7382,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7295,13 +7406,13 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M76" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7313,22 +7424,22 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R76">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y76" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="AA76" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
       </c>
       <c r="AD76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -7336,13 +7447,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7360,13 +7471,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M77" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -7384,10 +7495,13 @@
         <v>4</v>
       </c>
       <c r="Y77" t="s">
-        <v>205</v>
+        <v>167</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>168</v>
       </c>
       <c r="AA77" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7401,13 +7515,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7425,13 +7539,13 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M78" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7443,16 +7557,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y78" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AA78" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7466,13 +7580,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7490,13 +7604,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7508,16 +7622,16 @@
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y79" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="AA79" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7531,61 +7645,64 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
         <v>39</v>
       </c>
       <c r="J80" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="L80" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M80" t="s">
-        <v>406</v>
+        <v>91</v>
+      </c>
+      <c r="N80" t="s">
+        <v>36</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q80">
-        <v>84.72</v>
+        <v>33.49</v>
       </c>
       <c r="R80">
-        <v>18.64</v>
+        <v>5.58</v>
       </c>
       <c r="Y80" t="s">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="Z80" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA80">
-        <v>21100</v>
+        <v>187</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>188</v>
       </c>
       <c r="AB80" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD80" t="b">
         <v>0</v>
@@ -7596,31 +7713,31 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s">
         <v>39</v>
       </c>
       <c r="J81" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="L81" t="s">
         <v>90</v>
@@ -7628,34 +7745,492 @@
       <c r="M81" t="s">
         <v>91</v>
       </c>
+      <c r="N81" t="s">
+        <v>36</v>
+      </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q81">
+        <v>33.49</v>
+      </c>
+      <c r="R81">
+        <v>5.58</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" t="s">
+        <v>43</v>
+      </c>
+      <c r="N82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q82">
+        <v>23.99</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" t="s">
+        <v>143</v>
+      </c>
+      <c r="L83" t="s">
+        <v>144</v>
+      </c>
+      <c r="M83" t="s">
+        <v>145</v>
+      </c>
+      <c r="N83" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q83">
+        <v>99</v>
+      </c>
+      <c r="R83">
+        <v>16.5</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" t="s">
+        <v>43</v>
+      </c>
+      <c r="N84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84">
+        <v>23.99</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s">
+        <v>41</v>
+      </c>
+      <c r="L85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M85" t="s">
+        <v>43</v>
+      </c>
+      <c r="N85" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q85">
+        <v>23.99</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" t="s">
+        <v>76</v>
+      </c>
+      <c r="L86" t="s">
+        <v>77</v>
+      </c>
+      <c r="M86" t="s">
+        <v>78</v>
+      </c>
+      <c r="N86" t="s">
+        <v>36</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q86">
+        <v>23.99</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>401</v>
+      </c>
+      <c r="C87" t="s">
+        <v>402</v>
+      </c>
+      <c r="D87" t="s">
+        <v>403</v>
+      </c>
+      <c r="E87" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>221</v>
+      </c>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" t="s">
+        <v>404</v>
+      </c>
+      <c r="L87" t="s">
+        <v>405</v>
+      </c>
+      <c r="M87" t="s">
+        <v>406</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
         <v>224</v>
       </c>
-      <c r="Q81">
+      <c r="Q87">
+        <v>84.72</v>
+      </c>
+      <c r="R87">
+        <v>18.64</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA87">
+        <v>21100</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
+        <v>221</v>
+      </c>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88" t="s">
+        <v>223</v>
+      </c>
+      <c r="L88" t="s">
+        <v>90</v>
+      </c>
+      <c r="M88" t="s">
+        <v>91</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q88">
         <v>31.46</v>
       </c>
-      <c r="R81">
+      <c r="R88">
         <v>6.92</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Y88" t="s">
         <v>225</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Z88" t="s">
         <v>226</v>
       </c>
-      <c r="AA81">
+      <c r="AA88">
         <v>20861</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AB88" t="s">
         <v>227</v>
       </c>
-      <c r="AD81" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="b">
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="545">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1588,6 +1588,72 @@
   </si>
   <si>
     <t>AL9 5EG</t>
+  </si>
+  <si>
+    <t>205-9572448-3334717</t>
+  </si>
+  <si>
+    <t>2025-09-22T19:23:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-22T19:53:08+00:00</t>
+  </si>
+  <si>
+    <t>FORT WILLIAM</t>
+  </si>
+  <si>
+    <t>Inverness-Shire</t>
+  </si>
+  <si>
+    <t>PH33 7HW</t>
+  </si>
+  <si>
+    <t>205-3077470-6721953</t>
+  </si>
+  <si>
+    <t>2025-09-22T15:02:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-22T15:31:20+00:00</t>
+  </si>
+  <si>
+    <t>glasgow</t>
+  </si>
+  <si>
+    <t>scotland</t>
+  </si>
+  <si>
+    <t>G511EL</t>
+  </si>
+  <si>
+    <t>206-9034114-9873138</t>
+  </si>
+  <si>
+    <t>2025-09-22T11:23:59+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-22T22:53:18+00:00</t>
+  </si>
+  <si>
+    <t>TIPTON</t>
+  </si>
+  <si>
+    <t>DY4 8UU</t>
+  </si>
+  <si>
+    <t>026-9424357-4796306</t>
+  </si>
+  <si>
+    <t>2025-09-22T06:54:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-23T04:23:40+00:00</t>
+  </si>
+  <si>
+    <t>DARLINGTON</t>
+  </si>
+  <si>
+    <t>DL1 4UY</t>
   </si>
 </sst>
 </file>
@@ -2394,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,16 +2575,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2533,16 +2599,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2551,16 +2617,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R2">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>489</v>
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>527</v>
       </c>
       <c r="AA2" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2574,16 +2643,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2607,7 +2676,7 @@
         <v>175</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2622,10 +2691,13 @@
         <v>5.58</v>
       </c>
       <c r="Y3" t="s">
-        <v>494</v>
+        <v>532</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>533</v>
       </c>
       <c r="AA3" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2639,13 +2711,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2663,13 +2735,13 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -2681,16 +2753,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R4">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AA4" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2704,13 +2776,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2728,37 +2800,34 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R5">
-        <v>11.16</v>
+        <v>5.83</v>
       </c>
       <c r="Y5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>93</v>
+        <v>543</v>
       </c>
       <c r="AA5" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2772,13 +2841,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2796,13 +2865,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2814,19 +2883,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R6">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="AA6" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2840,13 +2906,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C7" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2888,13 +2954,10 @@
         <v>5.58</v>
       </c>
       <c r="Y7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AA7" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2908,13 +2971,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2932,13 +2995,13 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -2950,16 +3013,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R8">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="AA8" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -2973,16 +3036,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2997,34 +3060,37 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R9">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y9" t="s">
-        <v>480</v>
+        <v>504</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>93</v>
       </c>
       <c r="AA9" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3038,13 +3104,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3059,16 +3125,16 @@
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -3080,16 +3146,19 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>509</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>510</v>
       </c>
       <c r="AA10" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3103,16 +3172,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -3124,19 +3193,19 @@
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L11" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M11" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3145,16 +3214,19 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R11">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y11" t="s">
-        <v>465</v>
+        <v>515</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>516</v>
       </c>
       <c r="AA11" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3168,16 +3240,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -3189,19 +3261,19 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N12" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -3210,16 +3282,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R12">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y12" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="AA12" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3233,16 +3305,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3254,19 +3326,19 @@
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3275,16 +3347,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R13">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y13" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AA13" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3298,16 +3370,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -3322,16 +3394,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -3340,16 +3412,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R14">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="AA14" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3363,13 +3435,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E15" t="s">
         <v>346</v>
@@ -3399,28 +3471,28 @@
         <v>347</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="R15">
-        <v>29.66</v>
+        <v>14.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AA15" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
       </c>
       <c r="AD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -3428,16 +3500,16 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -3452,16 +3524,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -3470,16 +3542,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AA16" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3493,16 +3565,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3526,7 +3598,7 @@
         <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3541,10 +3613,10 @@
         <v>5.58</v>
       </c>
       <c r="Y17" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AA17" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3558,13 +3630,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="E18" t="s">
         <v>346</v>
@@ -3582,13 +3654,13 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
         <v>347</v>
@@ -3600,19 +3672,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AA18" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3626,13 +3695,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s">
         <v>346</v>
@@ -3650,40 +3719,40 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N19" t="s">
         <v>347</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>104.97</v>
+        <v>178</v>
       </c>
       <c r="R19">
-        <v>17.489999999999998</v>
+        <v>29.66</v>
       </c>
       <c r="Y19" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="AA19" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
       </c>
       <c r="AD19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -3691,16 +3760,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3724,7 +3793,7 @@
         <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3735,11 +3804,14 @@
       <c r="Q20">
         <v>23.99</v>
       </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
       <c r="Y20" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="AA20" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3753,16 +3825,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -3777,16 +3849,16 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3795,19 +3867,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R21">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y21" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="AA21" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3821,16 +3890,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3845,16 +3914,16 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3863,16 +3932,19 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R22">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>417</v>
+        <v>439</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>438</v>
       </c>
       <c r="AA22" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3886,16 +3958,16 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -3910,46 +3982,40 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>23.99</v>
+        <v>104.97</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y23" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AA23" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
       </c>
       <c r="AD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3957,13 +4023,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E24" t="s">
         <v>346</v>
@@ -3978,16 +4044,16 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
         <v>347</v>
@@ -3999,16 +4065,13 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>34.99</v>
-      </c>
-      <c r="R24">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y24" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AA24" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4022,13 +4085,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -4043,16 +4106,16 @@
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -4064,16 +4127,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R25">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>371</v>
+        <v>423</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>422</v>
       </c>
       <c r="AA25" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4087,13 +4153,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -4108,7 +4174,7 @@
         <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
         <v>89</v>
@@ -4135,10 +4201,10 @@
         <v>5.83</v>
       </c>
       <c r="Y26" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="AA26" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4152,13 +4218,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4173,16 +4239,16 @@
         <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4200,16 +4266,22 @@
         <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>381</v>
+        <v>412</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>411</v>
       </c>
       <c r="AA27" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
       </c>
       <c r="AD27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>409</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -4217,16 +4289,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4241,16 +4313,16 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -4259,19 +4331,16 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R28">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y28" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA28" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4285,13 +4354,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4309,13 +4378,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4327,19 +4396,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y29" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="AA29" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4353,13 +4419,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4377,13 +4443,13 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -4395,16 +4461,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R30">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y30" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AA30" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4418,13 +4484,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4442,34 +4508,34 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R31">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="AA31" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4483,13 +4549,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4507,13 +4573,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4525,16 +4591,19 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R32">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y32" t="s">
-        <v>392</v>
+        <v>355</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>356</v>
       </c>
       <c r="AA32" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4548,13 +4617,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4572,13 +4641,13 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4590,22 +4659,25 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R33">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>397</v>
+        <v>360</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>93</v>
       </c>
       <c r="AA33" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
       </c>
       <c r="AD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
@@ -4613,13 +4685,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D34" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4637,13 +4709,13 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4655,16 +4727,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R34">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="AA34" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4678,13 +4750,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4702,13 +4774,13 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4720,16 +4792,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>198</v>
+        <v>69.98</v>
       </c>
       <c r="R35">
-        <v>33</v>
+        <v>11.66</v>
       </c>
       <c r="Y35" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="AA35" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4743,13 +4815,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4791,10 +4863,10 @@
         <v>5.83</v>
       </c>
       <c r="Y36" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="AA36" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4808,13 +4880,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4832,13 +4904,13 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
@@ -4850,25 +4922,22 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R37">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="AA37" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
       </c>
       <c r="AD37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" t="b">
         <v>0</v>
@@ -4876,13 +4945,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4900,13 +4969,13 @@
         <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4918,16 +4987,16 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AA38" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4941,13 +5010,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C39" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -4977,25 +5046,22 @@
         <v>36</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="R39">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="Y39" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="AA39" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5009,13 +5075,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -5057,13 +5123,10 @@
         <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA40" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5077,13 +5140,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D41" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5101,13 +5164,13 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -5119,19 +5182,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R41">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AA41" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5145,13 +5208,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5193,10 +5256,10 @@
         <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5210,16 +5273,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5234,25 +5297,37 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>99</v>
+      </c>
+      <c r="R43">
+        <v>16.5</v>
       </c>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Z43" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="AA43" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5266,13 +5341,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5290,13 +5365,13 @@
         <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5308,19 +5383,19 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y44" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Z44" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AA44" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5334,13 +5409,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5358,13 +5433,13 @@
         <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L45" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M45" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -5376,16 +5451,19 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y45" t="s">
-        <v>230</v>
+        <v>301</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>302</v>
       </c>
       <c r="AA45" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5399,13 +5477,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5423,13 +5501,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5441,16 +5519,16 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R46">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y46" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA46" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5464,16 +5542,16 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -5496,29 +5574,17 @@
       <c r="M47" t="s">
         <v>43</v>
       </c>
-      <c r="N47" t="s">
-        <v>36</v>
-      </c>
       <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47">
-        <v>23.99</v>
-      </c>
-      <c r="R47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="AA47" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5532,13 +5598,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5556,13 +5622,13 @@
         <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5580,10 +5646,13 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>291</v>
       </c>
       <c r="AA48" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5597,13 +5666,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5621,13 +5690,13 @@
         <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M49" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5639,16 +5708,16 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R49">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA49" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5662,13 +5731,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5686,13 +5755,13 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5704,16 +5773,16 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R50">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y50" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="AA50" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5727,13 +5796,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5775,10 +5844,13 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>240</v>
       </c>
       <c r="AA51" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5792,16 +5864,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5813,34 +5885,37 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="s">
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R52">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AA52" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5854,13 +5929,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5875,16 +5950,16 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5896,16 +5971,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R53">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y53" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA53" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5919,13 +5994,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -5940,7 +6015,7 @@
         <v>39</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K54" t="s">
         <v>89</v>
@@ -5955,22 +6030,22 @@
         <v>36</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R54">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y54" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AA54" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5984,13 +6059,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6005,16 +6080,16 @@
         <v>39</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6026,16 +6101,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R55">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y55" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA55" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6049,16 +6124,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6073,37 +6148,31 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
-      </c>
-      <c r="N56" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="s">
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y56" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AA56" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6117,13 +6186,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6141,13 +6210,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -6159,19 +6228,16 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AA57" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6185,13 +6251,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6209,37 +6275,34 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" t="s">
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R58">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y58" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="AA58" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6253,13 +6316,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6277,13 +6340,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L59" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6295,16 +6358,16 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R59">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y59" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="AA59" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6318,13 +6381,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6342,13 +6405,13 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
@@ -6366,10 +6429,13 @@
         <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>66</v>
+        <v>285</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>286</v>
       </c>
       <c r="AA60" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6383,13 +6449,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6431,10 +6497,13 @@
         <v>4</v>
       </c>
       <c r="Y61" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>46</v>
       </c>
       <c r="AA61" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6448,13 +6517,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6472,13 +6541,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6490,16 +6559,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R62">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y62" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
       </c>
       <c r="AA62" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6513,13 +6585,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6561,10 +6633,10 @@
         <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AA63" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6578,13 +6650,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6602,37 +6674,34 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M64" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P64" t="s">
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R64">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y64" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AA64" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6646,13 +6715,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6670,13 +6739,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M65" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -6688,16 +6757,16 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R65">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y65" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AA65" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6711,13 +6780,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6735,13 +6804,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6759,13 +6828,10 @@
         <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6779,13 +6845,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6803,13 +6869,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L67" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6821,19 +6887,16 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R67">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AA67" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6847,13 +6910,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6871,37 +6934,37 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R68">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y68" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Z68" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AA68" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6915,13 +6978,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -6939,13 +7002,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -6957,19 +7020,16 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R69">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y69" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="AA69" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -6983,13 +7043,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7007,13 +7067,13 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L70" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -7025,19 +7085,19 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R70">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Z70" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AA70" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7051,13 +7111,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7075,13 +7135,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -7093,16 +7153,19 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R71">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>110</v>
       </c>
       <c r="AA71" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7116,13 +7179,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7140,34 +7203,37 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M72" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="s">
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R72">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>116</v>
       </c>
       <c r="AA72" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7181,13 +7247,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7205,13 +7271,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L73" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M73" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7223,19 +7289,19 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R73">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y73" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="Z73" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="AA73" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7249,13 +7315,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7297,13 +7363,13 @@
         <v>5.58</v>
       </c>
       <c r="Y74" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="Z74" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AA74" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7317,13 +7383,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7341,13 +7407,13 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -7359,16 +7425,16 @@
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R75">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y75" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AA75" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7382,13 +7448,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7406,40 +7472,40 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M76" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" t="s">
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>79.989999999999995</v>
+        <v>66.98</v>
       </c>
       <c r="R76">
-        <v>13.33</v>
+        <v>2.8</v>
       </c>
       <c r="Y76" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AA76" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
       </c>
       <c r="AD76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -7447,13 +7513,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7471,13 +7537,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L77" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M77" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -7489,19 +7555,19 @@
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R77">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y77" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Z77" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AA77" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7515,13 +7581,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7539,13 +7605,13 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M78" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7563,10 +7629,13 @@
         <v>5.58</v>
       </c>
       <c r="Y78" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>153</v>
       </c>
       <c r="AA78" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7580,13 +7649,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7604,13 +7673,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7622,16 +7691,16 @@
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R79">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y79" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="AA79" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7645,13 +7714,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7669,13 +7738,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M80" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -7687,25 +7756,22 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R80">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y80" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AA80" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
       </c>
       <c r="AD80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG80" t="b">
         <v>0</v>
@@ -7713,13 +7779,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7737,13 +7803,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M81" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -7755,19 +7821,19 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R81">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y81" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Z81" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AA81" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -7781,13 +7847,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7805,13 +7871,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M82" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -7823,16 +7889,16 @@
         <v>44</v>
       </c>
       <c r="Q82">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y82" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AA82" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -7846,13 +7912,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -7870,13 +7936,13 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L83" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M83" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
@@ -7888,16 +7954,16 @@
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R83">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AA83" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -7911,13 +7977,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -7935,13 +8001,13 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L84" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -7953,16 +8019,19 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y84" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>187</v>
       </c>
       <c r="AA84" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -7976,13 +8045,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8000,13 +8069,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M85" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -8018,16 +8087,19 @@
         <v>44</v>
       </c>
       <c r="Q85">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R85">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y85" t="s">
-        <v>210</v>
+        <v>152</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>153</v>
       </c>
       <c r="AA85" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8041,13 +8113,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8065,13 +8137,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8089,10 +8161,10 @@
         <v>4</v>
       </c>
       <c r="Y86" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AA86" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8106,61 +8178,61 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s">
         <v>39</v>
       </c>
       <c r="J87" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="L87" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M87" t="s">
-        <v>406</v>
+        <v>145</v>
+      </c>
+      <c r="N87" t="s">
+        <v>36</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q87">
-        <v>84.72</v>
+        <v>99</v>
       </c>
       <c r="R87">
-        <v>18.64</v>
+        <v>16.5</v>
       </c>
       <c r="Y87" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA87">
-        <v>21100</v>
+        <v>200</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>201</v>
       </c>
       <c r="AB87" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD87" t="b">
         <v>0</v>
@@ -8171,66 +8243,326 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" t="s">
+        <v>42</v>
+      </c>
+      <c r="M88" t="s">
+        <v>43</v>
+      </c>
+      <c r="N88" t="s">
+        <v>36</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <v>23.99</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89" t="s">
+        <v>41</v>
+      </c>
+      <c r="L89" t="s">
+        <v>42</v>
+      </c>
+      <c r="M89" t="s">
+        <v>43</v>
+      </c>
+      <c r="N89" t="s">
+        <v>36</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89">
+        <v>23.99</v>
+      </c>
+      <c r="R89">
+        <v>4</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" t="s">
+        <v>77</v>
+      </c>
+      <c r="M90" t="s">
+        <v>78</v>
+      </c>
+      <c r="N90" t="s">
+        <v>36</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q90">
+        <v>23.99</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" t="s">
+        <v>402</v>
+      </c>
+      <c r="D91" t="s">
+        <v>403</v>
+      </c>
+      <c r="E91" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>221</v>
+      </c>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" t="s">
+        <v>404</v>
+      </c>
+      <c r="L91" t="s">
+        <v>405</v>
+      </c>
+      <c r="M91" t="s">
+        <v>406</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q91">
+        <v>84.72</v>
+      </c>
+      <c r="R91">
+        <v>18.64</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA91">
+        <v>21100</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>217</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C92" t="s">
         <v>218</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D92" t="s">
         <v>219</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E92" t="s">
         <v>220</v>
       </c>
-      <c r="F88" t="s">
-        <v>37</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
         <v>221</v>
       </c>
-      <c r="H88" t="s">
-        <v>39</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="H92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" t="s">
         <v>222</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K92" t="s">
         <v>223</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L92" t="s">
         <v>90</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M92" t="s">
         <v>91</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
         <v>224</v>
       </c>
-      <c r="Q88">
+      <c r="Q92">
         <v>31.46</v>
       </c>
-      <c r="R88">
+      <c r="R92">
         <v>6.92</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Y92" t="s">
         <v>225</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Z92" t="s">
         <v>226</v>
       </c>
-      <c r="AA88">
+      <c r="AA92">
         <v>20861</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AB92" t="s">
         <v>227</v>
       </c>
-      <c r="AD88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="b">
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="555">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1654,6 +1654,36 @@
   </si>
   <si>
     <t>DL1 4UY</t>
+  </si>
+  <si>
+    <t>206-4265393-1096301</t>
+  </si>
+  <si>
+    <t>2025-09-23T20:12:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-23T21:37:27+00:00</t>
+  </si>
+  <si>
+    <t>BISHOP AUCKLAND</t>
+  </si>
+  <si>
+    <t>DL13 5ER</t>
+  </si>
+  <si>
+    <t>202-2406341-5543517</t>
+  </si>
+  <si>
+    <t>2025-09-23T16:20:05+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-23T16:49:47+00:00</t>
+  </si>
+  <si>
+    <t>NOTTINGHAM</t>
+  </si>
+  <si>
+    <t>NG9 5PF</t>
   </si>
 </sst>
 </file>
@@ -2460,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG92"/>
+  <dimension ref="A1:AG94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,13 +2605,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2623,13 +2653,10 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="AA2" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2643,13 +2670,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -2667,13 +2694,13 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
@@ -2685,19 +2712,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R3">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="AA3" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2711,16 +2735,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2744,7 +2768,7 @@
         <v>145</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2759,10 +2783,13 @@
         <v>16.5</v>
       </c>
       <c r="Y4" t="s">
-        <v>538</v>
+        <v>526</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>527</v>
       </c>
       <c r="AA4" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2776,16 +2803,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2800,16 +2827,16 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2818,16 +2845,19 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R5">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y5" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>533</v>
       </c>
       <c r="AA5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2841,13 +2871,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2865,13 +2895,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -2883,16 +2913,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R6">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="AA6" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2906,13 +2936,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -2930,13 +2960,13 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -2948,16 +2978,16 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R7">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="AA7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2971,13 +3001,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D8" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2995,13 +3025,13 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
         <v>36</v>
@@ -3013,16 +3043,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R8">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AA8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3036,13 +3066,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -3072,25 +3102,22 @@
         <v>36</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R9">
-        <v>11.16</v>
+        <v>5.58</v>
       </c>
       <c r="Y9" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
       <c r="AA9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3104,13 +3131,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3128,13 +3155,13 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -3146,19 +3173,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R10">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AA10" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3172,13 +3196,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D11" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -3208,25 +3232,25 @@
         <v>36</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R11">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y11" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Z11" t="s">
-        <v>516</v>
+        <v>93</v>
       </c>
       <c r="AA11" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3240,13 +3264,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -3288,10 +3312,13 @@
         <v>5.58</v>
       </c>
       <c r="Y12" t="s">
-        <v>521</v>
+        <v>509</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>510</v>
       </c>
       <c r="AA12" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3305,16 +3332,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3329,16 +3356,16 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N13" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3347,16 +3374,19 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R13">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y13" t="s">
-        <v>480</v>
+        <v>515</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>516</v>
       </c>
       <c r="AA13" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3370,13 +3400,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D14" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3391,16 +3421,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
@@ -3412,16 +3442,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R14">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y14" t="s">
-        <v>98</v>
+        <v>521</v>
       </c>
       <c r="AA14" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3435,13 +3465,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="E15" t="s">
         <v>346</v>
@@ -3456,16 +3486,16 @@
         <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
         <v>347</v>
@@ -3477,16 +3507,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R15">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="AA15" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3500,16 +3530,16 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -3524,16 +3554,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -3542,16 +3572,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R16">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y16" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="AA16" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3565,16 +3595,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3589,16 +3619,16 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3607,16 +3637,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R17">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AA17" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3630,13 +3660,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
         <v>346</v>
@@ -3678,10 +3708,10 @@
         <v>16.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AA18" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3695,16 +3725,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -3719,40 +3749,40 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>178</v>
+        <v>33.49</v>
       </c>
       <c r="R19">
-        <v>29.66</v>
+        <v>5.58</v>
       </c>
       <c r="Y19" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AA19" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
       </c>
       <c r="AD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="b">
         <v>0</v>
@@ -3760,16 +3790,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3784,16 +3814,16 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3802,16 +3832,16 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="AA20" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3825,13 +3855,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E21" t="s">
         <v>346</v>
@@ -3849,40 +3879,40 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N21" t="s">
         <v>347</v>
       </c>
       <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <v>178</v>
+      </c>
+      <c r="R21">
+        <v>29.66</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" t="b">
         <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21">
-        <v>33.49</v>
-      </c>
-      <c r="R21">
-        <v>5.58</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD21" t="b">
-        <v>0</v>
       </c>
       <c r="AG21" t="b">
         <v>0</v>
@@ -3890,16 +3920,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3923,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3938,13 +3968,10 @@
         <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="AA22" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3958,13 +3985,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D23" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E23" t="s">
         <v>346</v>
@@ -3982,34 +4009,34 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s">
         <v>347</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>104.97</v>
+        <v>33.49</v>
       </c>
       <c r="R23">
-        <v>17.489999999999998</v>
+        <v>5.58</v>
       </c>
       <c r="Y23" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA23" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4023,13 +4050,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E24" t="s">
         <v>346</v>
@@ -4067,11 +4094,17 @@
       <c r="Q24">
         <v>23.99</v>
       </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
       <c r="Y24" t="s">
-        <v>428</v>
+        <v>439</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>438</v>
       </c>
       <c r="AA24" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4085,16 +4118,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4109,37 +4142,34 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" t="s">
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>89</v>
+        <v>104.97</v>
       </c>
       <c r="R25">
-        <v>14.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y25" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AA25" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4153,16 +4183,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -4177,16 +4207,16 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -4195,16 +4225,13 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>34.99</v>
-      </c>
-      <c r="R26">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y26" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AA26" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4218,13 +4245,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4242,13 +4269,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4260,28 +4287,25 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>23.99</v>
+        <v>89</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>14.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Z27" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AA27" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
       </c>
       <c r="AD27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -4289,16 +4313,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="E28" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4310,7 +4334,7 @@
         <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
         <v>89</v>
@@ -4322,7 +4346,7 @@
         <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -4337,10 +4361,10 @@
         <v>5.83</v>
       </c>
       <c r="Y28" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="AA28" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4354,13 +4378,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4375,16 +4399,16 @@
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4396,22 +4420,28 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>371</v>
+        <v>412</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>411</v>
       </c>
       <c r="AA29" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
       </c>
       <c r="AD29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>409</v>
       </c>
       <c r="AG29" t="b">
         <v>0</v>
@@ -4419,16 +4449,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4452,7 +4482,7 @@
         <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -4467,10 +4497,10 @@
         <v>5.83</v>
       </c>
       <c r="Y30" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AA30" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4484,13 +4514,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4508,13 +4538,13 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -4526,16 +4556,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y31" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AA31" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4549,13 +4579,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4573,13 +4603,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4591,19 +4621,16 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R32">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y32" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="AA32" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4617,13 +4644,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4665,13 +4692,10 @@
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AA33" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4685,13 +4709,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4709,13 +4733,13 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M34" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4727,16 +4751,19 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>14.49</v>
       </c>
       <c r="R34">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y34" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>356</v>
       </c>
       <c r="AA34" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4750,13 +4777,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4774,34 +4801,37 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R35">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>360</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>93</v>
       </c>
       <c r="AA35" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4815,13 +4845,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="D36" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4839,13 +4869,13 @@
         <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4857,16 +4887,16 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R36">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="AA36" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4880,13 +4910,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4904,40 +4934,40 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R37">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y37" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="AA37" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
       </c>
       <c r="AD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="b">
         <v>0</v>
@@ -4945,13 +4975,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4993,10 +5023,10 @@
         <v>5.83</v>
       </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="AA38" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5010,13 +5040,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -5046,28 +5076,28 @@
         <v>36</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="R39">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
       </c>
       <c r="AD39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -5075,13 +5105,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D40" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -5123,10 +5153,10 @@
         <v>5.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AA40" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5140,13 +5170,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5164,37 +5194,34 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" t="s">
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>79.989999999999995</v>
+        <v>198</v>
       </c>
       <c r="R41">
-        <v>13.33</v>
+        <v>33</v>
       </c>
       <c r="Y41" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="AA41" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5208,13 +5235,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5232,13 +5259,13 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5250,16 +5277,16 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y42" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AA42" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5273,13 +5300,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -5297,13 +5324,13 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -5315,19 +5342,19 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R43">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y43" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="Z43" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AA43" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5341,13 +5368,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C44" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5365,13 +5392,13 @@
         <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5383,19 +5410,16 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R44">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y44" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AA44" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5409,13 +5433,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5457,13 +5481,13 @@
         <v>16.5</v>
       </c>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Z45" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AA45" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5477,13 +5501,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C46" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5501,13 +5525,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5519,16 +5543,19 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y46" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>297</v>
       </c>
       <c r="AA46" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5542,16 +5569,16 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="C47" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -5566,25 +5593,37 @@
         <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>99</v>
+      </c>
+      <c r="R47">
+        <v>16.5</v>
       </c>
       <c r="Y47" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="Z47" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="AA47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5598,10 +5637,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D48" t="s">
         <v>306</v>
@@ -5646,13 +5685,10 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA48" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5666,16 +5702,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
@@ -5698,26 +5734,17 @@
       <c r="M49" t="s">
         <v>43</v>
       </c>
-      <c r="N49" t="s">
-        <v>36</v>
-      </c>
       <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49">
-        <v>23.99</v>
-      </c>
-      <c r="R49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>230</v>
+        <v>343</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>93</v>
       </c>
       <c r="AA49" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5731,13 +5758,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5755,13 +5782,13 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M50" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5773,16 +5800,19 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R50">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>168</v>
+        <v>290</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>291</v>
       </c>
       <c r="AA50" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5796,13 +5826,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5844,13 +5874,10 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA51" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5864,13 +5891,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -5888,13 +5915,13 @@
         <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M52" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5906,16 +5933,16 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y52" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="AA52" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5929,13 +5956,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -5953,13 +5980,13 @@
         <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M53" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -5971,16 +5998,19 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R53">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y53" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>240</v>
       </c>
       <c r="AA53" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5994,13 +6024,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6018,13 +6048,13 @@
         <v>222</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M54" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -6036,16 +6066,16 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R54">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AA54" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6059,13 +6089,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6083,13 +6113,13 @@
         <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6101,16 +6131,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA55" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6124,16 +6154,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6145,7 +6175,7 @@
         <v>39</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K56" t="s">
         <v>89</v>
@@ -6156,23 +6186,26 @@
       <c r="M56" t="s">
         <v>91</v>
       </c>
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="s">
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R56">
         <v>5.83</v>
       </c>
       <c r="Y56" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA56" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6186,13 +6219,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6207,16 +6240,16 @@
         <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -6228,16 +6261,16 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R57">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA57" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6251,16 +6284,16 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -6283,26 +6316,23 @@
       <c r="M58" t="s">
         <v>91</v>
       </c>
-      <c r="N58" t="s">
-        <v>36</v>
-      </c>
       <c r="O58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" t="s">
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R58">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y58" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA58" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6316,13 +6346,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6364,10 +6394,10 @@
         <v>16.5</v>
       </c>
       <c r="Y59" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA59" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6381,13 +6411,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6405,37 +6435,34 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M60" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R60">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y60" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AA60" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6449,13 +6476,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6473,13 +6500,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6491,19 +6518,16 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R61">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y61" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AA61" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6517,13 +6541,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6541,13 +6565,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L62" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6559,19 +6583,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R62">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y62" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="Z62" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="AA62" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6585,13 +6609,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6633,10 +6657,13 @@
         <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>46</v>
       </c>
       <c r="AA63" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6650,13 +6677,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6674,13 +6701,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6692,16 +6719,19 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R64">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y64" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
       </c>
       <c r="AA64" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6715,13 +6745,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6763,10 +6793,10 @@
         <v>4</v>
       </c>
       <c r="Y65" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA65" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6780,13 +6810,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6804,13 +6834,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6828,10 +6858,10 @@
         <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AA66" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6845,13 +6875,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6893,10 +6923,10 @@
         <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AA67" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6910,13 +6940,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6934,37 +6964,34 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M68" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68" t="s">
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R68">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y68" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AA68" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -6978,13 +7005,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7002,13 +7029,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7020,16 +7047,16 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R69">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AA69" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7043,13 +7070,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7067,37 +7094,37 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" t="s">
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R70">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y70" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z70" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA70" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7111,13 +7138,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7135,13 +7162,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -7153,19 +7180,16 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R71">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y71" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AA71" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7179,13 +7203,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7203,13 +7227,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L72" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7221,19 +7245,19 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R72">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y72" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Z72" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA72" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7247,13 +7271,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7295,13 +7319,13 @@
         <v>13.33</v>
       </c>
       <c r="Y73" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z73" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AA73" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7315,13 +7339,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7339,13 +7363,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L74" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M74" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7357,19 +7381,19 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R74">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y74" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z74" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AA74" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7383,13 +7407,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7407,13 +7431,13 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L75" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M75" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -7425,16 +7449,19 @@
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R75">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y75" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>122</v>
       </c>
       <c r="AA75" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7448,13 +7475,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7484,22 +7511,25 @@
         <v>36</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76" t="s">
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R76">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y76" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>128</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7513,13 +7543,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7537,13 +7567,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L77" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M77" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -7555,19 +7585,16 @@
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R77">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y77" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AA77" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7581,13 +7608,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7617,25 +7644,22 @@
         <v>36</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" t="s">
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R78">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y78" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AA78" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7649,13 +7673,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7673,13 +7697,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L79" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M79" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7691,16 +7715,19 @@
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y79" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>147</v>
       </c>
       <c r="AA79" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7714,13 +7741,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7738,13 +7765,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L80" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M80" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -7756,22 +7783,25 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R80">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y80" t="s">
-        <v>133</v>
+        <v>152</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>153</v>
       </c>
       <c r="AA80" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
       </c>
       <c r="AD80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG80" t="b">
         <v>0</v>
@@ -7779,13 +7809,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7803,13 +7833,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M81" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -7827,13 +7857,10 @@
         <v>4</v>
       </c>
       <c r="Y81" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AA81" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -7847,13 +7874,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7871,13 +7898,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L82" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M82" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -7889,22 +7916,22 @@
         <v>44</v>
       </c>
       <c r="Q82">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R82">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y82" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA82" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
       </c>
       <c r="AD82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG82" t="b">
         <v>0</v>
@@ -7912,13 +7939,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -7936,13 +7963,13 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L83" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M83" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
@@ -7954,16 +7981,19 @@
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R83">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y83" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>168</v>
       </c>
       <c r="AA83" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -7977,13 +8007,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8001,13 +8031,13 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L84" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M84" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -8025,13 +8055,10 @@
         <v>5.58</v>
       </c>
       <c r="Y84" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA84" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8045,13 +8072,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8093,13 +8120,10 @@
         <v>5.58</v>
       </c>
       <c r="Y85" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AA85" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8113,13 +8137,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8137,13 +8161,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L86" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M86" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8155,16 +8179,19 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R86">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y86" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>187</v>
       </c>
       <c r="AA86" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8178,13 +8205,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8202,13 +8229,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L87" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
@@ -8220,16 +8247,19 @@
         <v>44</v>
       </c>
       <c r="Q87">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R87">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>153</v>
       </c>
       <c r="AA87" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8243,13 +8273,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8291,10 +8321,10 @@
         <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AA88" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8308,13 +8338,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8332,13 +8362,13 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L89" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M89" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8350,16 +8380,16 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R89">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y89" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA89" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8373,13 +8403,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8397,13 +8427,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M90" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8421,10 +8451,10 @@
         <v>4</v>
       </c>
       <c r="Y90" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AA90" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8438,61 +8468,61 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s">
         <v>39</v>
       </c>
       <c r="J91" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M91" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N91" t="s">
+        <v>36</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q91">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R91">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA91">
-        <v>21100</v>
+        <v>210</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>211</v>
       </c>
       <c r="AB91" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD91" t="b">
         <v>0</v>
@@ -8503,66 +8533,196 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" t="s">
+        <v>77</v>
+      </c>
+      <c r="M92" t="s">
+        <v>78</v>
+      </c>
+      <c r="N92" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q92">
+        <v>23.99</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93" t="s">
+        <v>402</v>
+      </c>
+      <c r="D93" t="s">
+        <v>403</v>
+      </c>
+      <c r="E93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>221</v>
+      </c>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" t="s">
+        <v>222</v>
+      </c>
+      <c r="K93" t="s">
+        <v>404</v>
+      </c>
+      <c r="L93" t="s">
+        <v>405</v>
+      </c>
+      <c r="M93" t="s">
+        <v>406</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q93">
+        <v>84.72</v>
+      </c>
+      <c r="R93">
+        <v>18.64</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA93">
+        <v>21100</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>217</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>218</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>219</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>220</v>
       </c>
-      <c r="F92" t="s">
-        <v>37</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
         <v>221</v>
       </c>
-      <c r="H92" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="H94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" t="s">
         <v>222</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K94" t="s">
         <v>223</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L94" t="s">
         <v>90</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M94" t="s">
         <v>91</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
         <v>224</v>
       </c>
-      <c r="Q92">
+      <c r="Q94">
         <v>31.46</v>
       </c>
-      <c r="R92">
+      <c r="R94">
         <v>6.92</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Y94" t="s">
         <v>225</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Z94" t="s">
         <v>226</v>
       </c>
-      <c r="AA92">
+      <c r="AA94">
         <v>20861</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AB94" t="s">
         <v>227</v>
       </c>
-      <c r="AD92" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="b">
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="569">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1684,6 +1684,48 @@
   </si>
   <si>
     <t>NG9 5PF</t>
+  </si>
+  <si>
+    <t>202-4581575-9582738</t>
+  </si>
+  <si>
+    <t>2025-09-24T15:49:02+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-24T23:13:48+00:00</t>
+  </si>
+  <si>
+    <t>Halesowen</t>
+  </si>
+  <si>
+    <t>B63 1JA</t>
+  </si>
+  <si>
+    <t>203-4990498-6813910</t>
+  </si>
+  <si>
+    <t>2025-09-24T15:31:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-24T16:05:20+00:00</t>
+  </si>
+  <si>
+    <t>SW18 4NW</t>
+  </si>
+  <si>
+    <t>203-0491473-8087562</t>
+  </si>
+  <si>
+    <t>2025-09-24T09:00:23+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-24T10:48:58+00:00</t>
+  </si>
+  <si>
+    <t>BOLTON</t>
+  </si>
+  <si>
+    <t>BL1 6DH</t>
   </si>
 </sst>
 </file>
@@ -2490,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG94"/>
+  <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,13 +2647,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2629,34 +2671,37 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R2">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y2" t="s">
-        <v>548</v>
+        <v>558</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>187</v>
       </c>
       <c r="AA2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2670,13 +2715,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -2694,34 +2739,34 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R3">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y3" t="s">
-        <v>553</v>
+        <v>250</v>
       </c>
       <c r="AA3" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2735,16 +2780,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2759,37 +2804,34 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R4">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y4" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="AA4" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2803,13 +2845,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
         <v>346</v>
@@ -2827,13 +2869,13 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N5" t="s">
         <v>347</v>
@@ -2845,19 +2887,16 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AA5" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2871,16 +2910,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2904,7 +2943,7 @@
         <v>145</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2919,10 +2958,10 @@
         <v>16.5</v>
       </c>
       <c r="Y6" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AA6" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2936,16 +2975,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D7" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2960,16 +2999,16 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2978,16 +3017,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R7">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>543</v>
+        <v>526</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>527</v>
       </c>
       <c r="AA7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3001,16 +3043,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3025,16 +3067,16 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -3043,16 +3085,19 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R8">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y8" t="s">
-        <v>489</v>
+        <v>532</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>533</v>
       </c>
       <c r="AA8" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3066,13 +3111,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -3090,13 +3135,13 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -3108,16 +3153,16 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R9">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="AA9" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3131,13 +3176,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="D10" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3155,13 +3200,13 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -3173,16 +3218,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R10">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="AA10" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3196,13 +3241,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -3220,37 +3265,34 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R11">
-        <v>11.16</v>
+        <v>5.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>93</v>
+        <v>489</v>
       </c>
       <c r="AA11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3264,13 +3306,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -3312,13 +3354,10 @@
         <v>5.58</v>
       </c>
       <c r="Y12" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="AA12" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3332,13 +3371,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3356,13 +3395,13 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L13" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -3374,19 +3413,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R13">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y13" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="AA13" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3400,13 +3436,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3436,22 +3472,25 @@
         <v>36</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R14">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y14" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>93</v>
       </c>
       <c r="AA14" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3465,16 +3504,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3489,16 +3528,16 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3507,16 +3546,19 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R15">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y15" t="s">
-        <v>480</v>
+        <v>509</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>510</v>
       </c>
       <c r="AA15" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3530,13 +3572,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3551,16 +3593,16 @@
         <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3572,16 +3614,19 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R16">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y16" t="s">
-        <v>98</v>
+        <v>515</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>516</v>
       </c>
       <c r="AA16" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3595,16 +3640,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3616,19 +3661,19 @@
         <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3637,16 +3682,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R17">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y17" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="AA17" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3660,13 +3705,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D18" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E18" t="s">
         <v>346</v>
@@ -3681,16 +3726,16 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
         <v>347</v>
@@ -3702,16 +3747,16 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R18">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y18" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AA18" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3725,13 +3770,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C19" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3749,13 +3794,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3767,16 +3812,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R19">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y19" t="s">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="AA19" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3790,13 +3835,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E20" t="s">
         <v>346</v>
@@ -3814,13 +3859,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="N20" t="s">
         <v>347</v>
@@ -3832,16 +3877,16 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="R20">
-        <v>16.5</v>
+        <v>14.83</v>
       </c>
       <c r="Y20" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AA20" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3855,13 +3900,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D21" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E21" t="s">
         <v>346</v>
@@ -3879,40 +3924,40 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
         <v>347</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>29.66</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="AA21" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
       </c>
       <c r="AD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="b">
         <v>0</v>
@@ -3920,13 +3965,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -3944,13 +3989,13 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
@@ -3962,16 +4007,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>475</v>
       </c>
       <c r="AA22" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3985,13 +4030,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E23" t="s">
         <v>346</v>
@@ -4009,13 +4054,13 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
         <v>347</v>
@@ -4027,16 +4072,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R23">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AA23" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4050,13 +4095,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E24" t="s">
         <v>346</v>
@@ -4074,43 +4119,40 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N24" t="s">
         <v>347</v>
       </c>
       <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <v>178</v>
+      </c>
+      <c r="R24">
+        <v>29.66</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD24" t="b">
         <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24">
-        <v>23.99</v>
-      </c>
-      <c r="R24">
-        <v>4</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" t="b">
-        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -4118,16 +4160,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D25" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4142,34 +4184,34 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P25" t="s">
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>104.97</v>
+        <v>23.99</v>
       </c>
       <c r="R25">
-        <v>17.489999999999998</v>
+        <v>4</v>
       </c>
       <c r="Y25" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="AA25" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4183,13 +4225,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E26" t="s">
         <v>346</v>
@@ -4207,13 +4249,13 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N26" t="s">
         <v>347</v>
@@ -4225,13 +4267,16 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>23.99</v>
+        <v>33.49</v>
+      </c>
+      <c r="R26">
+        <v>5.58</v>
       </c>
       <c r="Y26" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="AA26" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4245,16 +4290,16 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -4269,16 +4314,16 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M27" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -4287,19 +4332,19 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>23.99</v>
       </c>
       <c r="R27">
-        <v>14.83</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="Z27" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="AA27" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4313,16 +4358,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4346,25 +4391,25 @@
         <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R28">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y28" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AA28" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4378,16 +4423,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -4411,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4422,26 +4467,17 @@
       <c r="Q29">
         <v>23.99</v>
       </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
       <c r="Y29" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="AA29" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
       </c>
       <c r="AD29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="b">
         <v>0</v>
@@ -4449,16 +4485,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="E30" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4470,19 +4506,19 @@
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N30" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -4491,16 +4527,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R30">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y30" t="s">
-        <v>366</v>
+        <v>423</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>422</v>
       </c>
       <c r="AA30" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4514,13 +4553,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4535,7 +4574,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
         <v>89</v>
@@ -4562,10 +4601,10 @@
         <v>5.83</v>
       </c>
       <c r="Y31" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA31" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4579,13 +4618,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4600,16 +4639,16 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4621,22 +4660,28 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R32">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>376</v>
+        <v>412</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>411</v>
       </c>
       <c r="AA32" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
       </c>
       <c r="AD32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>409</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4644,16 +4689,16 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -4668,16 +4713,16 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -4686,16 +4731,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y33" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AA33" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4709,13 +4754,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4733,13 +4778,13 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4751,19 +4796,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R34">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AA34" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4777,13 +4819,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C35" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4801,13 +4843,13 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4819,19 +4861,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y35" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="AA35" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4845,13 +4884,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4869,13 +4908,13 @@
         <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4887,16 +4926,16 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R36">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AA36" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4910,13 +4949,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -4934,34 +4973,37 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N37" t="s">
         <v>36</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>69.98</v>
+        <v>14.49</v>
       </c>
       <c r="R37">
-        <v>11.66</v>
+        <v>2.42</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>355</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>356</v>
       </c>
       <c r="AA37" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4975,13 +5017,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -4999,13 +5041,13 @@
         <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -5017,16 +5059,19 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R38">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>93</v>
       </c>
       <c r="AA38" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5040,13 +5085,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -5088,16 +5133,16 @@
         <v>16.5</v>
       </c>
       <c r="Y39" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="AA39" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
       </c>
       <c r="AD39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -5105,13 +5150,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -5141,22 +5186,22 @@
         <v>36</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R40">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AA40" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5170,13 +5215,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5194,34 +5239,34 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" t="s">
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>198</v>
+        <v>34.99</v>
       </c>
       <c r="R41">
-        <v>33</v>
+        <v>5.83</v>
       </c>
       <c r="Y41" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="AA41" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5235,13 +5280,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5259,13 +5304,13 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5277,22 +5322,22 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R42">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y42" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="AA42" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" t="b">
         <v>0</v>
@@ -5300,13 +5345,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -5324,13 +5369,13 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -5342,19 +5387,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R43">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y43" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AA43" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5368,13 +5410,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5392,34 +5434,34 @@
         <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>23.99</v>
+        <v>198</v>
       </c>
       <c r="R44">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Y44" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="AA44" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5433,13 +5475,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5457,13 +5499,13 @@
         <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -5475,19 +5517,16 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R45">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AA45" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5501,13 +5540,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D46" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5525,13 +5564,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5543,19 +5582,19 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R46">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y46" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Z46" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="AA46" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5569,13 +5608,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D47" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5593,13 +5632,13 @@
         <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5611,19 +5650,16 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R47">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AA47" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5637,13 +5673,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5661,13 +5697,13 @@
         <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5679,16 +5715,19 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R48">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="s">
-        <v>307</v>
+        <v>335</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>336</v>
       </c>
       <c r="AA48" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5702,16 +5741,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
@@ -5726,25 +5765,37 @@
         <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>43</v>
+        <v>91</v>
+      </c>
+      <c r="N49" t="s">
+        <v>36</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <v>34.99</v>
+      </c>
+      <c r="R49">
+        <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Z49" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AA49" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5758,13 +5809,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5782,13 +5833,13 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5800,19 +5851,19 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y50" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AA50" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5826,13 +5877,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5874,10 +5925,10 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="AA51" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5891,16 +5942,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5915,34 +5966,25 @@
         <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
-      </c>
-      <c r="N52" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q52">
-        <v>99</v>
-      </c>
-      <c r="R52">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="s">
-        <v>168</v>
+        <v>343</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>93</v>
       </c>
       <c r="AA52" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5956,13 +5998,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6004,13 +6046,13 @@
         <v>4</v>
       </c>
       <c r="Y53" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="Z53" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="AA53" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6024,13 +6066,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6048,13 +6090,13 @@
         <v>222</v>
       </c>
       <c r="K54" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -6072,10 +6114,10 @@
         <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AA54" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6089,13 +6131,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6113,13 +6155,13 @@
         <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6131,16 +6173,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R55">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AA55" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6154,13 +6196,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -6178,13 +6220,13 @@
         <v>222</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -6196,16 +6238,19 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R56">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>240</v>
       </c>
       <c r="AA56" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6219,13 +6264,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6243,13 +6288,13 @@
         <v>222</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -6267,10 +6312,10 @@
         <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AA57" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6284,16 +6329,16 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -6305,7 +6350,7 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K58" t="s">
         <v>89</v>
@@ -6316,23 +6361,26 @@
       <c r="M58" t="s">
         <v>91</v>
       </c>
+      <c r="N58" t="s">
+        <v>36</v>
+      </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="s">
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R58">
         <v>5.83</v>
       </c>
       <c r="Y58" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AA58" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6346,13 +6394,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6367,16 +6415,16 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6388,16 +6436,16 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R59">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y59" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="AA59" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6411,13 +6459,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6432,37 +6480,37 @@
         <v>39</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L60" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R60">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AA60" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6476,16 +6524,16 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -6500,34 +6548,31 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
-      </c>
-      <c r="N61" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="s">
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>29.16</v>
       </c>
       <c r="R61">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y61" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="AA61" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6541,13 +6586,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6565,13 +6610,13 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6583,19 +6628,16 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R62">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y62" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AA62" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6609,13 +6651,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6633,37 +6675,34 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" t="s">
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y63" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AA63" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6677,13 +6716,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6701,13 +6740,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6719,19 +6758,16 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R64">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y64" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="AA64" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6745,13 +6781,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6769,13 +6805,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M65" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -6793,10 +6829,13 @@
         <v>4</v>
       </c>
       <c r="Y65" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>286</v>
       </c>
       <c r="AA65" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6810,13 +6849,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6858,10 +6897,13 @@
         <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>46</v>
       </c>
       <c r="AA66" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6875,13 +6917,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6899,13 +6941,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M67" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -6917,16 +6959,19 @@
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R67">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y67" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>56</v>
       </c>
       <c r="AA67" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6940,13 +6985,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -6964,13 +7009,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L68" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M68" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -6988,10 +7033,10 @@
         <v>4</v>
       </c>
       <c r="Y68" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AA68" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7005,13 +7050,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7053,10 +7098,10 @@
         <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AA69" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7070,13 +7115,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7094,37 +7139,34 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L70" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R70">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AA70" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7138,13 +7180,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7162,13 +7204,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -7180,16 +7222,16 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R71">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y71" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7203,13 +7245,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7251,13 +7293,10 @@
         <v>4</v>
       </c>
       <c r="Y72" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="AA72" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7271,13 +7310,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7295,37 +7334,37 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" t="s">
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R73">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y73" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Z73" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AA73" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7339,13 +7378,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7363,13 +7402,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L74" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7381,19 +7420,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R74">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y74" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AA74" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7407,13 +7443,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7431,13 +7467,13 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -7449,19 +7485,19 @@
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R75">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="Z75" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AA75" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7475,13 +7511,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7499,13 +7535,13 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M76" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7517,19 +7553,19 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R76">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y76" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="Z76" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AA76" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7543,13 +7579,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7567,13 +7603,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L77" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M77" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -7585,16 +7621,19 @@
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R77">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y77" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>116</v>
       </c>
       <c r="AA77" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7608,13 +7647,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7632,34 +7671,37 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L78" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M78" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P78" t="s">
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R78">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y78" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>122</v>
       </c>
       <c r="AA78" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7673,13 +7715,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7697,13 +7739,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7715,19 +7757,19 @@
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R79">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z79" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AA79" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7741,13 +7783,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7789,13 +7831,10 @@
         <v>5.58</v>
       </c>
       <c r="Y80" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AA80" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -7809,13 +7848,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7833,34 +7872,34 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L81" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M81" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" t="s">
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>23.99</v>
+        <v>66.98</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Y81" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AA81" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -7874,13 +7913,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7898,13 +7937,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L82" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M82" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -7916,22 +7955,25 @@
         <v>44</v>
       </c>
       <c r="Q82">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R82">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y82" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>147</v>
       </c>
       <c r="AA82" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
       </c>
       <c r="AD82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="b">
         <v>0</v>
@@ -7939,13 +7981,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -7963,13 +8005,13 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L83" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M83" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
@@ -7981,19 +8023,19 @@
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y83" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Z83" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AA83" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8007,13 +8049,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8031,13 +8073,13 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M84" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -8049,16 +8091,16 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R84">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y84" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AA84" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8072,13 +8114,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8096,13 +8138,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L85" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M85" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -8114,22 +8156,22 @@
         <v>44</v>
       </c>
       <c r="Q85">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R85">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y85" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="AA85" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
       </c>
       <c r="AD85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG85" t="b">
         <v>0</v>
@@ -8137,13 +8179,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8161,13 +8203,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L86" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M86" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8179,19 +8221,19 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R86">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y86" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Z86" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AA86" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8205,13 +8247,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8229,13 +8271,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L87" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M87" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
@@ -8253,13 +8295,10 @@
         <v>5.58</v>
       </c>
       <c r="Y87" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AA87" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8273,13 +8312,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8297,13 +8336,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L88" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M88" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8315,16 +8354,16 @@
         <v>44</v>
       </c>
       <c r="Q88">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R88">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y88" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AA88" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8338,13 +8377,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8362,13 +8401,13 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L89" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M89" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8380,16 +8419,19 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R89">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>187</v>
       </c>
       <c r="AA89" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8403,13 +8445,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8427,13 +8469,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M90" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8445,16 +8487,19 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R90">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y90" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>153</v>
       </c>
       <c r="AA90" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8468,13 +8513,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8516,10 +8561,10 @@
         <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AA91" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8533,13 +8578,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8557,13 +8602,13 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L92" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M92" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N92" t="s">
         <v>36</v>
@@ -8575,16 +8620,16 @@
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R92">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y92" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AA92" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8598,61 +8643,61 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
         <v>39</v>
       </c>
       <c r="J93" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L93" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M93" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N93" t="s">
+        <v>36</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q93">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R93">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y93" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA93">
-        <v>21100</v>
+        <v>205</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>206</v>
       </c>
       <c r="AB93" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD93" t="b">
         <v>0</v>
@@ -8663,66 +8708,261 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" t="s">
+        <v>42</v>
+      </c>
+      <c r="M94" t="s">
+        <v>43</v>
+      </c>
+      <c r="N94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q94">
+        <v>23.99</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" t="s">
+        <v>76</v>
+      </c>
+      <c r="L95" t="s">
+        <v>77</v>
+      </c>
+      <c r="M95" t="s">
+        <v>78</v>
+      </c>
+      <c r="N95" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q95">
+        <v>23.99</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="s">
+        <v>402</v>
+      </c>
+      <c r="D96" t="s">
+        <v>403</v>
+      </c>
+      <c r="E96" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" t="s">
+        <v>39</v>
+      </c>
+      <c r="J96" t="s">
+        <v>222</v>
+      </c>
+      <c r="K96" t="s">
+        <v>404</v>
+      </c>
+      <c r="L96" t="s">
+        <v>405</v>
+      </c>
+      <c r="M96" t="s">
+        <v>406</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q96">
+        <v>84.72</v>
+      </c>
+      <c r="R96">
+        <v>18.64</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA96">
+        <v>21100</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>217</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C97" t="s">
         <v>218</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" t="s">
         <v>219</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E97" t="s">
         <v>220</v>
       </c>
-      <c r="F94" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
         <v>221</v>
       </c>
-      <c r="H94" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="H97" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" t="s">
         <v>222</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K97" t="s">
         <v>223</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L97" t="s">
         <v>90</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M97" t="s">
         <v>91</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="s">
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
         <v>224</v>
       </c>
-      <c r="Q94">
+      <c r="Q97">
         <v>31.46</v>
       </c>
-      <c r="R94">
+      <c r="R97">
         <v>6.92</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y97" t="s">
         <v>225</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Z97" t="s">
         <v>226</v>
       </c>
-      <c r="AA94">
+      <c r="AA97">
         <v>20861</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AB97" t="s">
         <v>227</v>
       </c>
-      <c r="AD94" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="b">
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="588">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1726,6 +1726,63 @@
   </si>
   <si>
     <t>BL1 6DH</t>
+  </si>
+  <si>
+    <t>205-7416880-5891524</t>
+  </si>
+  <si>
+    <t>2025-09-26T03:28:20+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T03:55:48+00:00</t>
+  </si>
+  <si>
+    <t>TAUNTON</t>
+  </si>
+  <si>
+    <t>TA1 2HN</t>
+  </si>
+  <si>
+    <t>206-9761616-9983506</t>
+  </si>
+  <si>
+    <t>2025-09-25T10:59:34+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T04:13:43+00:00</t>
+  </si>
+  <si>
+    <t>BARNSLEY</t>
+  </si>
+  <si>
+    <t>S73 9AD</t>
+  </si>
+  <si>
+    <t>202-6474874-6161946</t>
+  </si>
+  <si>
+    <t>2025-09-25T10:45:06+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-25T18:43:45+00:00</t>
+  </si>
+  <si>
+    <t>GRANGEMOUTH</t>
+  </si>
+  <si>
+    <t>FK3 0DS</t>
+  </si>
+  <si>
+    <t>203-0325870-3609141</t>
+  </si>
+  <si>
+    <t>2025-09-25T07:44:19+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T03:15:33+00:00</t>
+  </si>
+  <si>
+    <t>E11 4PB</t>
   </si>
 </sst>
 </file>
@@ -2532,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG97"/>
+  <dimension ref="A1:AG101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,13 +2704,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2671,37 +2728,34 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R2">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="AA2" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2715,16 +2769,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2748,7 +2802,7 @@
         <v>175</v>
       </c>
       <c r="N3" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -2757,16 +2811,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>66.98</v>
+        <v>69.98</v>
       </c>
       <c r="R3">
-        <v>11.16</v>
+        <v>11.66</v>
       </c>
       <c r="Y3" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="AA3" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2780,13 +2834,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -2804,34 +2858,34 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>66.98</v>
+        <v>36.99</v>
       </c>
       <c r="R4">
-        <v>11.16</v>
+        <v>6.17</v>
       </c>
       <c r="Y4" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AA4" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2845,16 +2899,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2878,7 +2932,7 @@
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2893,10 +2947,10 @@
         <v>16.5</v>
       </c>
       <c r="Y5" t="s">
-        <v>548</v>
+        <v>250</v>
       </c>
       <c r="AA5" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2910,13 +2964,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C6" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D6" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E6" t="s">
         <v>346</v>
@@ -2934,34 +2988,37 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>347</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R6">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y6" t="s">
-        <v>553</v>
+        <v>558</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>187</v>
       </c>
       <c r="AA6" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2975,13 +3032,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="E7" t="s">
         <v>346</v>
@@ -2999,37 +3056,34 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N7" t="s">
         <v>347</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R7">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>527</v>
+        <v>250</v>
       </c>
       <c r="AA7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3043,16 +3097,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D8" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3076,28 +3130,25 @@
         <v>175</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R8">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y8" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="AA8" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3111,16 +3162,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C9" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3144,7 +3195,7 @@
         <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3159,10 +3210,10 @@
         <v>16.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AA9" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3176,16 +3227,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D10" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -3200,16 +3251,16 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3218,16 +3269,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AA10" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3241,16 +3292,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -3265,16 +3316,16 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3283,16 +3334,19 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R11">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>489</v>
+        <v>526</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>527</v>
       </c>
       <c r="AA11" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3306,16 +3360,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -3339,7 +3393,7 @@
         <v>175</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -3354,10 +3408,13 @@
         <v>5.58</v>
       </c>
       <c r="Y12" t="s">
-        <v>494</v>
+        <v>532</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>533</v>
       </c>
       <c r="AA12" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3371,13 +3428,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C13" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3395,13 +3452,13 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -3413,16 +3470,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R13">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AA13" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3436,13 +3493,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C14" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D14" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3460,37 +3517,34 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R14">
-        <v>11.16</v>
+        <v>5.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>93</v>
+        <v>543</v>
       </c>
       <c r="AA14" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3504,13 +3558,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3528,13 +3582,13 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -3546,19 +3600,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R15">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="AA15" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3572,13 +3623,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3620,13 +3671,10 @@
         <v>5.58</v>
       </c>
       <c r="Y16" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AA16" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3640,13 +3688,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C17" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D17" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3664,13 +3712,13 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N17" t="s">
         <v>36</v>
@@ -3682,16 +3730,16 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R17">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="AA17" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3705,16 +3753,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C18" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3729,34 +3777,37 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R18">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y18" t="s">
-        <v>480</v>
+        <v>504</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>93</v>
       </c>
       <c r="AA18" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3770,13 +3821,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D19" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3791,16 +3842,16 @@
         <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3812,16 +3863,19 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R19">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y19" t="s">
-        <v>98</v>
+        <v>509</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>510</v>
       </c>
       <c r="AA19" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3835,16 +3889,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="D20" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3856,19 +3910,19 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3877,16 +3931,19 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R20">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y20" t="s">
-        <v>465</v>
+        <v>515</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>516</v>
       </c>
       <c r="AA20" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3900,16 +3957,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -3921,19 +3978,19 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N21" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3942,16 +3999,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R21">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y21" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="AA21" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3965,16 +4022,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -3986,19 +4043,19 @@
         <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4007,16 +4064,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R22">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y22" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AA22" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4030,16 +4087,16 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D23" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -4054,16 +4111,16 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -4072,16 +4129,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R23">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y23" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="AA23" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4095,13 +4152,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E24" t="s">
         <v>346</v>
@@ -4131,28 +4188,28 @@
         <v>347</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="R24">
-        <v>29.66</v>
+        <v>14.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AA24" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
       </c>
       <c r="AD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -4160,16 +4217,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4184,16 +4241,16 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -4202,16 +4259,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AA25" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4225,16 +4282,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="D26" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -4258,7 +4315,7 @@
         <v>175</v>
       </c>
       <c r="N26" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -4273,10 +4330,10 @@
         <v>5.58</v>
       </c>
       <c r="Y26" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AA26" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4290,13 +4347,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="E27" t="s">
         <v>346</v>
@@ -4314,13 +4371,13 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N27" t="s">
         <v>347</v>
@@ -4332,19 +4389,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AA27" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4358,13 +4412,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D28" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E28" t="s">
         <v>346</v>
@@ -4382,40 +4436,40 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N28" t="s">
         <v>347</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>104.97</v>
+        <v>178</v>
       </c>
       <c r="R28">
-        <v>17.489999999999998</v>
+        <v>29.66</v>
       </c>
       <c r="Y28" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="AA28" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
       </c>
       <c r="AD28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" t="b">
         <v>0</v>
@@ -4423,16 +4477,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E29" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -4456,7 +4510,7 @@
         <v>78</v>
       </c>
       <c r="N29" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4467,11 +4521,14 @@
       <c r="Q29">
         <v>23.99</v>
       </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
       <c r="Y29" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="AA29" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4485,16 +4542,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D30" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4509,16 +4566,16 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -4527,19 +4584,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R30">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y30" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="AA30" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4553,16 +4607,16 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C31" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -4577,16 +4631,16 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -4595,16 +4649,19 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R31">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>417</v>
+        <v>439</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>438</v>
       </c>
       <c r="AA31" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4618,16 +4675,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -4642,46 +4699,40 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>23.99</v>
+        <v>104.97</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y32" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AA32" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
       </c>
       <c r="AD32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4689,13 +4740,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E33" t="s">
         <v>346</v>
@@ -4710,16 +4761,16 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N33" t="s">
         <v>347</v>
@@ -4731,16 +4782,13 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>34.99</v>
-      </c>
-      <c r="R33">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y33" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AA33" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4754,13 +4802,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -4775,16 +4823,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
@@ -4796,16 +4844,19 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R34">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>371</v>
+        <v>423</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>422</v>
       </c>
       <c r="AA34" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4819,13 +4870,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4840,7 +4891,7 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s">
         <v>89</v>
@@ -4867,10 +4918,10 @@
         <v>5.83</v>
       </c>
       <c r="Y35" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="AA35" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4884,13 +4935,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -4905,16 +4956,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N36" t="s">
         <v>36</v>
@@ -4932,16 +4983,22 @@
         <v>4</v>
       </c>
       <c r="Y36" t="s">
-        <v>381</v>
+        <v>412</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>411</v>
       </c>
       <c r="AA36" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
       </c>
       <c r="AD36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>409</v>
       </c>
       <c r="AG36" t="b">
         <v>0</v>
@@ -4949,16 +5006,16 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -4973,16 +5030,16 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4991,19 +5048,16 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R37">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y37" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA37" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5017,13 +5071,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -5041,13 +5095,13 @@
         <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -5059,19 +5113,16 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y38" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="AA38" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5085,13 +5136,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -5109,13 +5160,13 @@
         <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -5127,16 +5178,16 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R39">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y39" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AA39" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5150,13 +5201,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -5174,34 +5225,34 @@
         <v>222</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R40">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="AA40" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5215,13 +5266,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5239,13 +5290,13 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -5257,16 +5308,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R41">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y41" t="s">
-        <v>392</v>
+        <v>355</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>356</v>
       </c>
       <c r="AA41" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5280,13 +5334,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D42" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5304,13 +5358,13 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5322,22 +5376,25 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R42">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>360</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>93</v>
       </c>
       <c r="AA42" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
       </c>
       <c r="AD42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="b">
         <v>0</v>
@@ -5345,13 +5402,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -5369,13 +5426,13 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s">
         <v>36</v>
@@ -5387,16 +5444,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R43">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="AA43" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5410,13 +5467,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5434,13 +5491,13 @@
         <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5452,16 +5509,16 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>198</v>
+        <v>69.98</v>
       </c>
       <c r="R44">
-        <v>33</v>
+        <v>11.66</v>
       </c>
       <c r="Y44" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="AA44" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5475,13 +5532,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5523,10 +5580,10 @@
         <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="AA45" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5540,13 +5597,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C46" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5564,13 +5621,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M46" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5582,25 +5639,22 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R46">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="AA46" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5608,13 +5662,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5632,13 +5686,13 @@
         <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5650,16 +5704,16 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y47" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AA47" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5673,13 +5727,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5709,25 +5763,22 @@
         <v>36</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="s">
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="R48">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="Y48" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="AA48" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5741,13 +5792,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5789,13 +5840,10 @@
         <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA49" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5809,13 +5857,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5833,13 +5881,13 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5851,19 +5899,19 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R50">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y50" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="Z50" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AA50" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5877,13 +5925,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5925,10 +5973,10 @@
         <v>4</v>
       </c>
       <c r="Y51" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AA51" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5942,16 +5990,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5966,25 +6014,37 @@
         <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <v>99</v>
+      </c>
+      <c r="R52">
+        <v>16.5</v>
       </c>
       <c r="Y52" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Z52" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="AA52" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5998,13 +6058,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6022,13 +6082,13 @@
         <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -6040,19 +6100,19 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y53" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Z53" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AA53" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6066,13 +6126,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6090,13 +6150,13 @@
         <v>222</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -6108,16 +6168,19 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="s">
-        <v>230</v>
+        <v>301</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>302</v>
       </c>
       <c r="AA54" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6131,13 +6194,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6155,13 +6218,13 @@
         <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6173,16 +6236,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R55">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y55" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA55" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6196,16 +6259,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6228,29 +6291,17 @@
       <c r="M56" t="s">
         <v>43</v>
       </c>
-      <c r="N56" t="s">
-        <v>36</v>
-      </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q56">
-        <v>23.99</v>
-      </c>
-      <c r="R56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="Z56" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="AA56" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6264,13 +6315,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6288,13 +6339,13 @@
         <v>222</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -6312,10 +6363,13 @@
         <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>291</v>
       </c>
       <c r="AA57" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6329,13 +6383,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6353,13 +6407,13 @@
         <v>222</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6371,16 +6425,16 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R58">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y58" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA58" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6394,13 +6448,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6418,13 +6472,13 @@
         <v>222</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6436,16 +6490,16 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R59">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y59" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="AA59" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6459,13 +6513,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6507,10 +6561,13 @@
         <v>4</v>
       </c>
       <c r="Y60" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>240</v>
       </c>
       <c r="AA60" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6524,16 +6581,16 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -6545,34 +6602,37 @@
         <v>39</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L61" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="s">
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R61">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y61" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AA61" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6586,13 +6646,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6607,16 +6667,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6628,16 +6688,16 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R62">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y62" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA62" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6651,13 +6711,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6672,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K63" t="s">
         <v>89</v>
@@ -6687,22 +6747,22 @@
         <v>36</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" t="s">
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R63">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y63" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AA63" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6716,13 +6776,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6737,16 +6797,16 @@
         <v>39</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M64" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6758,16 +6818,16 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R64">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y64" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA64" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6781,16 +6841,16 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -6805,37 +6865,31 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>78</v>
-      </c>
-      <c r="N65" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="s">
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y65" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AA65" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6849,13 +6903,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6873,13 +6927,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6891,19 +6945,16 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R66">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y66" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AA66" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6917,13 +6968,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6941,37 +6992,34 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M67" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" t="s">
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R67">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="AA67" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -6985,13 +7033,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -7009,13 +7057,13 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L68" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M68" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -7027,16 +7075,16 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R68">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y68" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="AA68" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7050,13 +7098,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7074,13 +7122,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M69" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7098,10 +7146,13 @@
         <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>66</v>
+        <v>285</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>286</v>
       </c>
       <c r="AA69" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7115,13 +7166,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7163,10 +7214,13 @@
         <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>46</v>
       </c>
       <c r="AA70" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7180,13 +7234,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7204,13 +7258,13 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L71" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M71" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -7222,16 +7276,19 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R71">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y71" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>56</v>
       </c>
       <c r="AA71" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7245,13 +7302,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7293,10 +7350,10 @@
         <v>4</v>
       </c>
       <c r="Y72" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AA72" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7310,13 +7367,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7334,37 +7391,34 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M73" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P73" t="s">
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R73">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y73" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AA73" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7378,13 +7432,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7402,13 +7456,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L74" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M74" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7420,16 +7474,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R74">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y74" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AA74" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7443,13 +7497,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7467,13 +7521,13 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M75" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -7491,13 +7545,10 @@
         <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AA75" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7511,13 +7562,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7535,13 +7586,13 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L76" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7553,19 +7604,16 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R76">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y76" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AA76" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7579,13 +7627,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7603,37 +7651,37 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L77" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R77">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y77" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Z77" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AA77" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7647,13 +7695,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7671,13 +7719,13 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M78" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7689,19 +7737,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R78">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y78" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="AA78" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7715,13 +7760,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7739,13 +7784,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7757,19 +7802,19 @@
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R79">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y79" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Z79" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AA79" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7783,13 +7828,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7807,13 +7852,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M80" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -7825,16 +7870,19 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R80">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y80" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>110</v>
       </c>
       <c r="AA80" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -7848,13 +7896,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7872,34 +7920,37 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L81" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M81" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P81" t="s">
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R81">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>116</v>
       </c>
       <c r="AA81" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -7913,13 +7964,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7937,13 +7988,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L82" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M82" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -7955,19 +8006,19 @@
         <v>44</v>
       </c>
       <c r="Q82">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R82">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="Z82" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="AA82" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -7981,13 +8032,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -8029,13 +8080,13 @@
         <v>5.58</v>
       </c>
       <c r="Y83" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="Z83" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AA83" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8049,13 +8100,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8073,13 +8124,13 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L84" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -8091,16 +8142,16 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y84" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AA84" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8114,13 +8165,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8138,40 +8189,40 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M85" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" t="s">
         <v>44</v>
       </c>
       <c r="Q85">
-        <v>79.989999999999995</v>
+        <v>66.98</v>
       </c>
       <c r="R85">
-        <v>13.33</v>
+        <v>2.8</v>
       </c>
       <c r="Y85" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AA85" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
       </c>
       <c r="AD85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG85" t="b">
         <v>0</v>
@@ -8179,13 +8230,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8203,13 +8254,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L86" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M86" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8221,19 +8272,19 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R86">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y86" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Z86" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AA86" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8247,13 +8298,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8271,13 +8322,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L87" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
@@ -8295,10 +8346,13 @@
         <v>5.58</v>
       </c>
       <c r="Y87" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>153</v>
       </c>
       <c r="AA87" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8312,13 +8366,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8336,13 +8390,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M88" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8354,16 +8408,16 @@
         <v>44</v>
       </c>
       <c r="Q88">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R88">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="AA88" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8377,13 +8431,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8401,13 +8455,13 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L89" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M89" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8419,25 +8473,22 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R89">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y89" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AA89" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
       </c>
       <c r="AD89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -8445,13 +8496,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8469,13 +8520,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L90" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M90" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8487,19 +8538,19 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R90">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y90" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Z90" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AA90" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8513,13 +8564,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8537,13 +8588,13 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L91" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M91" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N91" t="s">
         <v>36</v>
@@ -8555,16 +8606,16 @@
         <v>44</v>
       </c>
       <c r="Q91">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R91">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y91" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8578,13 +8629,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8602,13 +8653,13 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L92" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M92" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N92" t="s">
         <v>36</v>
@@ -8620,16 +8671,16 @@
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R92">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y92" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AA92" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8643,13 +8694,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -8667,13 +8718,13 @@
         <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L93" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M93" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N93" t="s">
         <v>36</v>
@@ -8685,16 +8736,19 @@
         <v>44</v>
       </c>
       <c r="Q93">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R93">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y93" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>187</v>
       </c>
       <c r="AA93" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -8708,13 +8762,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8732,13 +8786,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M94" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
@@ -8750,16 +8804,19 @@
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R94">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y94" t="s">
-        <v>210</v>
+        <v>152</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>153</v>
       </c>
       <c r="AA94" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -8773,13 +8830,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -8797,13 +8854,13 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L95" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M95" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -8821,10 +8878,10 @@
         <v>4</v>
       </c>
       <c r="Y95" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AA95" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -8838,61 +8895,61 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>199</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
         <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
         <v>39</v>
       </c>
       <c r="J96" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="L96" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M96" t="s">
-        <v>406</v>
+        <v>145</v>
+      </c>
+      <c r="N96" t="s">
+        <v>36</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q96">
-        <v>84.72</v>
+        <v>99</v>
       </c>
       <c r="R96">
-        <v>18.64</v>
+        <v>16.5</v>
       </c>
       <c r="Y96" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA96">
-        <v>21100</v>
+        <v>200</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>201</v>
       </c>
       <c r="AB96" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD96" t="b">
         <v>0</v>
@@ -8903,66 +8960,326 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s">
+        <v>41</v>
+      </c>
+      <c r="L97" t="s">
+        <v>42</v>
+      </c>
+      <c r="M97" t="s">
+        <v>43</v>
+      </c>
+      <c r="N97" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q97">
+        <v>23.99</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J98" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" t="s">
+        <v>42</v>
+      </c>
+      <c r="M98" t="s">
+        <v>43</v>
+      </c>
+      <c r="N98" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q98">
+        <v>23.99</v>
+      </c>
+      <c r="R98">
+        <v>4</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L99" t="s">
+        <v>77</v>
+      </c>
+      <c r="M99" t="s">
+        <v>78</v>
+      </c>
+      <c r="N99" t="s">
+        <v>36</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q99">
+        <v>23.99</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" t="s">
+        <v>220</v>
+      </c>
+      <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>221</v>
+      </c>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" t="s">
+        <v>222</v>
+      </c>
+      <c r="K100" t="s">
+        <v>404</v>
+      </c>
+      <c r="L100" t="s">
+        <v>405</v>
+      </c>
+      <c r="M100" t="s">
+        <v>406</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q100">
+        <v>84.72</v>
+      </c>
+      <c r="R100">
+        <v>18.64</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA100">
+        <v>21100</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>217</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" t="s">
         <v>218</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D101" t="s">
         <v>219</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E101" t="s">
         <v>220</v>
       </c>
-      <c r="F97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
         <v>221</v>
       </c>
-      <c r="H97" t="s">
-        <v>39</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="J101" t="s">
         <v>222</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K101" t="s">
         <v>223</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L101" t="s">
         <v>90</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M101" t="s">
         <v>91</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="s">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
         <v>224</v>
       </c>
-      <c r="Q97">
+      <c r="Q101">
         <v>31.46</v>
       </c>
-      <c r="R97">
+      <c r="R101">
         <v>6.92</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Y101" t="s">
         <v>225</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Z101" t="s">
         <v>226</v>
       </c>
-      <c r="AA97">
+      <c r="AA101">
         <v>20861</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AB101" t="s">
         <v>227</v>
       </c>
-      <c r="AD97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG97" t="b">
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="615">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1783,6 +1783,87 @@
   </si>
   <si>
     <t>E11 4PB</t>
+  </si>
+  <si>
+    <t>206-3667170-3113940</t>
+  </si>
+  <si>
+    <t>2025-09-26T18:51:03+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T19:21:37+00:00</t>
+  </si>
+  <si>
+    <t>CHICHESTER</t>
+  </si>
+  <si>
+    <t>PO18 0BX</t>
+  </si>
+  <si>
+    <t>206-9047791-8567522</t>
+  </si>
+  <si>
+    <t>2025-09-26T18:13:46+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T18:14:56+00:00</t>
+  </si>
+  <si>
+    <t>HOUNSLOW</t>
+  </si>
+  <si>
+    <t>TW4 6AL</t>
+  </si>
+  <si>
+    <t>206-2803163-0355567</t>
+  </si>
+  <si>
+    <t>2025-09-26T17:51:23+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T18:43:58+00:00</t>
+  </si>
+  <si>
+    <t>202-9924333-4775508</t>
+  </si>
+  <si>
+    <t>2025-09-26T13:51:35+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T14:21:25+00:00</t>
+  </si>
+  <si>
+    <t>WALSALL</t>
+  </si>
+  <si>
+    <t>WS2 8QB</t>
+  </si>
+  <si>
+    <t>202-8764614-2644322</t>
+  </si>
+  <si>
+    <t>2025-09-26T09:29:04+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-27T03:54:49+00:00</t>
+  </si>
+  <si>
+    <t>REDDITCH</t>
+  </si>
+  <si>
+    <t>B98 7XN</t>
+  </si>
+  <si>
+    <t>203-4726041-6785924</t>
+  </si>
+  <si>
+    <t>2025-09-26T08:21:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-26T10:54:24+00:00</t>
+  </si>
+  <si>
+    <t>FY2 0AF</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG101"/>
+  <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,13 +2785,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2728,13 +2809,13 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2746,16 +2827,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="AA2" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2769,16 +2850,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="D3" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2801,26 +2882,14 @@
       <c r="M3" t="s">
         <v>175</v>
       </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
       <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3">
-        <v>69.98</v>
-      </c>
-      <c r="R3">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="AA3" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2834,16 +2903,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2858,34 +2927,22 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>36.99</v>
-      </c>
-      <c r="R4">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="AA4" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2899,16 +2956,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2932,7 +2989,7 @@
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2941,16 +2998,16 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>107.99</v>
       </c>
       <c r="R5">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="s">
-        <v>250</v>
+        <v>604</v>
       </c>
       <c r="AA5" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2964,16 +3021,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2988,16 +3045,16 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -3012,13 +3069,10 @@
         <v>11.66</v>
       </c>
       <c r="Y6" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>187</v>
+        <v>609</v>
       </c>
       <c r="AA6" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -3032,16 +3086,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -3056,34 +3110,37 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>66.98</v>
+        <v>36.99</v>
       </c>
       <c r="R7">
-        <v>11.16</v>
+        <v>6.17</v>
       </c>
       <c r="Y7" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>297</v>
       </c>
       <c r="AA7" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3097,16 +3154,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3121,34 +3178,34 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>66.98</v>
+        <v>23.99</v>
       </c>
       <c r="R8">
-        <v>11.16</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AA8" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3162,16 +3219,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3186,34 +3243,34 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R9">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y9" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="AA9" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3227,16 +3284,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="C10" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -3251,16 +3308,16 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3269,16 +3326,16 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>99</v>
+        <v>36.99</v>
       </c>
       <c r="R10">
-        <v>16.5</v>
+        <v>6.17</v>
       </c>
       <c r="Y10" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="AA10" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3292,16 +3349,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="C11" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -3325,7 +3382,7 @@
         <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3340,13 +3397,10 @@
         <v>16.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>527</v>
+        <v>250</v>
       </c>
       <c r="AA11" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3360,13 +3414,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C12" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="E12" t="s">
         <v>346</v>
@@ -3384,37 +3438,37 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
         <v>347</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R12">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y12" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="Z12" t="s">
-        <v>533</v>
+        <v>187</v>
       </c>
       <c r="AA12" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3428,16 +3482,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="C13" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3452,34 +3506,34 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R13">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y13" t="s">
-        <v>538</v>
+        <v>250</v>
       </c>
       <c r="AA13" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3493,13 +3547,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C14" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="D14" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3517,34 +3571,34 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R14">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y14" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="AA14" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3558,16 +3612,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3582,16 +3636,16 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3600,16 +3654,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R15">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="AA15" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3623,16 +3677,16 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -3647,16 +3701,16 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -3665,16 +3719,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R16">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="AA16" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3688,16 +3742,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C17" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3712,16 +3766,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3730,16 +3784,19 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R17">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="s">
-        <v>499</v>
+        <v>526</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>527</v>
       </c>
       <c r="AA17" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3753,16 +3810,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3786,28 +3843,28 @@
         <v>175</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R18">
-        <v>11.16</v>
+        <v>5.58</v>
       </c>
       <c r="Y18" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="Z18" t="s">
-        <v>93</v>
+        <v>533</v>
       </c>
       <c r="AA18" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3821,13 +3878,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D19" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -3845,13 +3902,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -3863,19 +3920,16 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R19">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="AA19" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3889,13 +3943,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="C20" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="D20" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -3913,13 +3967,13 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
@@ -3931,19 +3985,16 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R20">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y20" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="AA20" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3957,13 +4008,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -3981,13 +4032,13 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3999,16 +4050,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R21">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y21" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="AA21" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -4022,16 +4073,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C22" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -4046,16 +4097,16 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N22" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4064,16 +4115,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R22">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y22" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="AA22" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4087,13 +4138,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -4108,16 +4159,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -4129,16 +4180,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R23">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y23" t="s">
-        <v>98</v>
+        <v>499</v>
       </c>
       <c r="AA23" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4152,16 +4203,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -4173,37 +4224,40 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N24" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>66.98</v>
       </c>
       <c r="R24">
-        <v>14.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y24" t="s">
-        <v>465</v>
+        <v>504</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>93</v>
       </c>
       <c r="AA24" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4217,16 +4271,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4238,19 +4292,19 @@
         <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -4259,16 +4313,19 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R25">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y25" t="s">
-        <v>470</v>
+        <v>509</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>510</v>
       </c>
       <c r="AA25" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4282,13 +4339,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -4303,7 +4360,7 @@
         <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
         <v>173</v>
@@ -4330,10 +4387,13 @@
         <v>5.58</v>
       </c>
       <c r="Y26" t="s">
-        <v>475</v>
+        <v>515</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>516</v>
       </c>
       <c r="AA26" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4347,16 +4407,16 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="D27" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="E27" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -4368,19 +4428,19 @@
         <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -4389,16 +4449,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R27">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y27" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="AA27" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4412,13 +4472,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D28" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
         <v>346</v>
@@ -4433,43 +4493,43 @@
         <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
         <v>347</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>178</v>
+        <v>34.99</v>
       </c>
       <c r="R28">
-        <v>29.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y28" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="AA28" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
       </c>
       <c r="AD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="b">
         <v>0</v>
@@ -4477,13 +4537,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4501,13 +4561,13 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4519,16 +4579,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y29" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="AA29" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4542,13 +4602,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C30" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D30" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
         <v>346</v>
@@ -4566,13 +4626,13 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M30" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N30" t="s">
         <v>347</v>
@@ -4584,16 +4644,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R30">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y30" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="AA30" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4607,13 +4667,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="D31" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="E31" t="s">
         <v>346</v>
@@ -4631,13 +4691,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N31" t="s">
         <v>347</v>
@@ -4649,19 +4709,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="AA31" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4675,16 +4732,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="E32" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -4699,34 +4756,34 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N32" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>104.97</v>
+        <v>33.49</v>
       </c>
       <c r="R32">
-        <v>17.489999999999998</v>
+        <v>5.58</v>
       </c>
       <c r="Y32" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="AA32" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4740,13 +4797,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="E33" t="s">
         <v>346</v>
@@ -4764,13 +4821,13 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s">
         <v>347</v>
@@ -4782,13 +4839,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>23.99</v>
+        <v>99</v>
+      </c>
+      <c r="R33">
+        <v>16.5</v>
       </c>
       <c r="Y33" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AA33" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4802,16 +4862,16 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -4835,34 +4895,31 @@
         <v>406</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>178</v>
+      </c>
+      <c r="R34">
+        <v>29.66</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" t="b">
         <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34">
-        <v>89</v>
-      </c>
-      <c r="R34">
-        <v>14.83</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD34" t="b">
-        <v>0</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4870,13 +4927,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -4894,13 +4951,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4912,16 +4969,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R35">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y35" t="s">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="AA35" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4935,16 +4992,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4959,16 +5016,16 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -4977,28 +5034,22 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y36" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="AA36" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
       </c>
       <c r="AD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="b">
         <v>0</v>
@@ -5006,13 +5057,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="C37" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="E37" t="s">
         <v>346</v>
@@ -5027,16 +5078,16 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N37" t="s">
         <v>347</v>
@@ -5048,16 +5099,19 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R37">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y37" t="s">
-        <v>366</v>
+        <v>439</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>438</v>
       </c>
       <c r="AA37" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5071,16 +5125,16 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -5092,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
         <v>89</v>
@@ -5104,25 +5158,25 @@
         <v>91</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R38">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y38" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="AA38" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5136,16 +5190,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -5157,19 +5211,19 @@
         <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -5178,16 +5232,13 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>34.99</v>
-      </c>
-      <c r="R39">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="AA39" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5201,13 +5252,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -5222,16 +5273,16 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -5243,16 +5294,19 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>23.99</v>
+        <v>89</v>
       </c>
       <c r="R40">
-        <v>4</v>
+        <v>14.83</v>
       </c>
       <c r="Y40" t="s">
-        <v>381</v>
+        <v>423</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>422</v>
       </c>
       <c r="AA40" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5266,13 +5320,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="D41" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5287,16 +5341,16 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -5308,19 +5362,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R41">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y41" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="AA41" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5334,13 +5385,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="D42" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -5355,16 +5406,16 @@
         <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5382,19 +5433,22 @@
         <v>4</v>
       </c>
       <c r="Y42" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="Z42" t="s">
-        <v>93</v>
+        <v>411</v>
       </c>
       <c r="AA42" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>409</v>
       </c>
       <c r="AG42" t="b">
         <v>0</v>
@@ -5402,16 +5456,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5426,16 +5480,16 @@
         <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -5444,16 +5498,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R43">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="AA43" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5467,13 +5521,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5503,22 +5557,22 @@
         <v>36</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P44" t="s">
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R44">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y44" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="AA44" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5532,13 +5586,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D45" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5580,10 +5634,10 @@
         <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AA45" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5597,13 +5651,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5621,13 +5675,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5639,22 +5693,22 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R46">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y46" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="AA46" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5662,13 +5716,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="D47" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5686,13 +5740,13 @@
         <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5704,16 +5758,19 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R47">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y47" t="s">
-        <v>312</v>
+        <v>355</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>356</v>
       </c>
       <c r="AA47" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5727,13 +5784,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="D48" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5751,34 +5808,37 @@
         <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L48" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="s">
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>198</v>
+        <v>23.99</v>
       </c>
       <c r="R48">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>215</v>
+        <v>360</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>93</v>
       </c>
       <c r="AA48" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5792,13 +5852,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5816,13 +5876,13 @@
         <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M49" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5834,16 +5894,16 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R49">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y49" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AA49" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5857,13 +5917,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5881,37 +5941,34 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="s">
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R50">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y50" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="AA50" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5925,13 +5982,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="D51" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -5949,13 +6006,13 @@
         <v>222</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5967,16 +6024,16 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R51">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y51" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="AA51" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5990,13 +6047,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="D52" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -6038,19 +6095,16 @@
         <v>16.5</v>
       </c>
       <c r="Y52" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="AA52" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
       </c>
       <c r="AD52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" t="b">
         <v>0</v>
@@ -6058,13 +6112,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D53" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6106,13 +6160,10 @@
         <v>5.83</v>
       </c>
       <c r="Y53" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="AA53" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6126,13 +6177,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D54" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6162,25 +6213,22 @@
         <v>36</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" t="s">
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="R54">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="Y54" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="AA54" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6194,13 +6242,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6218,13 +6266,13 @@
         <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6236,16 +6284,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R55">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y55" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA55" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6259,16 +6307,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6283,25 +6331,37 @@
         <v>222</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="N56" t="s">
+        <v>36</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="R56">
+        <v>13.33</v>
       </c>
       <c r="Y56" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="Z56" t="s">
-        <v>93</v>
+        <v>325</v>
       </c>
       <c r="AA56" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6315,13 +6375,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6363,13 +6423,10 @@
         <v>4</v>
       </c>
       <c r="Y57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6383,13 +6440,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6407,13 +6464,13 @@
         <v>222</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6425,16 +6482,19 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R58">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="s">
-        <v>230</v>
+        <v>335</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6448,13 +6508,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6472,13 +6532,13 @@
         <v>222</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6490,16 +6550,19 @@
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R59">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y59" t="s">
-        <v>168</v>
+        <v>296</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>297</v>
       </c>
       <c r="AA59" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6513,13 +6576,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6537,13 +6600,13 @@
         <v>222</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L60" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M60" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
@@ -6555,19 +6618,19 @@
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R60">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y60" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="Z60" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="AA60" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6581,13 +6644,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6605,13 +6668,13 @@
         <v>222</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6629,10 +6692,10 @@
         <v>4</v>
       </c>
       <c r="Y61" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="AA61" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6646,16 +6709,16 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -6670,34 +6733,25 @@
         <v>222</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M62" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q62">
-        <v>34.99</v>
-      </c>
-      <c r="R62">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="s">
-        <v>250</v>
+        <v>343</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>93</v>
       </c>
       <c r="AA62" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6711,13 +6765,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6735,13 +6789,13 @@
         <v>222</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L63" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6753,16 +6807,19 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R63">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>255</v>
+        <v>290</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>291</v>
       </c>
       <c r="AA63" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6776,13 +6833,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6824,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="Y64" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AA64" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6841,16 +6898,16 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -6862,34 +6919,37 @@
         <v>39</v>
       </c>
       <c r="J65" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M65" t="s">
-        <v>91</v>
+        <v>145</v>
+      </c>
+      <c r="N65" t="s">
+        <v>36</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>29.16</v>
+        <v>99</v>
       </c>
       <c r="R65">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y65" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="AA65" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6903,13 +6963,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -6924,16 +6984,16 @@
         <v>39</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L66" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -6945,16 +7005,19 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R66">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y66" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>240</v>
       </c>
       <c r="AA66" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -6968,13 +7031,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -6989,37 +7052,37 @@
         <v>39</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K67" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M67" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" t="s">
         <v>44</v>
       </c>
       <c r="Q67">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R67">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AA67" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -7033,13 +7096,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -7054,16 +7117,16 @@
         <v>39</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K68" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -7075,16 +7138,16 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R68">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y68" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AA68" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7098,13 +7161,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7119,16 +7182,16 @@
         <v>39</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7140,19 +7203,16 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y69" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AA69" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7166,13 +7226,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7187,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K70" t="s">
         <v>41</v>
@@ -7214,13 +7274,10 @@
         <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AA70" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7234,16 +7291,16 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
         <v>37</v>
@@ -7258,37 +7315,31 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>54</v>
-      </c>
-      <c r="N71" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="s">
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>79.989999999999995</v>
+        <v>29.16</v>
       </c>
       <c r="R71">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y71" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="AA71" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7302,13 +7353,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7326,13 +7377,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M72" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7344,16 +7395,16 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y72" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="AA72" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7367,13 +7418,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7391,34 +7442,34 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" t="s">
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R73">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y73" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="AA73" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7432,13 +7483,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7456,13 +7507,13 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L74" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M74" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7474,16 +7525,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R74">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y74" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="AA74" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7497,13 +7548,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7545,10 +7596,13 @@
         <v>4</v>
       </c>
       <c r="Y75" t="s">
-        <v>79</v>
+        <v>285</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>286</v>
       </c>
       <c r="AA75" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7562,13 +7616,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7610,10 +7664,13 @@
         <v>4</v>
       </c>
       <c r="Y76" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>46</v>
       </c>
       <c r="AA76" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7627,13 +7684,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7651,37 +7708,37 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L77" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M77" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" t="s">
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>69.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R77">
-        <v>11.66</v>
+        <v>13.33</v>
       </c>
       <c r="Y77" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="Z77" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AA77" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7695,13 +7752,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7719,13 +7776,13 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M78" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7737,16 +7794,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R78">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y78" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AA78" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7760,13 +7817,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7808,13 +7865,10 @@
         <v>4</v>
       </c>
       <c r="Y79" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="AA79" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7828,13 +7882,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7852,13 +7906,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -7870,19 +7924,16 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R80">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y80" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="AA80" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -7896,13 +7947,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7920,13 +7971,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M81" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -7938,19 +7989,16 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R81">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y81" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -7964,13 +8012,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7988,13 +8036,13 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L82" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M82" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -8006,19 +8054,16 @@
         <v>44</v>
       </c>
       <c r="Q82">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R82">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y82" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="AA82" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -8032,13 +8077,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -8068,25 +8113,25 @@
         <v>36</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" t="s">
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R83">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y83" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="Z83" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="AA83" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8100,13 +8145,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8142,16 +8187,16 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R84">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y84" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="AA84" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8165,13 +8210,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8189,34 +8234,37 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M85" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P85" t="s">
         <v>44</v>
       </c>
       <c r="Q85">
-        <v>66.98</v>
+        <v>23.99</v>
       </c>
       <c r="R85">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Y85" t="s">
-        <v>138</v>
+        <v>103</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>104</v>
       </c>
       <c r="AA85" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8230,13 +8278,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8254,13 +8302,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M86" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8272,19 +8320,19 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R86">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y86" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="Z86" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="AA86" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8298,13 +8346,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8322,13 +8370,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L87" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M87" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
@@ -8340,19 +8388,19 @@
         <v>44</v>
       </c>
       <c r="Q87">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R87">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y87" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="Z87" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="AA87" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8366,13 +8414,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8390,13 +8438,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L88" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M88" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8408,16 +8456,19 @@
         <v>44</v>
       </c>
       <c r="Q88">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R88">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y88" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>122</v>
       </c>
       <c r="AA88" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8431,13 +8482,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8455,13 +8506,13 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L89" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M89" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8473,22 +8524,25 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R89">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y89" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>128</v>
       </c>
       <c r="AA89" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
       </c>
       <c r="AD89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="b">
         <v>0</v>
@@ -8496,13 +8550,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8520,13 +8574,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M90" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8538,19 +8592,16 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R90">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y90" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AA90" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8564,13 +8615,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8588,34 +8639,34 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L91" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M91" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N91" t="s">
         <v>36</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" t="s">
         <v>44</v>
       </c>
       <c r="Q91">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R91">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y91" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AA91" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8629,13 +8680,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8653,13 +8704,13 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L92" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M92" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N92" t="s">
         <v>36</v>
@@ -8671,16 +8722,19 @@
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R92">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y92" t="s">
-        <v>181</v>
+        <v>146</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>147</v>
       </c>
       <c r="AA92" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8694,13 +8748,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -8742,13 +8796,13 @@
         <v>5.58</v>
       </c>
       <c r="Y93" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="Z93" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="AA93" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -8762,13 +8816,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8786,13 +8840,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L94" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M94" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
@@ -8804,19 +8858,16 @@
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R94">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y94" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AA94" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -8830,13 +8881,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -8854,13 +8905,13 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L95" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M95" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -8872,22 +8923,22 @@
         <v>44</v>
       </c>
       <c r="Q95">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R95">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y95" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="AA95" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
       </c>
       <c r="AD95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG95" t="b">
         <v>0</v>
@@ -8895,13 +8946,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
@@ -8919,13 +8970,13 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L96" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N96" t="s">
         <v>36</v>
@@ -8937,16 +8988,19 @@
         <v>44</v>
       </c>
       <c r="Q96">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R96">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>167</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>168</v>
       </c>
       <c r="AA96" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -8960,13 +9014,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
@@ -8984,13 +9038,13 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L97" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M97" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N97" t="s">
         <v>36</v>
@@ -9002,16 +9056,16 @@
         <v>44</v>
       </c>
       <c r="Q97">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R97">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="AA97" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -9025,13 +9079,13 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -9049,13 +9103,13 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L98" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M98" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
@@ -9067,16 +9121,16 @@
         <v>44</v>
       </c>
       <c r="Q98">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R98">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y98" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AA98" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -9090,13 +9144,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -9114,13 +9168,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L99" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M99" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -9132,16 +9186,19 @@
         <v>44</v>
       </c>
       <c r="Q99">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R99">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y99" t="s">
-        <v>215</v>
+        <v>186</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>187</v>
       </c>
       <c r="AA99" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -9155,61 +9212,64 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>401</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="E100" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s">
         <v>39</v>
       </c>
       <c r="J100" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="L100" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M100" t="s">
-        <v>406</v>
+        <v>91</v>
+      </c>
+      <c r="N100" t="s">
+        <v>36</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q100">
-        <v>84.72</v>
+        <v>33.49</v>
       </c>
       <c r="R100">
-        <v>18.64</v>
+        <v>5.58</v>
       </c>
       <c r="Y100" t="s">
-        <v>407</v>
+        <v>152</v>
       </c>
       <c r="Z100" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA100">
-        <v>21100</v>
+        <v>153</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>154</v>
       </c>
       <c r="AB100" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD100" t="b">
         <v>0</v>
@@ -9220,66 +9280,456 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="J101" t="s">
+        <v>40</v>
+      </c>
+      <c r="K101" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" t="s">
+        <v>42</v>
+      </c>
+      <c r="M101" t="s">
+        <v>43</v>
+      </c>
+      <c r="N101" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q101">
+        <v>23.99</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="J102" t="s">
+        <v>40</v>
+      </c>
+      <c r="K102" t="s">
+        <v>143</v>
+      </c>
+      <c r="L102" t="s">
+        <v>144</v>
+      </c>
+      <c r="M102" t="s">
+        <v>145</v>
+      </c>
+      <c r="N102" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q102">
+        <v>99</v>
+      </c>
+      <c r="R102">
+        <v>16.5</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="J103" t="s">
+        <v>40</v>
+      </c>
+      <c r="K103" t="s">
+        <v>41</v>
+      </c>
+      <c r="L103" t="s">
+        <v>42</v>
+      </c>
+      <c r="M103" t="s">
+        <v>43</v>
+      </c>
+      <c r="N103" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q103">
+        <v>23.99</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" t="s">
+        <v>40</v>
+      </c>
+      <c r="K104" t="s">
+        <v>41</v>
+      </c>
+      <c r="L104" t="s">
+        <v>42</v>
+      </c>
+      <c r="M104" t="s">
+        <v>43</v>
+      </c>
+      <c r="N104" t="s">
+        <v>36</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q104">
+        <v>23.99</v>
+      </c>
+      <c r="R104">
+        <v>4</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" t="s">
+        <v>40</v>
+      </c>
+      <c r="K105" t="s">
+        <v>76</v>
+      </c>
+      <c r="L105" t="s">
+        <v>77</v>
+      </c>
+      <c r="M105" t="s">
+        <v>78</v>
+      </c>
+      <c r="N105" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q105">
+        <v>23.99</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" t="s">
+        <v>402</v>
+      </c>
+      <c r="D106" t="s">
+        <v>403</v>
+      </c>
+      <c r="E106" t="s">
+        <v>220</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" t="s">
+        <v>222</v>
+      </c>
+      <c r="K106" t="s">
+        <v>404</v>
+      </c>
+      <c r="L106" t="s">
+        <v>405</v>
+      </c>
+      <c r="M106" t="s">
+        <v>406</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q106">
+        <v>84.72</v>
+      </c>
+      <c r="R106">
+        <v>18.64</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA106">
+        <v>21100</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>217</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C107" t="s">
         <v>218</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D107" t="s">
         <v>219</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E107" t="s">
         <v>220</v>
       </c>
-      <c r="F101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
         <v>221</v>
       </c>
-      <c r="H101" t="s">
-        <v>39</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" t="s">
         <v>222</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K107" t="s">
         <v>223</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L107" t="s">
         <v>90</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M107" t="s">
         <v>91</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101" t="s">
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
         <v>224</v>
       </c>
-      <c r="Q101">
+      <c r="Q107">
         <v>31.46</v>
       </c>
-      <c r="R101">
+      <c r="R107">
         <v>6.92</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="Y107" t="s">
         <v>225</v>
       </c>
-      <c r="Z101" t="s">
+      <c r="Z107" t="s">
         <v>226</v>
       </c>
-      <c r="AA101">
+      <c r="AA107">
         <v>20861</v>
       </c>
-      <c r="AB101" t="s">
+      <c r="AB107" t="s">
         <v>227</v>
       </c>
-      <c r="AD101" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="b">
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="639">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1864,6 +1864,78 @@
   </si>
   <si>
     <t>FY2 0AF</t>
+  </si>
+  <si>
+    <t>202-9547447-3022737</t>
+  </si>
+  <si>
+    <t>2025-09-27T22:25:16+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-28T10:49:16+00:00</t>
+  </si>
+  <si>
+    <t>Acton</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>W37QN</t>
+  </si>
+  <si>
+    <t>203-5149972-5801165</t>
+  </si>
+  <si>
+    <t>2025-09-27T14:55:06+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-28T10:07:53+00:00</t>
+  </si>
+  <si>
+    <t>WELLINGBOROUGH</t>
+  </si>
+  <si>
+    <t>NN9 5UZ</t>
+  </si>
+  <si>
+    <t>204-6929842-7021116</t>
+  </si>
+  <si>
+    <t>2025-09-27T12:47:28+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-28T10:49:51+00:00</t>
+  </si>
+  <si>
+    <t>High Pressure Washer Power Water Gun+7M Washing Hose Quick Connect Fittings, Compatible with Jet Wash Gun Replacement Extension Wand for Cleaning the Car, Equipment, Floors, Walls, Windows</t>
+  </si>
+  <si>
+    <t>Spray Gun 250601000007</t>
+  </si>
+  <si>
+    <t>B0FND4VD66</t>
+  </si>
+  <si>
+    <t>FARNBOROUGH</t>
+  </si>
+  <si>
+    <t>GU14 8TE</t>
+  </si>
+  <si>
+    <t>205-6816428-9757936</t>
+  </si>
+  <si>
+    <t>2025-09-27T10:19:29+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-27T12:27:00+00:00</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>PE15 8FF</t>
   </si>
 </sst>
 </file>
@@ -2670,10 +2742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,16 +2857,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C2" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2809,16 +2881,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2827,16 +2899,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>34.99</v>
+        <v>107.99</v>
       </c>
       <c r="R2">
-        <v>5.83</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>591</v>
+        <v>618</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>619</v>
       </c>
       <c r="AA2" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2850,16 +2925,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="D3" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2874,22 +2949,34 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>145</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>107.99</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
       </c>
       <c r="Y3" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="AA3" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2903,16 +2990,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C4" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2927,22 +3014,34 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>630</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>631</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>12.99</v>
+      </c>
+      <c r="R4">
+        <v>2.17</v>
       </c>
       <c r="Y4" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="AA4" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2956,16 +3055,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2989,7 +3088,7 @@
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3004,10 +3103,10 @@
         <v>18</v>
       </c>
       <c r="Y5" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="AA5" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -3021,16 +3120,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D6" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -3054,25 +3153,25 @@
         <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R6">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="AA6" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -3086,16 +3185,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -3110,37 +3209,22 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7">
-        <v>36.99</v>
-      </c>
-      <c r="R7">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>297</v>
+        <v>596</v>
       </c>
       <c r="AA7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3154,16 +3238,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="C8" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="D8" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3178,34 +3262,22 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8">
-        <v>23.99</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="AA8" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3219,16 +3291,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="D9" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3243,34 +3315,34 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>69.98</v>
+        <v>107.99</v>
       </c>
       <c r="R9">
-        <v>11.66</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="AA9" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3284,13 +3356,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3308,34 +3380,34 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>36.99</v>
+        <v>69.98</v>
       </c>
       <c r="R10">
-        <v>6.17</v>
+        <v>11.66</v>
       </c>
       <c r="Y10" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="AA10" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3349,13 +3421,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="C11" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="D11" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -3373,13 +3445,13 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -3391,16 +3463,19 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>99</v>
+        <v>36.99</v>
       </c>
       <c r="R11">
-        <v>16.5</v>
+        <v>6.17</v>
       </c>
       <c r="Y11" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>297</v>
       </c>
       <c r="AA11" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3414,13 +3489,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D12" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E12" t="s">
         <v>346</v>
@@ -3438,37 +3513,34 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>347</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R12">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="AA12" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3482,16 +3554,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D13" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -3515,7 +3587,7 @@
         <v>175</v>
       </c>
       <c r="N13" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -3524,16 +3596,16 @@
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>66.98</v>
+        <v>69.98</v>
       </c>
       <c r="R13">
-        <v>11.16</v>
+        <v>11.66</v>
       </c>
       <c r="Y13" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="AA13" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3547,13 +3619,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="C14" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3571,34 +3643,34 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>66.98</v>
+        <v>36.99</v>
       </c>
       <c r="R14">
-        <v>11.16</v>
+        <v>6.17</v>
       </c>
       <c r="Y14" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AA14" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3612,16 +3684,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -3645,7 +3717,7 @@
         <v>145</v>
       </c>
       <c r="N15" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3660,10 +3732,10 @@
         <v>16.5</v>
       </c>
       <c r="Y15" t="s">
-        <v>548</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3677,13 +3749,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D16" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E16" t="s">
         <v>346</v>
@@ -3701,34 +3773,37 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N16" t="s">
         <v>347</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R16">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y16" t="s">
-        <v>553</v>
+        <v>558</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>187</v>
       </c>
       <c r="AA16" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3742,13 +3817,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D17" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="E17" t="s">
         <v>346</v>
@@ -3766,37 +3841,34 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s">
         <v>347</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R17">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y17" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>527</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3810,16 +3882,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C18" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D18" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3843,28 +3915,25 @@
         <v>175</v>
       </c>
       <c r="N18" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R18">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y18" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="AA18" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3878,16 +3947,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C19" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -3911,7 +3980,7 @@
         <v>145</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3926,10 +3995,10 @@
         <v>16.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AA19" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3943,16 +4012,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D20" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -3967,16 +4036,16 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3985,16 +4054,16 @@
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R20">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AA20" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4008,16 +4077,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D21" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -4032,16 +4101,16 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -4050,16 +4119,19 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R21">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>489</v>
+        <v>526</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>527</v>
       </c>
       <c r="AA21" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -4073,16 +4145,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C22" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -4106,7 +4178,7 @@
         <v>175</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4121,10 +4193,13 @@
         <v>5.58</v>
       </c>
       <c r="Y22" t="s">
-        <v>494</v>
+        <v>532</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>533</v>
       </c>
       <c r="AA22" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4138,13 +4213,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D23" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -4162,13 +4237,13 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -4180,16 +4255,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R23">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AA23" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4203,13 +4278,13 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -4227,37 +4302,34 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R24">
-        <v>11.16</v>
+        <v>5.83</v>
       </c>
       <c r="Y24" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>93</v>
+        <v>543</v>
       </c>
       <c r="AA24" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4271,13 +4343,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C25" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -4295,13 +4367,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -4313,19 +4385,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R25">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y25" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="AA25" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4339,13 +4408,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D26" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -4387,13 +4456,10 @@
         <v>5.58</v>
       </c>
       <c r="Y26" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AA26" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4407,13 +4473,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4431,13 +4497,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4449,16 +4515,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R27">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="AA27" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4472,16 +4538,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E28" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4496,34 +4562,37 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R28">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y28" t="s">
-        <v>480</v>
+        <v>504</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>93</v>
       </c>
       <c r="AA28" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4537,13 +4606,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D29" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4558,16 +4627,16 @@
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4579,16 +4648,19 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R29">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y29" t="s">
-        <v>98</v>
+        <v>509</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>510</v>
       </c>
       <c r="AA29" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4602,16 +4674,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E30" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4623,19 +4695,19 @@
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N30" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -4644,16 +4716,19 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R30">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y30" t="s">
-        <v>465</v>
+        <v>515</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>516</v>
       </c>
       <c r="AA30" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4667,16 +4742,16 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -4688,19 +4763,19 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -4709,16 +4784,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R31">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y31" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="AA31" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4732,16 +4807,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -4753,19 +4828,19 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -4774,16 +4849,16 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R32">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y32" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AA32" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4797,16 +4872,16 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C33" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D33" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -4821,16 +4896,16 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -4839,16 +4914,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R33">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y33" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="AA33" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4862,13 +4937,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E34" t="s">
         <v>346</v>
@@ -4898,28 +4973,28 @@
         <v>347</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="R34">
-        <v>29.66</v>
+        <v>14.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AA34" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
       </c>
       <c r="AD34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4927,16 +5002,16 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D35" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -4951,16 +5026,16 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L35" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4969,16 +5044,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" t="s">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AA35" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4992,16 +5067,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="D36" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -5025,7 +5100,7 @@
         <v>175</v>
       </c>
       <c r="N36" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -5040,10 +5115,10 @@
         <v>5.58</v>
       </c>
       <c r="Y36" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AA36" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -5057,13 +5132,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D37" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="E37" t="s">
         <v>346</v>
@@ -5081,13 +5156,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s">
         <v>347</v>
@@ -5099,19 +5174,16 @@
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AA37" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5125,13 +5197,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C38" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E38" t="s">
         <v>346</v>
@@ -5149,40 +5221,40 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M38" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N38" t="s">
         <v>347</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>104.97</v>
+        <v>178</v>
       </c>
       <c r="R38">
-        <v>17.489999999999998</v>
+        <v>29.66</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="AA38" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
       </c>
       <c r="AD38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="b">
         <v>0</v>
@@ -5190,16 +5262,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D39" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -5223,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -5234,11 +5306,14 @@
       <c r="Q39">
         <v>23.99</v>
       </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
       <c r="Y39" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="AA39" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5252,16 +5327,16 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D40" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -5276,16 +5351,16 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -5294,19 +5369,16 @@
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R40">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y40" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="AA40" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5320,16 +5392,16 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D41" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
@@ -5344,16 +5416,16 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -5362,16 +5434,19 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R41">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>417</v>
+        <v>439</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>438</v>
       </c>
       <c r="AA41" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5385,16 +5460,16 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D42" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -5409,46 +5484,40 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>23.99</v>
+        <v>104.97</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y42" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AA42" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
       </c>
       <c r="AD42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="b">
         <v>0</v>
@@ -5456,13 +5525,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D43" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E43" t="s">
         <v>346</v>
@@ -5477,16 +5546,16 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N43" t="s">
         <v>347</v>
@@ -5498,16 +5567,13 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>34.99</v>
-      </c>
-      <c r="R43">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y43" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AA43" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5521,13 +5587,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5542,16 +5608,16 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5563,16 +5629,19 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R44">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y44" t="s">
-        <v>371</v>
+        <v>423</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>422</v>
       </c>
       <c r="AA44" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5586,13 +5655,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="D45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5607,7 +5676,7 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s">
         <v>89</v>
@@ -5634,10 +5703,10 @@
         <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="AA45" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5651,13 +5720,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5672,16 +5741,16 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M46" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5699,16 +5768,22 @@
         <v>4</v>
       </c>
       <c r="Y46" t="s">
-        <v>381</v>
+        <v>412</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>411</v>
       </c>
       <c r="AA46" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>409</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5716,16 +5791,16 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D47" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -5740,16 +5815,16 @@
         <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -5758,19 +5833,16 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R47">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y47" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA47" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5784,13 +5856,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D48" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5808,13 +5880,13 @@
         <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5826,19 +5898,16 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R48">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y48" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="AA48" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5852,13 +5921,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -5876,13 +5945,13 @@
         <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5894,16 +5963,16 @@
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R49">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AA49" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5917,13 +5986,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -5941,34 +6010,34 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R50">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y50" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="AA50" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5982,13 +6051,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D51" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -6006,13 +6075,13 @@
         <v>222</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -6024,16 +6093,19 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R51">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>355</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>356</v>
       </c>
       <c r="AA51" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -6047,13 +6119,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C52" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -6071,13 +6143,13 @@
         <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -6089,22 +6161,25 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R52">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>360</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>93</v>
       </c>
       <c r="AA52" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
       </c>
       <c r="AD52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="b">
         <v>0</v>
@@ -6112,13 +6187,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D53" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6136,13 +6211,13 @@
         <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -6154,16 +6229,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R53">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="AA53" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6177,13 +6252,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D54" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6201,13 +6276,13 @@
         <v>222</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -6219,16 +6294,16 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>198</v>
+        <v>69.98</v>
       </c>
       <c r="R54">
-        <v>33</v>
+        <v>11.66</v>
       </c>
       <c r="Y54" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="AA54" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6242,13 +6317,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6290,10 +6365,10 @@
         <v>5.83</v>
       </c>
       <c r="Y55" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6307,13 +6382,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C56" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -6331,13 +6406,13 @@
         <v>222</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M56" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
@@ -6349,25 +6424,22 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R56">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y56" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="AA56" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
       </c>
       <c r="AD56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG56" t="b">
         <v>0</v>
@@ -6375,13 +6447,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6399,13 +6471,13 @@
         <v>222</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N57" t="s">
         <v>36</v>
@@ -6417,16 +6489,16 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y57" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AA57" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6440,13 +6512,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D58" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6476,25 +6548,22 @@
         <v>36</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" t="s">
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="R58">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="Y58" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="AA58" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6508,13 +6577,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6556,13 +6625,10 @@
         <v>5.83</v>
       </c>
       <c r="Y59" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA59" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6576,13 +6642,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6600,13 +6666,13 @@
         <v>222</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
@@ -6618,19 +6684,19 @@
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R60">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y60" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="Z60" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AA60" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6644,13 +6710,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6692,10 +6758,10 @@
         <v>4</v>
       </c>
       <c r="Y61" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AA61" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6709,16 +6775,16 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -6733,25 +6799,37 @@
         <v>222</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M62" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N62" t="s">
+        <v>36</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62">
+        <v>99</v>
+      </c>
+      <c r="R62">
+        <v>16.5</v>
       </c>
       <c r="Y62" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Z62" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="AA62" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6765,13 +6843,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6789,13 +6867,13 @@
         <v>222</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6807,19 +6885,19 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y63" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Z63" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AA63" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6833,13 +6911,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6857,13 +6935,13 @@
         <v>222</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s">
         <v>36</v>
@@ -6875,16 +6953,19 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R64">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y64" t="s">
-        <v>230</v>
+        <v>301</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>302</v>
       </c>
       <c r="AA64" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6898,13 +6979,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -6922,13 +7003,13 @@
         <v>222</v>
       </c>
       <c r="K65" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -6940,16 +7021,16 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R65">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y65" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA65" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -6963,16 +7044,16 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
@@ -6995,29 +7076,17 @@
       <c r="M66" t="s">
         <v>43</v>
       </c>
-      <c r="N66" t="s">
-        <v>36</v>
-      </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q66">
-        <v>23.99</v>
-      </c>
-      <c r="R66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="Z66" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="AA66" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -7031,13 +7100,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -7055,13 +7124,13 @@
         <v>222</v>
       </c>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L67" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -7079,10 +7148,13 @@
         <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>291</v>
       </c>
       <c r="AA67" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -7096,13 +7168,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
         <v>36</v>
@@ -7120,13 +7192,13 @@
         <v>222</v>
       </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M68" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -7138,16 +7210,16 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R68">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y68" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA68" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7161,13 +7233,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7185,13 +7257,13 @@
         <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M69" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7203,16 +7275,16 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R69">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y69" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="AA69" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7226,13 +7298,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7274,10 +7346,13 @@
         <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>240</v>
       </c>
       <c r="AA70" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7291,16 +7366,16 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
         <v>37</v>
@@ -7312,34 +7387,37 @@
         <v>39</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="N71" t="s">
+        <v>36</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="s">
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R71">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y71" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AA71" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7353,13 +7431,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7374,16 +7452,16 @@
         <v>39</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K72" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L72" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7395,16 +7473,16 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R72">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y72" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA72" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7418,13 +7496,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7439,7 +7517,7 @@
         <v>39</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K73" t="s">
         <v>89</v>
@@ -7454,22 +7532,22 @@
         <v>36</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P73" t="s">
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R73">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y73" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AA73" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7483,13 +7561,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7504,16 +7582,16 @@
         <v>39</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K74" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L74" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M74" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7525,16 +7603,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R74">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y74" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA74" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7548,16 +7626,16 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -7572,37 +7650,31 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L75" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s">
-        <v>78</v>
-      </c>
-      <c r="N75" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="s">
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R75">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y75" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AA75" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7616,13 +7688,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7640,13 +7712,13 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L76" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M76" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7658,19 +7730,16 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y76" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AA76" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7684,13 +7753,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -7708,37 +7777,34 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L77" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R77">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y77" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="AA77" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7752,13 +7818,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7776,13 +7842,13 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L78" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M78" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7794,16 +7860,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y78" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="AA78" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7817,13 +7883,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7841,13 +7907,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L79" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M79" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -7865,10 +7931,13 @@
         <v>4</v>
       </c>
       <c r="Y79" t="s">
-        <v>66</v>
+        <v>285</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>286</v>
       </c>
       <c r="AA79" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7882,13 +7951,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7930,10 +7999,13 @@
         <v>4</v>
       </c>
       <c r="Y80" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>46</v>
       </c>
       <c r="AA80" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -7947,13 +8019,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -7971,13 +8043,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L81" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M81" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -7989,16 +8061,19 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y81" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>56</v>
       </c>
       <c r="AA81" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -8012,13 +8087,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -8060,10 +8135,10 @@
         <v>4</v>
       </c>
       <c r="Y82" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AA82" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -8077,13 +8152,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -8101,37 +8176,34 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M83" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P83" t="s">
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R83">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y83" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AA83" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8145,13 +8217,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8169,13 +8241,13 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M84" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -8187,16 +8259,16 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R84">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y84" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AA84" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8210,13 +8282,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8234,13 +8306,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M85" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -8258,13 +8330,10 @@
         <v>4</v>
       </c>
       <c r="Y85" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8278,13 +8347,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8302,13 +8371,13 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8320,19 +8389,16 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R86">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y86" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AA86" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8346,13 +8412,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8370,37 +8436,37 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L87" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" t="s">
         <v>44</v>
       </c>
       <c r="Q87">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R87">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y87" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Z87" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AA87" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8414,13 +8480,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8438,13 +8504,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L88" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M88" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8456,19 +8522,16 @@
         <v>44</v>
       </c>
       <c r="Q88">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R88">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y88" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="AA88" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8482,13 +8545,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8506,13 +8569,13 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8524,19 +8587,19 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R89">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y89" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Z89" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AA89" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8550,13 +8613,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8574,13 +8637,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L90" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M90" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8592,16 +8655,19 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R90">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y90" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>110</v>
       </c>
       <c r="AA90" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8615,13 +8681,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8639,34 +8705,37 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M91" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N91" t="s">
         <v>36</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" t="s">
         <v>44</v>
       </c>
       <c r="Q91">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R91">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y91" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>116</v>
       </c>
       <c r="AA91" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8680,13 +8749,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8704,13 +8773,13 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M92" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N92" t="s">
         <v>36</v>
@@ -8722,19 +8791,19 @@
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R92">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="Z92" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="AA92" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8748,13 +8817,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -8796,13 +8865,13 @@
         <v>5.58</v>
       </c>
       <c r="Y93" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="Z93" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AA93" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -8816,13 +8885,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8840,13 +8909,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M94" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
@@ -8858,16 +8927,16 @@
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R94">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y94" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AA94" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -8881,13 +8950,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -8905,40 +8974,40 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L95" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M95" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" t="s">
         <v>44</v>
       </c>
       <c r="Q95">
-        <v>79.989999999999995</v>
+        <v>66.98</v>
       </c>
       <c r="R95">
-        <v>13.33</v>
+        <v>2.8</v>
       </c>
       <c r="Y95" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AA95" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
       </c>
       <c r="AD95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG95" t="b">
         <v>0</v>
@@ -8946,13 +9015,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
@@ -8970,13 +9039,13 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L96" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M96" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N96" t="s">
         <v>36</v>
@@ -8988,19 +9057,19 @@
         <v>44</v>
       </c>
       <c r="Q96">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R96">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y96" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Z96" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AA96" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -9014,13 +9083,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
@@ -9038,13 +9107,13 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M97" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N97" t="s">
         <v>36</v>
@@ -9062,10 +9131,13 @@
         <v>5.58</v>
       </c>
       <c r="Y97" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>153</v>
       </c>
       <c r="AA97" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -9079,13 +9151,13 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -9103,13 +9175,13 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L98" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M98" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
@@ -9121,16 +9193,16 @@
         <v>44</v>
       </c>
       <c r="Q98">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R98">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y98" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="AA98" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -9144,13 +9216,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -9168,13 +9240,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L99" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M99" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -9186,25 +9258,22 @@
         <v>44</v>
       </c>
       <c r="Q99">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R99">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y99" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AA99" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
       </c>
       <c r="AD99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -9212,13 +9281,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
@@ -9236,13 +9305,13 @@
         <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L100" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M100" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N100" t="s">
         <v>36</v>
@@ -9254,19 +9323,19 @@
         <v>44</v>
       </c>
       <c r="Q100">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R100">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y100" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Z100" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AA100" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -9280,13 +9349,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
@@ -9304,13 +9373,13 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L101" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M101" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N101" t="s">
         <v>36</v>
@@ -9322,16 +9391,16 @@
         <v>44</v>
       </c>
       <c r="Q101">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R101">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y101" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AA101" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
@@ -9345,13 +9414,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
@@ -9369,13 +9438,13 @@
         <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L102" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M102" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N102" t="s">
         <v>36</v>
@@ -9387,16 +9456,16 @@
         <v>44</v>
       </c>
       <c r="Q102">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R102">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y102" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AA102" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -9410,13 +9479,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
@@ -9434,13 +9503,13 @@
         <v>40</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L103" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M103" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N103" t="s">
         <v>36</v>
@@ -9452,16 +9521,19 @@
         <v>44</v>
       </c>
       <c r="Q103">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R103">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y103" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>187</v>
       </c>
       <c r="AA103" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -9475,13 +9547,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -9499,13 +9571,13 @@
         <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L104" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M104" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N104" t="s">
         <v>36</v>
@@ -9517,16 +9589,19 @@
         <v>44</v>
       </c>
       <c r="Q104">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R104">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y104" t="s">
-        <v>210</v>
+        <v>152</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>153</v>
       </c>
       <c r="AA104" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -9540,13 +9615,13 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D105" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E105" t="s">
         <v>36</v>
@@ -9564,13 +9639,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L105" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M105" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N105" t="s">
         <v>36</v>
@@ -9588,10 +9663,10 @@
         <v>4</v>
       </c>
       <c r="Y105" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AA105" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -9605,61 +9680,61 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>199</v>
       </c>
       <c r="E106" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H106" t="s">
         <v>39</v>
       </c>
       <c r="J106" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="L106" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M106" t="s">
-        <v>406</v>
+        <v>145</v>
+      </c>
+      <c r="N106" t="s">
+        <v>36</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q106">
-        <v>84.72</v>
+        <v>99</v>
       </c>
       <c r="R106">
-        <v>18.64</v>
+        <v>16.5</v>
       </c>
       <c r="Y106" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA106">
-        <v>21100</v>
+        <v>200</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>201</v>
       </c>
       <c r="AB106" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD106" t="b">
         <v>0</v>
@@ -9670,66 +9745,326 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107" t="s">
+        <v>41</v>
+      </c>
+      <c r="L107" t="s">
+        <v>42</v>
+      </c>
+      <c r="M107" t="s">
+        <v>43</v>
+      </c>
+      <c r="N107" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q107">
+        <v>23.99</v>
+      </c>
+      <c r="R107">
+        <v>4</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108" t="s">
+        <v>41</v>
+      </c>
+      <c r="L108" t="s">
+        <v>42</v>
+      </c>
+      <c r="M108" t="s">
+        <v>43</v>
+      </c>
+      <c r="N108" t="s">
+        <v>36</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q108">
+        <v>23.99</v>
+      </c>
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" t="s">
+        <v>40</v>
+      </c>
+      <c r="K109" t="s">
+        <v>76</v>
+      </c>
+      <c r="L109" t="s">
+        <v>77</v>
+      </c>
+      <c r="M109" t="s">
+        <v>78</v>
+      </c>
+      <c r="N109" t="s">
+        <v>36</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q109">
+        <v>23.99</v>
+      </c>
+      <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C110" t="s">
+        <v>402</v>
+      </c>
+      <c r="D110" t="s">
+        <v>403</v>
+      </c>
+      <c r="E110" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>221</v>
+      </c>
+      <c r="H110" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" t="s">
+        <v>222</v>
+      </c>
+      <c r="K110" t="s">
+        <v>404</v>
+      </c>
+      <c r="L110" t="s">
+        <v>405</v>
+      </c>
+      <c r="M110" t="s">
+        <v>406</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q110">
+        <v>84.72</v>
+      </c>
+      <c r="R110">
+        <v>18.64</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA110">
+        <v>21100</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>217</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C111" t="s">
         <v>218</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D111" t="s">
         <v>219</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E111" t="s">
         <v>220</v>
       </c>
-      <c r="F107" t="s">
-        <v>37</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
         <v>221</v>
       </c>
-      <c r="H107" t="s">
-        <v>39</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H111" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" t="s">
         <v>222</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K111" t="s">
         <v>223</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L111" t="s">
         <v>90</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M111" t="s">
         <v>91</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" t="s">
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
         <v>224</v>
       </c>
-      <c r="Q107">
+      <c r="Q111">
         <v>31.46</v>
       </c>
-      <c r="R107">
+      <c r="R111">
         <v>6.92</v>
       </c>
-      <c r="Y107" t="s">
+      <c r="Y111" t="s">
         <v>225</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="Z111" t="s">
         <v>226</v>
       </c>
-      <c r="AA107">
+      <c r="AA111">
         <v>20861</v>
       </c>
-      <c r="AB107" t="s">
+      <c r="AB111" t="s">
         <v>227</v>
       </c>
-      <c r="AD107" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="b">
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="650">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1936,6 +1936,39 @@
   </si>
   <si>
     <t>PE15 8FF</t>
+  </si>
+  <si>
+    <t>203-0075770-5602762</t>
+  </si>
+  <si>
+    <t>2025-09-29T13:41:59+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-29T14:12:53+00:00</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>west midlands</t>
+  </si>
+  <si>
+    <t>B31 2GF</t>
+  </si>
+  <si>
+    <t>202-3982831-4901936</t>
+  </si>
+  <si>
+    <t>2025-09-29T11:41:52+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-29T12:12:26+00:00</t>
+  </si>
+  <si>
+    <t>Stalybridge</t>
+  </si>
+  <si>
+    <t>SK15 2EX</t>
   </si>
 </sst>
 </file>
@@ -2742,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG111"/>
+  <dimension ref="A1:AG113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,16 +2890,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2881,16 +2914,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2899,19 +2932,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>107.99</v>
+        <v>34.99</v>
       </c>
       <c r="R2">
-        <v>18</v>
+        <v>5.83</v>
       </c>
       <c r="Y2" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="Z2" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="AA2" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2925,16 +2958,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="D3" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2949,16 +2982,16 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2967,16 +3000,19 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>107.99</v>
+        <v>23.99</v>
       </c>
       <c r="R3">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>624</v>
+        <v>648</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>286</v>
       </c>
       <c r="AA3" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -2990,13 +3026,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C4" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -3014,13 +3050,13 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>629</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>630</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
-        <v>631</v>
+        <v>145</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -3032,16 +3068,19 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>12.99</v>
+        <v>107.99</v>
       </c>
       <c r="R4">
-        <v>2.17</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="s">
-        <v>632</v>
+        <v>618</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>619</v>
       </c>
       <c r="AA4" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -3055,13 +3094,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C5" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -3103,10 +3142,10 @@
         <v>18</v>
       </c>
       <c r="Y5" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="AA5" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -3120,16 +3159,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -3144,16 +3183,16 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>630</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>631</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3162,16 +3201,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>34.99</v>
+        <v>12.99</v>
       </c>
       <c r="R6">
-        <v>5.83</v>
+        <v>2.17</v>
       </c>
       <c r="Y6" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="AA6" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -3185,16 +3224,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>634</v>
       </c>
       <c r="C7" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -3209,22 +3248,34 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>145</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7">
+        <v>107.99</v>
+      </c>
+      <c r="R7">
+        <v>18</v>
       </c>
       <c r="Y7" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="AA7" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3238,16 +3289,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C8" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3270,14 +3321,26 @@
       <c r="M8" t="s">
         <v>175</v>
       </c>
+      <c r="N8" t="s">
+        <v>347</v>
+      </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <v>34.99</v>
+      </c>
+      <c r="R8">
+        <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AA8" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3291,16 +3354,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D9" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3315,34 +3378,22 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
-      </c>
-      <c r="N9" t="s">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9">
-        <v>107.99</v>
-      </c>
-      <c r="R9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AA9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3356,16 +3407,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C10" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D10" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -3388,26 +3439,14 @@
       <c r="M10" t="s">
         <v>175</v>
       </c>
-      <c r="N10" t="s">
-        <v>36</v>
-      </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10">
-        <v>69.98</v>
-      </c>
-      <c r="R10">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="AA10" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3421,16 +3460,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C11" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="D11" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -3445,16 +3484,16 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3463,19 +3502,16 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>36.99</v>
+        <v>107.99</v>
       </c>
       <c r="R11">
-        <v>6.17</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>297</v>
+        <v>604</v>
       </c>
       <c r="AA11" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3489,16 +3525,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="C12" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -3513,34 +3549,34 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="N12" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y12" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="AA12" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3554,13 +3590,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="D13" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3578,34 +3614,37 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>69.98</v>
+        <v>36.99</v>
       </c>
       <c r="R13">
-        <v>11.66</v>
+        <v>6.17</v>
       </c>
       <c r="Y13" t="s">
-        <v>577</v>
+        <v>260</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>297</v>
       </c>
       <c r="AA13" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3619,16 +3658,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C14" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D14" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -3643,16 +3682,16 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -3661,16 +3700,16 @@
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>36.99</v>
+        <v>23.99</v>
       </c>
       <c r="R14">
-        <v>6.17</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AA14" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3684,13 +3723,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D15" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3708,34 +3747,34 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R15">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y15" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="AA15" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3749,16 +3788,16 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="C16" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="D16" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -3782,28 +3821,25 @@
         <v>91</v>
       </c>
       <c r="N16" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>69.98</v>
+        <v>36.99</v>
       </c>
       <c r="R16">
-        <v>11.66</v>
+        <v>6.17</v>
       </c>
       <c r="Y16" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>187</v>
+        <v>582</v>
       </c>
       <c r="AA16" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3817,16 +3853,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C17" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="D17" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3841,34 +3877,34 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>66.98</v>
+        <v>99</v>
       </c>
       <c r="R17">
-        <v>11.16</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="s">
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3882,16 +3918,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C18" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D18" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -3906,16 +3942,16 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -3924,16 +3960,19 @@
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>66.98</v>
+        <v>69.98</v>
       </c>
       <c r="R18">
-        <v>11.16</v>
+        <v>11.66</v>
       </c>
       <c r="Y18" t="s">
-        <v>567</v>
+        <v>558</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>187</v>
       </c>
       <c r="AA18" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3947,13 +3986,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="C19" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="E19" t="s">
         <v>346</v>
@@ -3971,34 +4010,34 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
         <v>347</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R19">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y19" t="s">
-        <v>548</v>
+        <v>250</v>
       </c>
       <c r="AA19" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -4012,16 +4051,16 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C20" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="D20" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -4036,34 +4075,34 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R20">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y20" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="AA20" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4077,13 +4116,13 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="E21" t="s">
         <v>346</v>
@@ -4125,13 +4164,10 @@
         <v>16.5</v>
       </c>
       <c r="Y21" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="AA21" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -4145,13 +4181,13 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D22" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="E22" t="s">
         <v>346</v>
@@ -4169,13 +4205,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M22" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s">
         <v>347</v>
@@ -4187,19 +4223,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R22">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="AA22" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4213,16 +4246,16 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C23" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D23" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -4246,7 +4279,7 @@
         <v>145</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -4261,10 +4294,13 @@
         <v>16.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>538</v>
+        <v>526</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>527</v>
       </c>
       <c r="AA23" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4278,16 +4314,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C24" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D24" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -4302,16 +4338,16 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -4320,16 +4356,19 @@
         <v>44</v>
       </c>
       <c r="Q24">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R24">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y24" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>533</v>
       </c>
       <c r="AA24" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4343,13 +4382,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="D25" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -4367,13 +4406,13 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s">
         <v>36</v>
@@ -4385,16 +4424,16 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R25">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="AA25" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4408,13 +4447,13 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C26" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -4432,13 +4471,13 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -4450,16 +4489,16 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R26">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y26" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="AA26" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4473,13 +4512,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4497,13 +4536,13 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4515,16 +4554,16 @@
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R27">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AA27" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4538,13 +4577,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4574,25 +4613,22 @@
         <v>36</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R28">
-        <v>11.16</v>
+        <v>5.58</v>
       </c>
       <c r="Y28" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
       <c r="AA28" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4606,13 +4642,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C29" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D29" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -4630,13 +4666,13 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M29" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4648,19 +4684,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R29">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y29" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AA29" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4674,13 +4707,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C30" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4710,25 +4743,25 @@
         <v>36</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R30">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y30" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Z30" t="s">
-        <v>516</v>
+        <v>93</v>
       </c>
       <c r="AA30" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4742,13 +4775,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C31" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D31" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4790,10 +4823,13 @@
         <v>5.58</v>
       </c>
       <c r="Y31" t="s">
-        <v>521</v>
+        <v>509</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>510</v>
       </c>
       <c r="AA31" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4807,16 +4843,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="D32" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E32" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -4831,16 +4867,16 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N32" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -4849,16 +4885,19 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R32">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y32" t="s">
-        <v>480</v>
+        <v>515</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>516</v>
       </c>
       <c r="AA32" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4872,13 +4911,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4893,16 +4932,16 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4914,16 +4953,16 @@
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R33">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y33" t="s">
-        <v>98</v>
+        <v>521</v>
       </c>
       <c r="AA33" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4937,13 +4976,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="E34" t="s">
         <v>346</v>
@@ -4958,16 +4997,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
         <v>347</v>
@@ -4979,16 +5018,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>89</v>
+        <v>34.99</v>
       </c>
       <c r="R34">
-        <v>14.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y34" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="AA34" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -5002,16 +5041,16 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E35" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -5026,16 +5065,16 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -5044,16 +5083,16 @@
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R35">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y35" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="AA35" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -5067,16 +5106,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D36" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -5091,16 +5130,16 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L36" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M36" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -5109,16 +5148,16 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R36">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y36" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AA36" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -5132,13 +5171,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D37" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E37" t="s">
         <v>346</v>
@@ -5180,10 +5219,10 @@
         <v>16.5</v>
       </c>
       <c r="Y37" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AA37" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5197,16 +5236,16 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E38" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -5221,40 +5260,40 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M38" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N38" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>178</v>
+        <v>33.49</v>
       </c>
       <c r="R38">
-        <v>29.66</v>
+        <v>5.58</v>
       </c>
       <c r="Y38" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="AA38" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
       </c>
       <c r="AD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="b">
         <v>0</v>
@@ -5262,16 +5301,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -5286,16 +5325,16 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M39" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -5304,16 +5343,16 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="AA39" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5327,13 +5366,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D40" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E40" t="s">
         <v>346</v>
@@ -5351,40 +5390,40 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L40" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N40" t="s">
         <v>347</v>
       </c>
       <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40">
+        <v>178</v>
+      </c>
+      <c r="R40">
+        <v>29.66</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD40" t="b">
         <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40">
-        <v>33.49</v>
-      </c>
-      <c r="R40">
-        <v>5.58</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD40" t="b">
-        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -5392,16 +5431,16 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E41" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
@@ -5425,7 +5464,7 @@
         <v>78</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -5440,13 +5479,10 @@
         <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="AA41" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5460,13 +5496,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C42" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E42" t="s">
         <v>346</v>
@@ -5484,34 +5520,34 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N42" t="s">
         <v>347</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>104.97</v>
+        <v>33.49</v>
       </c>
       <c r="R42">
-        <v>17.489999999999998</v>
+        <v>5.58</v>
       </c>
       <c r="Y42" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA42" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5525,13 +5561,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C43" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D43" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E43" t="s">
         <v>346</v>
@@ -5569,11 +5605,17 @@
       <c r="Q43">
         <v>23.99</v>
       </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
       <c r="Y43" t="s">
-        <v>428</v>
+        <v>439</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>438</v>
       </c>
       <c r="AA43" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5587,16 +5629,16 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D44" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
@@ -5611,37 +5653,34 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N44" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P44" t="s">
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>89</v>
+        <v>104.97</v>
       </c>
       <c r="R44">
-        <v>14.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y44" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AA44" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5655,16 +5694,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C45" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -5679,16 +5718,16 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M45" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N45" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -5697,16 +5736,13 @@
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>34.99</v>
-      </c>
-      <c r="R45">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y45" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AA45" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5720,13 +5756,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C46" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5744,13 +5780,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5762,28 +5798,25 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>23.99</v>
+        <v>89</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>14.83</v>
       </c>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Z46" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AA46" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
       </c>
       <c r="AD46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5791,16 +5824,16 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C47" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="D47" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -5812,7 +5845,7 @@
         <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s">
         <v>89</v>
@@ -5824,7 +5857,7 @@
         <v>91</v>
       </c>
       <c r="N47" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -5839,10 +5872,10 @@
         <v>5.83</v>
       </c>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="AA47" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5856,13 +5889,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5877,16 +5910,16 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M48" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5898,22 +5931,28 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R48">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>412</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>411</v>
       </c>
       <c r="AA48" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
       </c>
       <c r="AD48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>409</v>
       </c>
       <c r="AG48" t="b">
         <v>0</v>
@@ -5921,16 +5960,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D49" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
@@ -5954,7 +5993,7 @@
         <v>91</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -5969,10 +6008,10 @@
         <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AA49" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5986,13 +6025,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -6010,13 +6049,13 @@
         <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -6028,16 +6067,16 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y50" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -6051,13 +6090,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C51" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -6075,13 +6114,13 @@
         <v>222</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -6093,19 +6132,16 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R51">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y51" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -6119,13 +6155,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -6167,13 +6203,10 @@
         <v>4</v>
       </c>
       <c r="Y52" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="AA52" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -6187,13 +6220,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6211,13 +6244,13 @@
         <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -6229,16 +6262,19 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>99</v>
+        <v>14.49</v>
       </c>
       <c r="R53">
-        <v>16.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y53" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>356</v>
       </c>
       <c r="AA53" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6252,13 +6288,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C54" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
@@ -6276,34 +6312,37 @@
         <v>222</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R54">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y54" t="s">
-        <v>307</v>
+        <v>360</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>93</v>
       </c>
       <c r="AA54" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6317,13 +6356,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="D55" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -6341,13 +6380,13 @@
         <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
         <v>36</v>
@@ -6359,16 +6398,16 @@
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R55">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="AA55" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -6382,13 +6421,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -6406,40 +6445,40 @@
         <v>222</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" t="s">
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R56">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y56" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="AA56" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
       </c>
       <c r="AD56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="b">
         <v>0</v>
@@ -6447,13 +6486,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -6495,10 +6534,10 @@
         <v>5.83</v>
       </c>
       <c r="Y57" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="AA57" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6512,13 +6551,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C58" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -6548,28 +6587,28 @@
         <v>36</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" t="s">
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="R58">
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="AA58" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
       </c>
       <c r="AD58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" t="b">
         <v>0</v>
@@ -6577,13 +6616,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C59" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -6625,10 +6664,10 @@
         <v>5.83</v>
       </c>
       <c r="Y59" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AA59" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6642,13 +6681,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -6666,37 +6705,34 @@
         <v>222</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L60" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M60" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>79.989999999999995</v>
+        <v>198</v>
       </c>
       <c r="R60">
-        <v>13.33</v>
+        <v>33</v>
       </c>
       <c r="Y60" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="AA60" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6710,13 +6746,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6734,13 +6770,13 @@
         <v>222</v>
       </c>
       <c r="K61" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6752,16 +6788,16 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R61">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y61" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AA61" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6775,13 +6811,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6799,13 +6835,13 @@
         <v>222</v>
       </c>
       <c r="K62" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M62" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6817,19 +6853,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R62">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y62" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="Z62" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AA62" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6843,13 +6879,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6867,13 +6903,13 @@
         <v>222</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L63" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6885,19 +6921,16 @@
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R63">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AA63" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
@@ -6911,13 +6944,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="D64" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
@@ -6959,13 +6992,13 @@
         <v>16.5</v>
       </c>
       <c r="Y64" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Z64" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AA64" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -6979,13 +7012,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -7003,13 +7036,13 @@
         <v>222</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -7021,16 +7054,19 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y65" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>297</v>
       </c>
       <c r="AA65" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -7044,16 +7080,16 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
@@ -7068,25 +7104,37 @@
         <v>222</v>
       </c>
       <c r="K66" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N66" t="s">
+        <v>36</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66">
+        <v>99</v>
+      </c>
+      <c r="R66">
+        <v>16.5</v>
       </c>
       <c r="Y66" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="Z66" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="AA66" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -7100,10 +7148,10 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
         <v>306</v>
@@ -7148,13 +7196,10 @@
         <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA67" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -7168,16 +7213,16 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -7200,26 +7245,17 @@
       <c r="M68" t="s">
         <v>43</v>
       </c>
-      <c r="N68" t="s">
-        <v>36</v>
-      </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q68">
-        <v>23.99</v>
-      </c>
-      <c r="R68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="s">
-        <v>230</v>
+        <v>343</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>93</v>
       </c>
       <c r="AA68" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7233,13 +7269,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7257,13 +7293,13 @@
         <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L69" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7275,16 +7311,19 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R69">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>168</v>
+        <v>290</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>291</v>
       </c>
       <c r="AA69" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7298,13 +7337,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7346,13 +7385,10 @@
         <v>4</v>
       </c>
       <c r="Y70" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA70" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7366,13 +7402,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7390,13 +7426,13 @@
         <v>222</v>
       </c>
       <c r="K71" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L71" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M71" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -7408,16 +7444,16 @@
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R71">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y71" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="AA71" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7431,13 +7467,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7455,13 +7491,13 @@
         <v>222</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7473,16 +7509,19 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R72">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y72" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>240</v>
       </c>
       <c r="AA72" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7496,13 +7535,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7520,13 +7559,13 @@
         <v>222</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M73" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7538,16 +7577,16 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R73">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y73" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AA73" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
@@ -7561,13 +7600,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C74" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7585,13 +7624,13 @@
         <v>222</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L74" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7603,16 +7642,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R74">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y74" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA74" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7626,16 +7665,16 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -7647,7 +7686,7 @@
         <v>39</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K75" t="s">
         <v>89</v>
@@ -7658,23 +7697,26 @@
       <c r="M75" t="s">
         <v>91</v>
       </c>
+      <c r="N75" t="s">
+        <v>36</v>
+      </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="s">
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>29.16</v>
+        <v>34.99</v>
       </c>
       <c r="R75">
         <v>5.83</v>
       </c>
       <c r="Y75" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA75" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7688,13 +7730,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7709,16 +7751,16 @@
         <v>39</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K76" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L76" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7730,16 +7772,16 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R76">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y76" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA76" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7753,16 +7795,16 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -7785,26 +7827,23 @@
       <c r="M77" t="s">
         <v>91</v>
       </c>
-      <c r="N77" t="s">
-        <v>36</v>
-      </c>
       <c r="O77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P77" t="s">
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>69.98</v>
+        <v>29.16</v>
       </c>
       <c r="R77">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y77" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AA77" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7818,13 +7857,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7866,10 +7905,10 @@
         <v>16.5</v>
       </c>
       <c r="Y78" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA78" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7883,13 +7922,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7907,37 +7946,34 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="s">
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y79" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AA79" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7951,13 +7987,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -7975,13 +8011,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L80" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M80" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -7993,19 +8029,16 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AA80" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -8019,13 +8052,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -8043,13 +8076,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M81" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -8061,19 +8094,19 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R81">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y81" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="Z81" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="AA81" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -8087,13 +8120,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -8135,10 +8168,13 @@
         <v>4</v>
       </c>
       <c r="Y82" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>46</v>
       </c>
       <c r="AA82" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -8152,13 +8188,13 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -8176,13 +8212,13 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L83" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M83" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
@@ -8194,16 +8230,19 @@
         <v>44</v>
       </c>
       <c r="Q83">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y83" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>56</v>
       </c>
       <c r="AA83" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8217,13 +8256,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8265,10 +8304,10 @@
         <v>4</v>
       </c>
       <c r="Y84" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA84" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8282,13 +8321,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8306,13 +8345,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M85" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -8330,10 +8369,10 @@
         <v>4</v>
       </c>
       <c r="Y85" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AA85" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8347,13 +8386,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8395,10 +8434,10 @@
         <v>4</v>
       </c>
       <c r="Y86" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AA86" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8412,13 +8451,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8436,37 +8475,34 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L87" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M87" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
         <v>44</v>
       </c>
       <c r="Q87">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R87">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y87" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8480,13 +8516,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8504,13 +8540,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M88" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8522,16 +8558,16 @@
         <v>44</v>
       </c>
       <c r="Q88">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R88">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AA88" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8545,13 +8581,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8569,37 +8605,37 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L89" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M89" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89" t="s">
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>23.99</v>
+        <v>69.98</v>
       </c>
       <c r="R89">
-        <v>4</v>
+        <v>11.66</v>
       </c>
       <c r="Y89" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Z89" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA89" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8613,13 +8649,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8637,13 +8673,13 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M90" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8655,19 +8691,16 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R90">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y90" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AA90" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8681,13 +8714,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8705,13 +8738,13 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M91" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N91" t="s">
         <v>36</v>
@@ -8723,19 +8756,19 @@
         <v>44</v>
       </c>
       <c r="Q91">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R91">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Z91" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AA91" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8749,13 +8782,13 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8797,13 +8830,13 @@
         <v>13.33</v>
       </c>
       <c r="Y92" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z92" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AA92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8817,13 +8850,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -8841,13 +8874,13 @@
         <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M93" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N93" t="s">
         <v>36</v>
@@ -8859,19 +8892,19 @@
         <v>44</v>
       </c>
       <c r="Q93">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R93">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y93" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z93" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AA93" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -8885,13 +8918,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8909,13 +8942,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L94" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M94" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
@@ -8927,16 +8960,19 @@
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R94">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y94" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>122</v>
       </c>
       <c r="AA94" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -8950,13 +8986,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -8986,22 +9022,25 @@
         <v>36</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
         <v>44</v>
       </c>
       <c r="Q95">
-        <v>66.98</v>
+        <v>33.49</v>
       </c>
       <c r="R95">
-        <v>2.8</v>
+        <v>5.58</v>
       </c>
       <c r="Y95" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>128</v>
       </c>
       <c r="AA95" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -9015,13 +9054,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
@@ -9039,13 +9078,13 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L96" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N96" t="s">
         <v>36</v>
@@ -9057,19 +9096,16 @@
         <v>44</v>
       </c>
       <c r="Q96">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R96">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y96" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AA96" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -9083,13 +9119,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
@@ -9119,25 +9155,22 @@
         <v>36</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" t="s">
         <v>44</v>
       </c>
       <c r="Q97">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R97">
-        <v>5.58</v>
+        <v>2.8</v>
       </c>
       <c r="Y97" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AA97" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -9151,13 +9184,13 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -9175,13 +9208,13 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L98" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M98" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
@@ -9193,16 +9226,19 @@
         <v>44</v>
       </c>
       <c r="Q98">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R98">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y98" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>147</v>
       </c>
       <c r="AA98" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -9216,13 +9252,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -9240,13 +9276,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L99" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M99" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -9258,22 +9294,25 @@
         <v>44</v>
       </c>
       <c r="Q99">
-        <v>79.989999999999995</v>
+        <v>33.49</v>
       </c>
       <c r="R99">
-        <v>13.33</v>
+        <v>5.58</v>
       </c>
       <c r="Y99" t="s">
-        <v>133</v>
+        <v>152</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>153</v>
       </c>
       <c r="AA99" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
       </c>
       <c r="AD99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG99" t="b">
         <v>0</v>
@@ -9281,13 +9320,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
@@ -9305,13 +9344,13 @@
         <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L100" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M100" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N100" t="s">
         <v>36</v>
@@ -9329,13 +9368,10 @@
         <v>4</v>
       </c>
       <c r="Y100" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AA100" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -9349,13 +9385,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
@@ -9373,13 +9409,13 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L101" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M101" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N101" t="s">
         <v>36</v>
@@ -9391,22 +9427,22 @@
         <v>44</v>
       </c>
       <c r="Q101">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R101">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y101" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AA101" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
       </c>
       <c r="AD101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -9414,13 +9450,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
@@ -9438,13 +9474,13 @@
         <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L102" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M102" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N102" t="s">
         <v>36</v>
@@ -9456,16 +9492,19 @@
         <v>44</v>
       </c>
       <c r="Q102">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R102">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y102" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>168</v>
       </c>
       <c r="AA102" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -9479,13 +9518,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
@@ -9503,13 +9542,13 @@
         <v>40</v>
       </c>
       <c r="K103" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L103" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M103" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N103" t="s">
         <v>36</v>
@@ -9527,13 +9566,10 @@
         <v>5.58</v>
       </c>
       <c r="Y103" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AA103" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -9547,13 +9583,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -9595,13 +9631,10 @@
         <v>5.58</v>
       </c>
       <c r="Y104" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AA104" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -9615,13 +9648,13 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
         <v>36</v>
@@ -9639,13 +9672,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L105" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M105" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N105" t="s">
         <v>36</v>
@@ -9657,16 +9690,19 @@
         <v>44</v>
       </c>
       <c r="Q105">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R105">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y105" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>187</v>
       </c>
       <c r="AA105" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -9680,13 +9716,13 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
@@ -9704,13 +9740,13 @@
         <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L106" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M106" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N106" t="s">
         <v>36</v>
@@ -9722,16 +9758,19 @@
         <v>44</v>
       </c>
       <c r="Q106">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R106">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y106" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>153</v>
       </c>
       <c r="AA106" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -9745,13 +9784,13 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
         <v>36</v>
@@ -9793,10 +9832,10 @@
         <v>4</v>
       </c>
       <c r="Y107" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AA107" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
@@ -9810,13 +9849,13 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
@@ -9834,13 +9873,13 @@
         <v>40</v>
       </c>
       <c r="K108" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L108" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M108" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N108" t="s">
         <v>36</v>
@@ -9852,16 +9891,16 @@
         <v>44</v>
       </c>
       <c r="Q108">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R108">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y108" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA108" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
@@ -9875,13 +9914,13 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
@@ -9899,13 +9938,13 @@
         <v>40</v>
       </c>
       <c r="K109" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L109" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M109" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N109" t="s">
         <v>36</v>
@@ -9923,10 +9962,10 @@
         <v>4</v>
       </c>
       <c r="Y109" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AA109" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AB109" t="s">
         <v>48</v>
@@ -9940,61 +9979,61 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="E110" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H110" t="s">
         <v>39</v>
       </c>
       <c r="J110" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="L110" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M110" t="s">
-        <v>406</v>
+        <v>43</v>
+      </c>
+      <c r="N110" t="s">
+        <v>36</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q110">
-        <v>84.72</v>
+        <v>23.99</v>
       </c>
       <c r="R110">
-        <v>18.64</v>
+        <v>4</v>
       </c>
       <c r="Y110" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA110">
-        <v>21100</v>
+        <v>210</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>211</v>
       </c>
       <c r="AB110" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD110" t="b">
         <v>0</v>
@@ -10005,66 +10044,196 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" t="s">
+        <v>76</v>
+      </c>
+      <c r="L111" t="s">
+        <v>77</v>
+      </c>
+      <c r="M111" t="s">
+        <v>78</v>
+      </c>
+      <c r="N111" t="s">
+        <v>36</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q111">
+        <v>23.99</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" t="s">
+        <v>403</v>
+      </c>
+      <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" t="s">
+        <v>221</v>
+      </c>
+      <c r="H112" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" t="s">
+        <v>222</v>
+      </c>
+      <c r="K112" t="s">
+        <v>404</v>
+      </c>
+      <c r="L112" t="s">
+        <v>405</v>
+      </c>
+      <c r="M112" t="s">
+        <v>406</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q112">
+        <v>84.72</v>
+      </c>
+      <c r="R112">
+        <v>18.64</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA112">
+        <v>21100</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>217</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>218</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>219</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E113" t="s">
         <v>220</v>
       </c>
-      <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
         <v>221</v>
       </c>
-      <c r="H111" t="s">
-        <v>39</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" t="s">
         <v>222</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K113" t="s">
         <v>223</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L113" t="s">
         <v>90</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M113" t="s">
         <v>91</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111" t="s">
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
         <v>224</v>
       </c>
-      <c r="Q111">
+      <c r="Q113">
         <v>31.46</v>
       </c>
-      <c r="R111">
+      <c r="R113">
         <v>6.92</v>
       </c>
-      <c r="Y111" t="s">
+      <c r="Y113" t="s">
         <v>225</v>
       </c>
-      <c r="Z111" t="s">
+      <c r="Z113" t="s">
         <v>226</v>
       </c>
-      <c r="AA111">
+      <c r="AA113">
         <v>20861</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AB113" t="s">
         <v>227</v>
       </c>
-      <c r="AD111" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="b">
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="727">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -1969,6 +1969,237 @@
   </si>
   <si>
     <t>SK15 2EX</t>
+  </si>
+  <si>
+    <t>203-7465463-3269913</t>
+  </si>
+  <si>
+    <t>2025-10-05T17:32:45+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-05T18:03:12+00:00</t>
+  </si>
+  <si>
+    <t>CARDIFF</t>
+  </si>
+  <si>
+    <t>CF23 8FD</t>
+  </si>
+  <si>
+    <t>206-4343090-3295562</t>
+  </si>
+  <si>
+    <t>2025-10-05T16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-05T16:30:26+00:00</t>
+  </si>
+  <si>
+    <t>HORLEY</t>
+  </si>
+  <si>
+    <t>RH6 8TQ</t>
+  </si>
+  <si>
+    <t>026-1303321-7938767</t>
+  </si>
+  <si>
+    <t>2025-10-05T14:30:51+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-05T15:01:19+00:00</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>AB421NA</t>
+  </si>
+  <si>
+    <t>206-9319972-3125962</t>
+  </si>
+  <si>
+    <t>2025-10-05T12:56:30+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-05T13:30:04+00:00</t>
+  </si>
+  <si>
+    <t>MENSTON</t>
+  </si>
+  <si>
+    <t>LS29 6LJ</t>
+  </si>
+  <si>
+    <t>206-1611749-6581903</t>
+  </si>
+  <si>
+    <t>2025-10-04T20:57:13+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-05T10:03:17+00:00</t>
+  </si>
+  <si>
+    <t>CASTLEFORD</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>WF10 2EN</t>
+  </si>
+  <si>
+    <t>203-4832765-2149101</t>
+  </si>
+  <si>
+    <t>2025-10-04T07:22:50+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-04T09:36:23+00:00</t>
+  </si>
+  <si>
+    <t>peacehaven</t>
+  </si>
+  <si>
+    <t>sussex</t>
+  </si>
+  <si>
+    <t>BN107SP</t>
+  </si>
+  <si>
+    <t>202-7807418-3021169</t>
+  </si>
+  <si>
+    <t>2025-10-03T17:59:53+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-04T09:36:53+00:00</t>
+  </si>
+  <si>
+    <t>ARUNDEL</t>
+  </si>
+  <si>
+    <t>BN18 9JD</t>
+  </si>
+  <si>
+    <t>203-9779090-1044320</t>
+  </si>
+  <si>
+    <t>2025-10-03T17:27:24+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-04T08:27:15+00:00</t>
+  </si>
+  <si>
+    <t>FK6 6JL</t>
+  </si>
+  <si>
+    <t>204-6988603-2305928</t>
+  </si>
+  <si>
+    <t>2025-10-03T15:50:49+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-04T08:57:16+00:00</t>
+  </si>
+  <si>
+    <t>CHESTERFIELD</t>
+  </si>
+  <si>
+    <t>S45 9SL</t>
+  </si>
+  <si>
+    <t>205-0116241-3065974</t>
+  </si>
+  <si>
+    <t>2025-10-03T15:16:47+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-04T08:27:58+00:00</t>
+  </si>
+  <si>
+    <t>BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>BH8 9NY</t>
+  </si>
+  <si>
+    <t>202-7259341-8603545</t>
+  </si>
+  <si>
+    <t>2025-10-03T00:55:23+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-03T09:06:59+00:00</t>
+  </si>
+  <si>
+    <t>SE8 5FH</t>
+  </si>
+  <si>
+    <t>202-0371955-5515553</t>
+  </si>
+  <si>
+    <t>2025-10-02T22:22:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-03T15:53:01+00:00</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>NR5 0PX</t>
+  </si>
+  <si>
+    <t>202-4623432-6778725</t>
+  </si>
+  <si>
+    <t>2025-10-02T17:14:10+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-03T05:59:14+00:00</t>
+  </si>
+  <si>
+    <t>LAURENCEKIRK</t>
+  </si>
+  <si>
+    <t>AB30 1QQ</t>
+  </si>
+  <si>
+    <t>026-9132443-4321150</t>
+  </si>
+  <si>
+    <t>2025-10-01T07:16:39+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-01T15:05:13+00:00</t>
+  </si>
+  <si>
+    <t>Creetown</t>
+  </si>
+  <si>
+    <t>Wigtownshire</t>
+  </si>
+  <si>
+    <t>DG8 7DA</t>
+  </si>
+  <si>
+    <t>203-9655801-5446714</t>
+  </si>
+  <si>
+    <t>2025-09-30T08:23:36+00:00</t>
+  </si>
+  <si>
+    <t>2025-09-30T10:14:46+00:00</t>
+  </si>
+  <si>
+    <t>Abingdon</t>
+  </si>
+  <si>
+    <t>Oxon</t>
+  </si>
+  <si>
+    <t>OX143DE</t>
   </si>
 </sst>
 </file>
@@ -2775,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG113"/>
+  <dimension ref="A1:AG128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,13 +3121,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="E2" t="s">
         <v>346</v>
@@ -2914,13 +3145,13 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
         <v>347</v>
@@ -2932,19 +3163,16 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R2">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="AA2" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -2958,13 +3186,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C3" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D3" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -2982,13 +3210,13 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>406</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
@@ -3000,19 +3228,16 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>23.99</v>
+        <v>94.99</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>15.83</v>
       </c>
       <c r="Y3" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>286</v>
+        <v>658</v>
       </c>
       <c r="AA3" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -3026,16 +3251,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -3050,16 +3275,16 @@
         <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -3068,19 +3293,16 @@
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>107.99</v>
+        <v>34.99</v>
       </c>
       <c r="R4">
-        <v>18</v>
+        <v>5.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="AA4" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -3094,16 +3316,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -3118,16 +3340,16 @@
         <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3136,16 +3358,16 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>107.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R5">
-        <v>18</v>
+        <v>13.33</v>
       </c>
       <c r="Y5" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="AA5" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -3159,13 +3381,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -3183,13 +3405,13 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>629</v>
+        <v>424</v>
       </c>
       <c r="L6" t="s">
-        <v>630</v>
+        <v>405</v>
       </c>
       <c r="M6" t="s">
-        <v>631</v>
+        <v>406</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -3201,16 +3423,19 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>12.99</v>
+        <v>94.99</v>
       </c>
       <c r="R6">
-        <v>2.17</v>
+        <v>15.83</v>
       </c>
       <c r="Y6" t="s">
-        <v>632</v>
+        <v>673</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>674</v>
       </c>
       <c r="AA6" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -3224,13 +3449,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="D7" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -3248,13 +3473,13 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -3266,16 +3491,19 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>107.99</v>
+        <v>36.99</v>
       </c>
       <c r="R7">
-        <v>18</v>
+        <v>6.17</v>
       </c>
       <c r="Y7" t="s">
-        <v>637</v>
+        <v>679</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>680</v>
       </c>
       <c r="AA7" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3289,16 +3517,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>682</v>
       </c>
       <c r="C8" t="s">
-        <v>589</v>
+        <v>683</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>684</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3313,16 +3541,16 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -3331,16 +3559,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>34.99</v>
+        <v>94.99</v>
       </c>
       <c r="R8">
-        <v>5.83</v>
+        <v>15.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>591</v>
+        <v>685</v>
       </c>
       <c r="AA8" t="s">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3354,16 +3582,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>687</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
+        <v>689</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3386,14 +3614,26 @@
       <c r="M9" t="s">
         <v>175</v>
       </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <v>34.99</v>
+      </c>
+      <c r="R9">
+        <v>5.83</v>
       </c>
       <c r="Y9" t="s">
-        <v>596</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s">
-        <v>597</v>
+        <v>690</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3407,16 +3647,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>691</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="D10" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -3439,14 +3679,26 @@
       <c r="M10" t="s">
         <v>175</v>
       </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>34.99</v>
+      </c>
+      <c r="R10">
+        <v>5.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
       <c r="AA10" t="s">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3460,16 +3712,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="D11" t="s">
-        <v>603</v>
+        <v>698</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -3484,16 +3736,16 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3502,16 +3754,16 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>107.99</v>
+        <v>94.99</v>
       </c>
       <c r="R11">
-        <v>18</v>
+        <v>15.83</v>
       </c>
       <c r="Y11" t="s">
-        <v>604</v>
+        <v>699</v>
       </c>
       <c r="AA11" t="s">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3525,13 +3777,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>701</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>702</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>703</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -3561,22 +3813,22 @@
         <v>36</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R12">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="AA12" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3590,13 +3842,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>611</v>
+        <v>705</v>
       </c>
       <c r="C13" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="D13" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3614,37 +3866,37 @@
         <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>36.99</v>
+        <v>69.98</v>
       </c>
       <c r="R13">
-        <v>6.17</v>
+        <v>11.66</v>
       </c>
       <c r="Y13" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="Z13" t="s">
-        <v>297</v>
+        <v>708</v>
       </c>
       <c r="AA13" t="s">
-        <v>614</v>
+        <v>709</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3658,16 +3910,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>712</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -3682,34 +3934,34 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>23.99</v>
+        <v>199.98</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="Y14" t="s">
-        <v>572</v>
+        <v>713</v>
       </c>
       <c r="AA14" t="s">
-        <v>573</v>
+        <v>714</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3723,13 +3975,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>715</v>
       </c>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="D15" t="s">
-        <v>576</v>
+        <v>717</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3759,22 +4011,25 @@
         <v>36</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R15">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>577</v>
+        <v>718</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>719</v>
       </c>
       <c r="AA15" t="s">
-        <v>578</v>
+        <v>720</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3788,13 +4043,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>721</v>
       </c>
       <c r="C16" t="s">
-        <v>580</v>
+        <v>722</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>723</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -3812,13 +4067,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -3830,16 +4085,19 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>36.99</v>
+        <v>107.99</v>
       </c>
       <c r="R16">
-        <v>6.17</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="s">
-        <v>582</v>
+        <v>724</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>725</v>
       </c>
       <c r="AA16" t="s">
-        <v>583</v>
+        <v>726</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -3853,16 +4111,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="C17" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -3877,16 +4135,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3895,16 +4153,19 @@
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R17">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y17" t="s">
-        <v>250</v>
+        <v>642</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>643</v>
       </c>
       <c r="AA17" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3918,13 +4179,13 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>555</v>
+        <v>645</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="D18" t="s">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="E18" t="s">
         <v>346</v>
@@ -3942,37 +4203,37 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
         <v>347</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R18">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="Z18" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="AA18" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3986,16 +4247,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="C19" t="s">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="D19" t="s">
-        <v>562</v>
+        <v>617</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -4010,34 +4271,37 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>66.98</v>
+        <v>107.99</v>
       </c>
       <c r="R19">
-        <v>11.16</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="s">
-        <v>250</v>
+        <v>618</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>619</v>
       </c>
       <c r="AA19" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -4051,13 +4315,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="C20" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -4075,34 +4339,34 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
         <v>36</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>44</v>
       </c>
       <c r="Q20">
-        <v>66.98</v>
+        <v>107.99</v>
       </c>
       <c r="R20">
-        <v>11.16</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="AA20" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4116,16 +4380,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
       <c r="C21" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -4140,16 +4404,16 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>629</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>630</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>631</v>
       </c>
       <c r="N21" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -4158,16 +4422,16 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>12.99</v>
       </c>
       <c r="R21">
-        <v>16.5</v>
+        <v>2.17</v>
       </c>
       <c r="Y21" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="AA21" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -4181,16 +4445,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="C22" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="D22" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -4214,7 +4478,7 @@
         <v>145</v>
       </c>
       <c r="N22" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4223,16 +4487,16 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>99</v>
+        <v>107.99</v>
       </c>
       <c r="R22">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="AA22" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4246,13 +4510,13 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="D23" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="E23" t="s">
         <v>346</v>
@@ -4270,13 +4534,13 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s">
         <v>347</v>
@@ -4288,19 +4552,16 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R23">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y23" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="AA23" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4314,16 +4575,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="C24" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="D24" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -4346,29 +4607,14 @@
       <c r="M24" t="s">
         <v>175</v>
       </c>
-      <c r="N24" t="s">
-        <v>347</v>
-      </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24">
-        <v>33.49</v>
-      </c>
-      <c r="R24">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="AA24" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4382,16 +4628,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="C25" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="D25" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4406,34 +4652,22 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25">
-        <v>99</v>
-      </c>
-      <c r="R25">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="AA25" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4447,16 +4681,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="C26" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="D26" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -4471,16 +4705,16 @@
         <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -4489,16 +4723,16 @@
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>34.99</v>
+        <v>107.99</v>
       </c>
       <c r="R26">
-        <v>5.83</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="AA26" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4512,13 +4746,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>606</v>
       </c>
       <c r="C27" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>608</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -4536,34 +4770,34 @@
         <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R27">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y27" t="s">
-        <v>489</v>
+        <v>609</v>
       </c>
       <c r="AA27" t="s">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4577,13 +4811,13 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>491</v>
+        <v>611</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>612</v>
       </c>
       <c r="D28" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4601,13 +4835,13 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -4619,16 +4853,19 @@
         <v>44</v>
       </c>
       <c r="Q28">
-        <v>33.49</v>
+        <v>36.99</v>
       </c>
       <c r="R28">
-        <v>5.58</v>
+        <v>6.17</v>
       </c>
       <c r="Y28" t="s">
-        <v>494</v>
+        <v>260</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>297</v>
       </c>
       <c r="AA28" t="s">
-        <v>495</v>
+        <v>614</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4642,16 +4879,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="D29" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -4666,16 +4903,16 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>406</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4684,16 +4921,16 @@
         <v>44</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>23.99</v>
       </c>
       <c r="R29">
-        <v>14.83</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="AA29" t="s">
-        <v>500</v>
+        <v>573</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4707,13 +4944,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="C30" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -4749,19 +4986,16 @@
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>66.98</v>
+        <v>69.98</v>
       </c>
       <c r="R30">
-        <v>11.16</v>
+        <v>11.66</v>
       </c>
       <c r="Y30" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>93</v>
+        <v>577</v>
       </c>
       <c r="AA30" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4775,13 +5009,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="D31" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -4799,13 +5033,13 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -4817,19 +5051,16 @@
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>33.49</v>
+        <v>36.99</v>
       </c>
       <c r="R31">
-        <v>5.58</v>
+        <v>6.17</v>
       </c>
       <c r="Y31" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="AA31" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4843,13 +5074,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="C32" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4867,13 +5098,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4885,19 +5116,16 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R32">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="AA32" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4911,16 +5139,16 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="C33" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="D33" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -4935,34 +5163,37 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R33">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y33" t="s">
-        <v>521</v>
+        <v>558</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>187</v>
       </c>
       <c r="AA33" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4976,13 +5207,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
       <c r="D34" t="s">
-        <v>479</v>
+        <v>562</v>
       </c>
       <c r="E34" t="s">
         <v>346</v>
@@ -5000,34 +5231,34 @@
         <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N34" t="s">
         <v>347</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R34">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y34" t="s">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="AA34" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -5041,13 +5272,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="C35" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -5062,37 +5293,37 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R35">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y35" t="s">
-        <v>98</v>
+        <v>567</v>
       </c>
       <c r="AA35" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -5106,13 +5337,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="C36" t="s">
-        <v>463</v>
+        <v>546</v>
       </c>
       <c r="D36" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
         <v>346</v>
@@ -5127,16 +5358,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N36" t="s">
         <v>347</v>
@@ -5148,16 +5379,16 @@
         <v>44</v>
       </c>
       <c r="Q36">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R36">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="AA36" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -5171,13 +5402,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="C37" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="D37" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="E37" t="s">
         <v>346</v>
@@ -5192,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s">
         <v>143</v>
@@ -5219,10 +5450,10 @@
         <v>16.5</v>
       </c>
       <c r="Y37" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
       <c r="AA37" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5236,16 +5467,16 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -5257,19 +5488,19 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M38" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -5278,16 +5509,19 @@
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R38">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y38" t="s">
-        <v>475</v>
+        <v>526</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>527</v>
       </c>
       <c r="AA38" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5301,13 +5535,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="E39" t="s">
         <v>346</v>
@@ -5322,16 +5556,16 @@
         <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N39" t="s">
         <v>347</v>
@@ -5343,16 +5577,19 @@
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R39">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y39" t="s">
-        <v>458</v>
+        <v>532</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>533</v>
       </c>
       <c r="AA39" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5366,16 +5603,16 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="D40" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -5387,43 +5624,43 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M40" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="R40">
-        <v>29.66</v>
+        <v>16.5</v>
       </c>
       <c r="Y40" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="AA40" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
       </c>
       <c r="AD40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -5431,13 +5668,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>542</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -5452,16 +5689,16 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -5473,16 +5710,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R41">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y41" t="s">
-        <v>167</v>
+        <v>543</v>
       </c>
       <c r="AA41" t="s">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5496,16 +5733,16 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="C42" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="E42" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -5517,19 +5754,19 @@
         <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -5538,16 +5775,16 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R42">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y42" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="AA42" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5561,16 +5798,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="D43" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="E43" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5582,19 +5819,19 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -5603,19 +5840,16 @@
         <v>44</v>
       </c>
       <c r="Q43">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R43">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y43" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="AA43" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5629,16 +5863,16 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="C44" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
@@ -5650,37 +5884,37 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K44" t="s">
+        <v>424</v>
+      </c>
+      <c r="L44" t="s">
+        <v>405</v>
+      </c>
+      <c r="M44" t="s">
+        <v>406</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44">
         <v>89</v>
       </c>
-      <c r="L44" t="s">
-        <v>90</v>
-      </c>
-      <c r="M44" t="s">
-        <v>91</v>
-      </c>
-      <c r="N44" t="s">
-        <v>347</v>
-      </c>
-      <c r="O44">
-        <v>3</v>
-      </c>
-      <c r="P44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44">
-        <v>104.97</v>
-      </c>
       <c r="R44">
-        <v>17.489999999999998</v>
+        <v>14.83</v>
       </c>
       <c r="Y44" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="AA44" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5694,16 +5928,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="E45" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -5715,34 +5949,40 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="s">
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>23.99</v>
+        <v>66.98</v>
+      </c>
+      <c r="R45">
+        <v>11.16</v>
       </c>
       <c r="Y45" t="s">
-        <v>428</v>
+        <v>504</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>93</v>
       </c>
       <c r="AA45" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5756,13 +5996,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>408</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="D46" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5777,16 +6017,16 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5798,19 +6038,19 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R46">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y46" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="Z46" t="s">
-        <v>422</v>
+        <v>510</v>
       </c>
       <c r="AA46" t="s">
-        <v>421</v>
+        <v>511</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5824,13 +6064,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="C47" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="D47" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -5845,16 +6085,16 @@
         <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -5866,16 +6106,19 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R47">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>515</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>516</v>
       </c>
       <c r="AA47" t="s">
-        <v>416</v>
+        <v>517</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5889,13 +6132,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>518</v>
       </c>
       <c r="C48" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="D48" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -5910,16 +6153,16 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -5931,28 +6174,22 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R48">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y48" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="AA48" t="s">
-        <v>410</v>
+        <v>522</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
       </c>
       <c r="AD48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="b">
         <v>0</v>
@@ -5960,13 +6197,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>478</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>479</v>
       </c>
       <c r="E49" t="s">
         <v>346</v>
@@ -6008,10 +6245,10 @@
         <v>5.83</v>
       </c>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="AA49" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -6025,13 +6262,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>484</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -6046,7 +6283,7 @@
         <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K50" t="s">
         <v>89</v>
@@ -6073,10 +6310,10 @@
         <v>5.83</v>
       </c>
       <c r="Y50" t="s">
-        <v>371</v>
+        <v>98</v>
       </c>
       <c r="AA50" t="s">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -6090,16 +6327,16 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="C51" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -6111,19 +6348,19 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N51" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -6132,16 +6369,16 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R51">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y51" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
       <c r="AA51" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -6155,16 +6392,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="D52" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -6176,19 +6413,19 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N52" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -6197,16 +6434,16 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y52" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="AA52" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -6220,13 +6457,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>473</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
@@ -6241,16 +6478,16 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="M53" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -6262,19 +6499,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>14.49</v>
+        <v>33.49</v>
       </c>
       <c r="R53">
-        <v>2.42</v>
+        <v>5.58</v>
       </c>
       <c r="Y53" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="AA53" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6288,16 +6522,16 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F54" t="s">
         <v>37</v>
@@ -6309,19 +6543,19 @@
         <v>39</v>
       </c>
       <c r="J54" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -6330,19 +6564,16 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="AA54" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6356,16 +6587,16 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -6377,43 +6608,43 @@
         <v>39</v>
       </c>
       <c r="J55" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="N55" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55">
+        <v>178</v>
+      </c>
+      <c r="R55">
+        <v>29.66</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD55" t="b">
         <v>1</v>
-      </c>
-      <c r="P55" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q55">
-        <v>99</v>
-      </c>
-      <c r="R55">
-        <v>16.5</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD55" t="b">
-        <v>0</v>
       </c>
       <c r="AG55" t="b">
         <v>0</v>
@@ -6421,13 +6652,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="C56" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
@@ -6442,37 +6673,37 @@
         <v>39</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N56" t="s">
         <v>36</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="s">
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R56">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y56" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="AA56" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6486,16 +6717,16 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="C57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
@@ -6507,19 +6738,19 @@
         <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M57" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N57" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -6528,16 +6759,16 @@
         <v>44</v>
       </c>
       <c r="Q57">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R57">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y57" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="AA57" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6551,16 +6782,16 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -6572,19 +6803,19 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N58" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -6593,22 +6824,25 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R58">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y58" t="s">
-        <v>397</v>
+        <v>439</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>438</v>
       </c>
       <c r="AA58" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
       </c>
       <c r="AD58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="b">
         <v>0</v>
@@ -6616,16 +6850,16 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>435</v>
       </c>
       <c r="D59" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
@@ -6637,7 +6871,7 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K59" t="s">
         <v>89</v>
@@ -6649,25 +6883,25 @@
         <v>91</v>
       </c>
       <c r="N59" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P59" t="s">
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>34.99</v>
+        <v>104.97</v>
       </c>
       <c r="R59">
-        <v>5.83</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y59" t="s">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="AA59" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -6681,16 +6915,16 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -6702,37 +6936,34 @@
         <v>39</v>
       </c>
       <c r="J60" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N60" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="s">
         <v>44</v>
       </c>
       <c r="Q60">
-        <v>198</v>
-      </c>
-      <c r="R60">
-        <v>33</v>
+        <v>23.99</v>
       </c>
       <c r="Y60" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="AA60" t="s">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6746,13 +6977,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="C61" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -6767,16 +6998,16 @@
         <v>39</v>
       </c>
       <c r="J61" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M61" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6788,16 +7019,19 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R61">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y61" t="s">
-        <v>319</v>
+        <v>423</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>422</v>
       </c>
       <c r="AA61" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6811,13 +7045,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>419</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
@@ -6832,16 +7066,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6853,19 +7087,16 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R62">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y62" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="AA62" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6879,13 +7110,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
@@ -6900,16 +7131,16 @@
         <v>39</v>
       </c>
       <c r="J63" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6927,16 +7158,22 @@
         <v>4</v>
       </c>
       <c r="Y63" t="s">
-        <v>330</v>
+        <v>412</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>411</v>
       </c>
       <c r="AA63" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
       </c>
       <c r="AD63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>409</v>
       </c>
       <c r="AG63" t="b">
         <v>0</v>
@@ -6944,16 +7181,16 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="D64" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F64" t="s">
         <v>37</v>
@@ -6968,16 +7205,16 @@
         <v>222</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N64" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -6986,19 +7223,16 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R64">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y64" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="AA64" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -7012,13 +7246,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -7060,13 +7294,10 @@
         <v>5.83</v>
       </c>
       <c r="Y65" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="AA65" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -7080,13 +7311,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="C66" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="D66" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -7104,13 +7335,13 @@
         <v>222</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L66" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N66" t="s">
         <v>36</v>
@@ -7122,19 +7353,16 @@
         <v>44</v>
       </c>
       <c r="Q66">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R66">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y66" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="AA66" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -7148,13 +7376,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -7196,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="AA67" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
@@ -7213,16 +7441,16 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -7237,25 +7465,37 @@
         <v>222</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="L68" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="M68" t="s">
-        <v>43</v>
+        <v>354</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68">
+        <v>14.49</v>
+      </c>
+      <c r="R68">
+        <v>2.42</v>
       </c>
       <c r="Y68" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Z68" t="s">
-        <v>93</v>
+        <v>356</v>
       </c>
       <c r="AA68" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7269,13 +7509,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7317,13 +7557,13 @@
         <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="Z69" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="AA69" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7337,13 +7577,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7361,13 +7601,13 @@
         <v>222</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M70" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -7379,16 +7619,16 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R70">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y70" t="s">
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="AA70" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7402,13 +7642,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7426,34 +7666,34 @@
         <v>222</v>
       </c>
       <c r="K71" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M71" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" t="s">
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R71">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y71" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA71" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7467,13 +7707,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7491,13 +7731,13 @@
         <v>222</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7509,19 +7749,16 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y72" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="AA72" t="s">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7535,13 +7772,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>394</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7559,13 +7796,13 @@
         <v>222</v>
       </c>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L73" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M73" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7577,22 +7814,22 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R73">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y73" t="s">
-        <v>245</v>
+        <v>397</v>
       </c>
       <c r="AA73" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
       </c>
       <c r="AD73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -7600,13 +7837,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7648,10 +7885,10 @@
         <v>5.83</v>
       </c>
       <c r="Y74" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="AA74" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7665,13 +7902,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7689,34 +7926,34 @@
         <v>222</v>
       </c>
       <c r="K75" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L75" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M75" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" t="s">
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>34.99</v>
+        <v>198</v>
       </c>
       <c r="R75">
-        <v>5.83</v>
+        <v>33</v>
       </c>
       <c r="Y75" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="AA75" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7730,13 +7967,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -7754,13 +7991,13 @@
         <v>222</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M76" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -7772,16 +8009,16 @@
         <v>44</v>
       </c>
       <c r="Q76">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R76">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y76" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="AA76" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -7795,16 +8032,16 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -7816,34 +8053,40 @@
         <v>39</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K77" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L77" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M77" t="s">
-        <v>91</v>
+        <v>54</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="s">
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>29.16</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R77">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y77" t="s">
-        <v>265</v>
+        <v>324</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>325</v>
       </c>
       <c r="AA77" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
@@ -7857,13 +8100,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -7878,16 +8121,16 @@
         <v>39</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K78" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M78" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -7899,16 +8142,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R78">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y78" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AA78" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -7922,13 +8165,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -7943,37 +8186,40 @@
         <v>39</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K79" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M79" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>69.98</v>
+        <v>99</v>
       </c>
       <c r="R79">
-        <v>11.66</v>
+        <v>16.5</v>
       </c>
       <c r="Y79" t="s">
-        <v>275</v>
+        <v>335</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>336</v>
       </c>
       <c r="AA79" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -7987,13 +8233,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -8008,16 +8254,16 @@
         <v>39</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K80" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L80" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M80" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -8029,16 +8275,19 @@
         <v>44</v>
       </c>
       <c r="Q80">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R80">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y80" t="s">
-        <v>280</v>
+        <v>296</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>297</v>
       </c>
       <c r="AA80" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -8052,13 +8301,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -8073,16 +8322,16 @@
         <v>39</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K81" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M81" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -8094,19 +8343,19 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R81">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y81" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="Z81" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="AA81" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -8120,13 +8369,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -8141,7 +8390,7 @@
         <v>39</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K82" t="s">
         <v>41</v>
@@ -8168,13 +8417,10 @@
         <v>4</v>
       </c>
       <c r="Y82" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="AA82" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -8188,16 +8434,16 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>341</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -8209,40 +8455,28 @@
         <v>39</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K83" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M83" t="s">
-        <v>54</v>
-      </c>
-      <c r="N83" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q83">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="R83">
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="Y83" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="Z83" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AA83" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8256,13 +8490,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8277,7 +8511,7 @@
         <v>39</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K84" t="s">
         <v>41</v>
@@ -8304,10 +8538,13 @@
         <v>4</v>
       </c>
       <c r="Y84" t="s">
-        <v>61</v>
+        <v>290</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>291</v>
       </c>
       <c r="AA84" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8321,13 +8558,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8342,7 +8579,7 @@
         <v>39</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K85" t="s">
         <v>41</v>
@@ -8369,10 +8606,10 @@
         <v>4</v>
       </c>
       <c r="Y85" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="AA85" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8386,13 +8623,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8407,16 +8644,16 @@
         <v>39</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K86" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L86" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M86" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8428,16 +8665,16 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R86">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y86" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AA86" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8451,13 +8688,13 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
@@ -8472,16 +8709,16 @@
         <v>39</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K87" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L87" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M87" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N87" t="s">
         <v>36</v>
@@ -8499,10 +8736,13 @@
         <v>4</v>
       </c>
       <c r="Y87" t="s">
-        <v>79</v>
+        <v>239</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>240</v>
       </c>
       <c r="AA87" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8516,13 +8756,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8537,16 +8777,16 @@
         <v>39</v>
       </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L88" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M88" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8564,10 +8804,10 @@
         <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="AA88" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8581,13 +8821,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8602,7 +8842,7 @@
         <v>39</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K89" t="s">
         <v>89</v>
@@ -8617,25 +8857,22 @@
         <v>36</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P89" t="s">
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R89">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y89" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AA89" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8649,13 +8886,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8670,7 +8907,7 @@
         <v>39</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K90" t="s">
         <v>89</v>
@@ -8697,10 +8934,10 @@
         <v>5.83</v>
       </c>
       <c r="Y90" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="AA90" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8714,13 +8951,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8735,7 +8972,7 @@
         <v>39</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K91" t="s">
         <v>41</v>
@@ -8762,13 +8999,10 @@
         <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="AA91" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -8782,16 +9016,16 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
@@ -8806,37 +9040,31 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L92" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M92" t="s">
-        <v>54</v>
-      </c>
-      <c r="N92" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="s">
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>79.989999999999995</v>
+        <v>29.16</v>
       </c>
       <c r="R92">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y92" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="AA92" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -8850,13 +9078,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -8874,13 +9102,13 @@
         <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L93" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M93" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N93" t="s">
         <v>36</v>
@@ -8892,19 +9120,16 @@
         <v>44</v>
       </c>
       <c r="Q93">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R93">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y93" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="AA93" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -8918,13 +9143,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8942,37 +9167,34 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M94" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" t="s">
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R94">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y94" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="AA94" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -8986,13 +9208,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -9010,13 +9232,13 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L95" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M95" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -9028,19 +9250,16 @@
         <v>44</v>
       </c>
       <c r="Q95">
-        <v>33.49</v>
+        <v>99</v>
       </c>
       <c r="R95">
-        <v>5.58</v>
+        <v>16.5</v>
       </c>
       <c r="Y95" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="AA95" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -9054,13 +9273,13 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
@@ -9078,13 +9297,13 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L96" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M96" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N96" t="s">
         <v>36</v>
@@ -9096,16 +9315,19 @@
         <v>44</v>
       </c>
       <c r="Q96">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R96">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y96" t="s">
-        <v>133</v>
+        <v>285</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>286</v>
       </c>
       <c r="AA96" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -9119,13 +9341,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
@@ -9143,34 +9365,37 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L97" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M97" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N97" t="s">
         <v>36</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P97" t="s">
         <v>44</v>
       </c>
       <c r="Q97">
-        <v>66.98</v>
+        <v>23.99</v>
       </c>
       <c r="R97">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Y97" t="s">
-        <v>138</v>
+        <v>45</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>46</v>
       </c>
       <c r="AA97" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -9184,13 +9409,13 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -9208,13 +9433,13 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L98" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M98" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
@@ -9226,19 +9451,19 @@
         <v>44</v>
       </c>
       <c r="Q98">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R98">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y98" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="Z98" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="AA98" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -9252,13 +9477,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -9276,13 +9501,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L99" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M99" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -9294,19 +9519,16 @@
         <v>44</v>
       </c>
       <c r="Q99">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R99">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y99" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="AA99" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -9320,13 +9542,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
@@ -9368,10 +9590,10 @@
         <v>4</v>
       </c>
       <c r="Y100" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="AA100" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -9385,13 +9607,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
@@ -9409,13 +9631,13 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L101" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M101" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N101" t="s">
         <v>36</v>
@@ -9427,22 +9649,22 @@
         <v>44</v>
       </c>
       <c r="Q101">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R101">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y101" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="AA101" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
       </c>
       <c r="AD101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG101" t="b">
         <v>0</v>
@@ -9450,13 +9672,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
@@ -9498,13 +9720,10 @@
         <v>4</v>
       </c>
       <c r="Y102" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AA102" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -9518,13 +9737,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
@@ -9542,13 +9761,13 @@
         <v>40</v>
       </c>
       <c r="K103" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L103" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="M103" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="N103" t="s">
         <v>36</v>
@@ -9560,16 +9779,16 @@
         <v>44</v>
       </c>
       <c r="Q103">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R103">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y103" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="AA103" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -9583,13 +9802,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -9619,22 +9838,25 @@
         <v>36</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" t="s">
         <v>44</v>
       </c>
       <c r="Q104">
-        <v>33.49</v>
+        <v>69.98</v>
       </c>
       <c r="R104">
-        <v>5.58</v>
+        <v>11.66</v>
       </c>
       <c r="Y104" t="s">
-        <v>181</v>
+        <v>92</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>93</v>
       </c>
       <c r="AA104" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -9648,13 +9870,13 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
         <v>36</v>
@@ -9690,19 +9912,16 @@
         <v>44</v>
       </c>
       <c r="Q105">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R105">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y105" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="AA105" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -9716,13 +9935,13 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
@@ -9740,13 +9959,13 @@
         <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L106" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M106" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N106" t="s">
         <v>36</v>
@@ -9758,19 +9977,19 @@
         <v>44</v>
       </c>
       <c r="Q106">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R106">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="Z106" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="AA106" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -9784,13 +10003,13 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="E107" t="s">
         <v>36</v>
@@ -9808,13 +10027,13 @@
         <v>40</v>
       </c>
       <c r="K107" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L107" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M107" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N107" t="s">
         <v>36</v>
@@ -9826,16 +10045,19 @@
         <v>44</v>
       </c>
       <c r="Q107">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R107">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y107" t="s">
-        <v>195</v>
+        <v>109</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>110</v>
       </c>
       <c r="AA107" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
@@ -9849,13 +10071,13 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
@@ -9873,13 +10095,13 @@
         <v>40</v>
       </c>
       <c r="K108" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L108" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M108" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N108" t="s">
         <v>36</v>
@@ -9891,16 +10113,19 @@
         <v>44</v>
       </c>
       <c r="Q108">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R108">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y108" t="s">
-        <v>200</v>
+        <v>115</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>116</v>
       </c>
       <c r="AA108" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
@@ -9914,13 +10139,13 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
@@ -9938,13 +10163,13 @@
         <v>40</v>
       </c>
       <c r="K109" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L109" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M109" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N109" t="s">
         <v>36</v>
@@ -9956,16 +10181,19 @@
         <v>44</v>
       </c>
       <c r="Q109">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R109">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y109" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>122</v>
       </c>
       <c r="AA109" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="AB109" t="s">
         <v>48</v>
@@ -9979,13 +10207,13 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
@@ -10003,13 +10231,13 @@
         <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L110" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M110" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N110" t="s">
         <v>36</v>
@@ -10021,16 +10249,19 @@
         <v>44</v>
       </c>
       <c r="Q110">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R110">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y110" t="s">
-        <v>210</v>
+        <v>127</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>128</v>
       </c>
       <c r="AA110" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="AB110" t="s">
         <v>48</v>
@@ -10044,13 +10275,13 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -10068,13 +10299,13 @@
         <v>40</v>
       </c>
       <c r="K111" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L111" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M111" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N111" t="s">
         <v>36</v>
@@ -10086,16 +10317,16 @@
         <v>44</v>
       </c>
       <c r="Q111">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R111">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y111" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="AA111" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="AB111" t="s">
         <v>48</v>
@@ -10109,61 +10340,61 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>401</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="E112" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H112" t="s">
         <v>39</v>
       </c>
       <c r="J112" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K112" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="L112" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M112" t="s">
-        <v>406</v>
+        <v>91</v>
+      </c>
+      <c r="N112" t="s">
+        <v>36</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Q112">
-        <v>84.72</v>
+        <v>66.98</v>
       </c>
       <c r="R112">
-        <v>18.64</v>
+        <v>2.8</v>
       </c>
       <c r="Y112" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA112">
-        <v>21100</v>
+        <v>138</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>139</v>
       </c>
       <c r="AB112" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="AD112" t="b">
         <v>0</v>
@@ -10174,66 +10405,1056 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113" t="s">
+        <v>143</v>
+      </c>
+      <c r="L113" t="s">
+        <v>144</v>
+      </c>
+      <c r="M113" t="s">
+        <v>145</v>
+      </c>
+      <c r="N113" t="s">
+        <v>36</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q113">
+        <v>99</v>
+      </c>
+      <c r="R113">
+        <v>16.5</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114" t="s">
+        <v>89</v>
+      </c>
+      <c r="L114" t="s">
+        <v>90</v>
+      </c>
+      <c r="M114" t="s">
+        <v>91</v>
+      </c>
+      <c r="N114" t="s">
+        <v>36</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q114">
+        <v>33.49</v>
+      </c>
+      <c r="R114">
+        <v>5.58</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" t="s">
+        <v>39</v>
+      </c>
+      <c r="J115" t="s">
+        <v>40</v>
+      </c>
+      <c r="K115" t="s">
+        <v>41</v>
+      </c>
+      <c r="L115" t="s">
+        <v>42</v>
+      </c>
+      <c r="M115" t="s">
+        <v>43</v>
+      </c>
+      <c r="N115" t="s">
+        <v>36</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q115">
+        <v>23.99</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s">
+        <v>39</v>
+      </c>
+      <c r="J116" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L116" t="s">
+        <v>53</v>
+      </c>
+      <c r="M116" t="s">
+        <v>54</v>
+      </c>
+      <c r="N116" t="s">
+        <v>36</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q116">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="R116">
+        <v>13.33</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD116" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
+      <c r="H117" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" t="s">
+        <v>76</v>
+      </c>
+      <c r="L117" t="s">
+        <v>77</v>
+      </c>
+      <c r="M117" t="s">
+        <v>78</v>
+      </c>
+      <c r="N117" t="s">
+        <v>36</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q117">
+        <v>23.99</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" t="s">
+        <v>39</v>
+      </c>
+      <c r="J118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118" t="s">
+        <v>173</v>
+      </c>
+      <c r="L118" t="s">
+        <v>174</v>
+      </c>
+      <c r="M118" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" t="s">
+        <v>36</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q118">
+        <v>33.49</v>
+      </c>
+      <c r="R118">
+        <v>5.58</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J119" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" t="s">
+        <v>89</v>
+      </c>
+      <c r="L119" t="s">
+        <v>90</v>
+      </c>
+      <c r="M119" t="s">
+        <v>91</v>
+      </c>
+      <c r="N119" t="s">
+        <v>36</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q119">
+        <v>33.49</v>
+      </c>
+      <c r="R119">
+        <v>5.58</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" t="s">
+        <v>39</v>
+      </c>
+      <c r="J120" t="s">
+        <v>40</v>
+      </c>
+      <c r="K120" t="s">
+        <v>89</v>
+      </c>
+      <c r="L120" t="s">
+        <v>90</v>
+      </c>
+      <c r="M120" t="s">
+        <v>91</v>
+      </c>
+      <c r="N120" t="s">
+        <v>36</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q120">
+        <v>33.49</v>
+      </c>
+      <c r="R120">
+        <v>5.58</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" t="s">
+        <v>191</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" t="s">
+        <v>39</v>
+      </c>
+      <c r="J121" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121" t="s">
+        <v>89</v>
+      </c>
+      <c r="L121" t="s">
+        <v>90</v>
+      </c>
+      <c r="M121" t="s">
+        <v>91</v>
+      </c>
+      <c r="N121" t="s">
+        <v>36</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q121">
+        <v>33.49</v>
+      </c>
+      <c r="R121">
+        <v>5.58</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>193</v>
+      </c>
+      <c r="D122" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122" t="s">
+        <v>39</v>
+      </c>
+      <c r="J122" t="s">
+        <v>40</v>
+      </c>
+      <c r="K122" t="s">
+        <v>41</v>
+      </c>
+      <c r="L122" t="s">
+        <v>42</v>
+      </c>
+      <c r="M122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N122" t="s">
+        <v>36</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q122">
+        <v>23.99</v>
+      </c>
+      <c r="R122">
+        <v>4</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" t="s">
+        <v>39</v>
+      </c>
+      <c r="J123" t="s">
+        <v>40</v>
+      </c>
+      <c r="K123" t="s">
+        <v>143</v>
+      </c>
+      <c r="L123" t="s">
+        <v>144</v>
+      </c>
+      <c r="M123" t="s">
+        <v>145</v>
+      </c>
+      <c r="N123" t="s">
+        <v>36</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q123">
+        <v>99</v>
+      </c>
+      <c r="R123">
+        <v>16.5</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" t="s">
+        <v>39</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124" t="s">
+        <v>41</v>
+      </c>
+      <c r="L124" t="s">
+        <v>42</v>
+      </c>
+      <c r="M124" t="s">
+        <v>43</v>
+      </c>
+      <c r="N124" t="s">
+        <v>36</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q124">
+        <v>23.99</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G125" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125" t="s">
+        <v>39</v>
+      </c>
+      <c r="J125" t="s">
+        <v>40</v>
+      </c>
+      <c r="K125" t="s">
+        <v>41</v>
+      </c>
+      <c r="L125" t="s">
+        <v>42</v>
+      </c>
+      <c r="M125" t="s">
+        <v>43</v>
+      </c>
+      <c r="N125" t="s">
+        <v>36</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q125">
+        <v>23.99</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+      <c r="H126" t="s">
+        <v>39</v>
+      </c>
+      <c r="J126" t="s">
+        <v>40</v>
+      </c>
+      <c r="K126" t="s">
+        <v>76</v>
+      </c>
+      <c r="L126" t="s">
+        <v>77</v>
+      </c>
+      <c r="M126" t="s">
+        <v>78</v>
+      </c>
+      <c r="N126" t="s">
+        <v>36</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q126">
+        <v>23.99</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>401</v>
+      </c>
+      <c r="C127" t="s">
+        <v>402</v>
+      </c>
+      <c r="D127" t="s">
+        <v>403</v>
+      </c>
+      <c r="E127" t="s">
+        <v>220</v>
+      </c>
+      <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>221</v>
+      </c>
+      <c r="H127" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" t="s">
+        <v>222</v>
+      </c>
+      <c r="K127" t="s">
+        <v>404</v>
+      </c>
+      <c r="L127" t="s">
+        <v>405</v>
+      </c>
+      <c r="M127" t="s">
+        <v>406</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q127">
+        <v>84.72</v>
+      </c>
+      <c r="R127">
+        <v>18.64</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA127">
+        <v>21100</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>217</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C128" t="s">
         <v>218</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D128" t="s">
         <v>219</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E128" t="s">
         <v>220</v>
       </c>
-      <c r="F113" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
         <v>221</v>
       </c>
-      <c r="H113" t="s">
-        <v>39</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="J128" t="s">
         <v>222</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K128" t="s">
         <v>223</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L128" t="s">
         <v>90</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M128" t="s">
         <v>91</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="s">
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" t="s">
         <v>224</v>
       </c>
-      <c r="Q113">
+      <c r="Q128">
         <v>31.46</v>
       </c>
-      <c r="R113">
+      <c r="R128">
         <v>6.92</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="Y128" t="s">
         <v>225</v>
       </c>
-      <c r="Z113" t="s">
+      <c r="Z128" t="s">
         <v>226</v>
       </c>
-      <c r="AA113">
+      <c r="AA128">
         <v>20861</v>
       </c>
-      <c r="AB113" t="s">
+      <c r="AB128" t="s">
         <v>227</v>
       </c>
-      <c r="AD113" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="b">
+      <c r="AD128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Raw Sales Data/Amazon.xlsx
+++ b/Raw Sales Data/Amazon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="748">
   <si>
     <t>amazon-order-id</t>
   </si>
@@ -2200,6 +2200,69 @@
   </si>
   <si>
     <t>OX143DE</t>
+  </si>
+  <si>
+    <t>202-3974614-6094705</t>
+  </si>
+  <si>
+    <t>2025-10-06T19:25:05+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-07T05:59:48+00:00</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Aberdeenshire</t>
+  </si>
+  <si>
+    <t>AB16 7AQ</t>
+  </si>
+  <si>
+    <t>205-2722011-7064312</t>
+  </si>
+  <si>
+    <t>2025-10-06T12:59:48+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-06T13:30:21+00:00</t>
+  </si>
+  <si>
+    <t>Welling</t>
+  </si>
+  <si>
+    <t>DA16 2PT</t>
+  </si>
+  <si>
+    <t>206-6191259-3920336</t>
+  </si>
+  <si>
+    <t>2025-10-06T11:32:26+00:00</t>
+  </si>
+  <si>
+    <t>CHATHAM</t>
+  </si>
+  <si>
+    <t>ME4 5RA</t>
+  </si>
+  <si>
+    <t>204-9964928-3281946</t>
+  </si>
+  <si>
+    <t>2025-10-06T10:03:35+00:00</t>
+  </si>
+  <si>
+    <t>2025-10-06T11:33:44+00:00</t>
+  </si>
+  <si>
+    <t>NEW ROMNEY</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>TN28 8XP</t>
   </si>
 </sst>
 </file>
@@ -3006,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG128"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,16 +3184,16 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -3145,16 +3208,16 @@
         <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -3163,16 +3226,19 @@
         <v>44</v>
       </c>
       <c r="Q2">
-        <v>23.99</v>
+        <v>36.99</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>6.17</v>
       </c>
       <c r="Y2" t="s">
-        <v>653</v>
+        <v>730</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>731</v>
       </c>
       <c r="AA2" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="AB2" t="s">
         <v>48</v>
@@ -3186,13 +3252,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="C3" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="E3" t="s">
         <v>346</v>
@@ -3210,13 +3276,13 @@
         <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
         <v>347</v>
@@ -3228,16 +3294,19 @@
         <v>44</v>
       </c>
       <c r="Q3">
-        <v>94.99</v>
+        <v>99.99</v>
       </c>
       <c r="R3">
-        <v>15.83</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="Y3" t="s">
-        <v>658</v>
+        <v>736</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>516</v>
       </c>
       <c r="AA3" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="AB3" t="s">
         <v>48</v>
@@ -3251,16 +3320,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="C4" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>729</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -3272,7 +3341,7 @@
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
         <v>173</v>
@@ -3284,7 +3353,7 @@
         <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -3299,10 +3368,10 @@
         <v>5.83</v>
       </c>
       <c r="Y4" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="AA4" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -3316,16 +3385,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="D5" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -3337,19 +3406,19 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3358,16 +3427,19 @@
         <v>44</v>
       </c>
       <c r="Q5">
-        <v>79.989999999999995</v>
+        <v>36.99</v>
       </c>
       <c r="R5">
-        <v>13.33</v>
+        <v>6.17</v>
       </c>
       <c r="Y5" t="s">
-        <v>668</v>
+        <v>745</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>746</v>
       </c>
       <c r="AA5" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -3381,16 +3453,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -3405,16 +3477,16 @@
         <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3423,19 +3495,16 @@
         <v>44</v>
       </c>
       <c r="Q6">
-        <v>94.99</v>
+        <v>23.99</v>
       </c>
       <c r="R6">
-        <v>15.83</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>673</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="AA6" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -3449,16 +3518,16 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -3473,16 +3542,16 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -3491,19 +3560,16 @@
         <v>44</v>
       </c>
       <c r="Q7">
-        <v>36.99</v>
+        <v>94.99</v>
       </c>
       <c r="R7">
-        <v>6.17</v>
+        <v>15.83</v>
       </c>
       <c r="Y7" t="s">
-        <v>679</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="AA7" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -3517,16 +3583,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="C8" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="D8" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -3541,16 +3607,16 @@
         <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -3559,16 +3625,16 @@
         <v>44</v>
       </c>
       <c r="Q8">
-        <v>94.99</v>
+        <v>34.99</v>
       </c>
       <c r="R8">
-        <v>15.83</v>
+        <v>5.83</v>
       </c>
       <c r="Y8" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="AA8" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="AB8" t="s">
         <v>48</v>
@@ -3582,16 +3648,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="C9" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -3606,16 +3672,16 @@
         <v>222</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3624,16 +3690,16 @@
         <v>44</v>
       </c>
       <c r="Q9">
-        <v>34.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R9">
-        <v>5.83</v>
+        <v>13.33</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>668</v>
       </c>
       <c r="AA9" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="AB9" t="s">
         <v>48</v>
@@ -3647,13 +3713,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -3671,13 +3737,13 @@
         <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -3689,16 +3755,19 @@
         <v>44</v>
       </c>
       <c r="Q10">
-        <v>34.99</v>
+        <v>94.99</v>
       </c>
       <c r="R10">
-        <v>5.83</v>
+        <v>15.83</v>
       </c>
       <c r="Y10" t="s">
-        <v>694</v>
+        <v>673</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>674</v>
       </c>
       <c r="AA10" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -3712,13 +3781,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="C11" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -3736,13 +3805,13 @@
         <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>424</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
         <v>36</v>
@@ -3754,16 +3823,19 @@
         <v>44</v>
       </c>
       <c r="Q11">
-        <v>94.99</v>
+        <v>36.99</v>
       </c>
       <c r="R11">
-        <v>15.83</v>
+        <v>6.17</v>
       </c>
       <c r="Y11" t="s">
-        <v>699</v>
+        <v>679</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>680</v>
       </c>
       <c r="AA11" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -3777,13 +3849,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C12" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -3801,13 +3873,13 @@
         <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L12" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M12" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -3819,16 +3891,16 @@
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>34.99</v>
+        <v>94.99</v>
       </c>
       <c r="R12">
-        <v>5.83</v>
+        <v>15.83</v>
       </c>
       <c r="Y12" t="s">
-        <v>619</v>
+        <v>685</v>
       </c>
       <c r="AA12" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -3842,13 +3914,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C13" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="D13" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -3878,25 +3950,22 @@
         <v>36</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
       <c r="Q13">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R13">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y13" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>708</v>
+        <v>121</v>
       </c>
       <c r="AA13" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -3910,13 +3979,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="C14" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="D14" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3934,34 +4003,34 @@
         <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
       </c>
       <c r="Q14">
-        <v>199.98</v>
+        <v>34.99</v>
       </c>
       <c r="R14">
-        <v>33.340000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="Y14" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="AA14" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -3975,13 +4044,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C15" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="D15" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -3999,13 +4068,13 @@
         <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M15" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -4017,19 +4086,16 @@
         <v>44</v>
       </c>
       <c r="Q15">
-        <v>34.99</v>
+        <v>94.99</v>
       </c>
       <c r="R15">
-        <v>5.83</v>
+        <v>15.83</v>
       </c>
       <c r="Y15" t="s">
-        <v>718</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="AA15" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -4043,13 +4109,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="C16" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="D16" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -4067,13 +4133,13 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -4085,19 +4151,16 @@
         <v>44</v>
       </c>
       <c r="Q16">
-        <v>107.99</v>
+        <v>34.99</v>
       </c>
       <c r="R16">
-        <v>18</v>
+        <v>5.83</v>
       </c>
       <c r="Y16" t="s">
-        <v>724</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>725</v>
+        <v>619</v>
       </c>
       <c r="AA16" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -4111,16 +4174,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>639</v>
+        <v>705</v>
       </c>
       <c r="C17" t="s">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="D17" t="s">
-        <v>641</v>
+        <v>707</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -4144,28 +4207,28 @@
         <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
       </c>
       <c r="Q17">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="R17">
-        <v>5.83</v>
+        <v>11.66</v>
       </c>
       <c r="Y17" t="s">
-        <v>642</v>
+        <v>239</v>
       </c>
       <c r="Z17" t="s">
-        <v>643</v>
+        <v>708</v>
       </c>
       <c r="AA17" t="s">
-        <v>644</v>
+        <v>709</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -4179,16 +4242,16 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="C18" t="s">
-        <v>646</v>
+        <v>711</v>
       </c>
       <c r="D18" t="s">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="E18" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -4203,37 +4266,34 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
       </c>
       <c r="Q18">
-        <v>23.99</v>
+        <v>199.98</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="Y18" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>286</v>
+        <v>713</v>
       </c>
       <c r="AA18" t="s">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -4247,13 +4307,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="D19" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -4271,13 +4331,13 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
@@ -4289,19 +4349,19 @@
         <v>44</v>
       </c>
       <c r="Q19">
-        <v>107.99</v>
+        <v>34.99</v>
       </c>
       <c r="R19">
-        <v>18</v>
+        <v>5.83</v>
       </c>
       <c r="Y19" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
       <c r="Z19" t="s">
-        <v>619</v>
+        <v>719</v>
       </c>
       <c r="AA19" t="s">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -4315,13 +4375,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>722</v>
       </c>
       <c r="D20" t="s">
-        <v>623</v>
+        <v>723</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -4363,10 +4423,13 @@
         <v>18</v>
       </c>
       <c r="Y20" t="s">
-        <v>624</v>
+        <v>724</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>725</v>
       </c>
       <c r="AA20" t="s">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -4380,16 +4443,16 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="D21" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -4404,16 +4467,16 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>629</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>630</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s">
-        <v>631</v>
+        <v>175</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -4422,16 +4485,19 @@
         <v>44</v>
       </c>
       <c r="Q21">
-        <v>12.99</v>
+        <v>34.99</v>
       </c>
       <c r="R21">
-        <v>2.17</v>
+        <v>5.83</v>
       </c>
       <c r="Y21" t="s">
-        <v>632</v>
+        <v>642</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>643</v>
       </c>
       <c r="AA21" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -4445,16 +4511,16 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C22" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="D22" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -4469,16 +4535,16 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4487,16 +4553,19 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <v>107.99</v>
+        <v>23.99</v>
       </c>
       <c r="R22">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="s">
-        <v>637</v>
+        <v>648</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>286</v>
       </c>
       <c r="AA22" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -4510,16 +4579,16 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C23" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="D23" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -4534,16 +4603,16 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -4552,16 +4621,19 @@
         <v>44</v>
       </c>
       <c r="Q23">
-        <v>34.99</v>
+        <v>107.99</v>
       </c>
       <c r="R23">
-        <v>5.83</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="s">
-        <v>591</v>
+        <v>618</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>619</v>
       </c>
       <c r="AA23" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -4575,16 +4647,16 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="C24" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="D24" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -4599,22 +4671,34 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>145</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <v>107.99</v>
+      </c>
+      <c r="R24">
+        <v>18</v>
       </c>
       <c r="Y24" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="AA24" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -4628,16 +4712,16 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C25" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="D25" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>37</v>
@@ -4652,22 +4736,34 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>630</v>
       </c>
       <c r="M25" t="s">
-        <v>175</v>
+        <v>631</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25">
+        <v>12.99</v>
+      </c>
+      <c r="R25">
+        <v>2.17</v>
       </c>
       <c r="Y25" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="AA25" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -4681,16 +4777,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="C26" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="D26" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -4714,7 +4810,7 @@
         <v>145</v>
       </c>
       <c r="N26" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -4729,10 +4825,10 @@
         <v>18</v>
       </c>
       <c r="Y26" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="AA26" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -4746,16 +4842,16 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C27" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D27" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -4779,25 +4875,25 @@
         <v>175</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
         <v>44</v>
       </c>
       <c r="Q27">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R27">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y27" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="AA27" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -4811,16 +4907,16 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="C28" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="D28" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -4835,37 +4931,22 @@
         <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28">
-        <v>36.99</v>
-      </c>
-      <c r="R28">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>297</v>
+        <v>596</v>
       </c>
       <c r="AA28" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4879,16 +4960,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="D29" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E29" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -4903,34 +4984,22 @@
         <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" t="s">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29">
-        <v>23.99</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="AA29" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -4944,16 +5013,16 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="C30" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="D30" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -4968,34 +5037,34 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>69.98</v>
+        <v>107.99</v>
       </c>
       <c r="R30">
-        <v>11.66</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="AA30" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -5009,13 +5078,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D31" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -5033,34 +5102,34 @@
         <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
         <v>44</v>
       </c>
       <c r="Q31">
-        <v>36.99</v>
+        <v>69.98</v>
       </c>
       <c r="R31">
-        <v>6.17</v>
+        <v>11.66</v>
       </c>
       <c r="Y31" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="AA31" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -5074,13 +5143,13 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="C32" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="D32" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -5098,13 +5167,13 @@
         <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -5116,16 +5185,19 @@
         <v>44</v>
       </c>
       <c r="Q32">
-        <v>99</v>
+        <v>36.99</v>
       </c>
       <c r="R32">
-        <v>16.5</v>
+        <v>6.17</v>
       </c>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>297</v>
       </c>
       <c r="AA32" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -5139,13 +5211,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="C33" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D33" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E33" t="s">
         <v>346</v>
@@ -5163,37 +5235,34 @@
         <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
         <v>347</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" t="s">
         <v>44</v>
       </c>
       <c r="Q33">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R33">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="AA33" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -5207,16 +5276,16 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="C34" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D34" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -5240,7 +5309,7 @@
         <v>175</v>
       </c>
       <c r="N34" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -5249,16 +5318,16 @@
         <v>44</v>
       </c>
       <c r="Q34">
-        <v>66.98</v>
+        <v>69.98</v>
       </c>
       <c r="R34">
-        <v>11.16</v>
+        <v>11.66</v>
       </c>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="AA34" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -5272,13 +5341,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="C35" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D35" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -5296,34 +5365,34 @@
         <v>222</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>44</v>
       </c>
       <c r="Q35">
-        <v>66.98</v>
+        <v>36.99</v>
       </c>
       <c r="R35">
-        <v>11.16</v>
+        <v>6.17</v>
       </c>
       <c r="Y35" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AA35" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -5337,16 +5406,16 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="C36" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -5370,7 +5439,7 @@
         <v>145</v>
       </c>
       <c r="N36" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -5385,10 +5454,10 @@
         <v>16.5</v>
       </c>
       <c r="Y36" t="s">
-        <v>548</v>
+        <v>250</v>
       </c>
       <c r="AA36" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -5402,13 +5471,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E37" t="s">
         <v>346</v>
@@ -5426,34 +5495,37 @@
         <v>222</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
         <v>347</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>69.98</v>
       </c>
       <c r="R37">
-        <v>16.5</v>
+        <v>11.66</v>
       </c>
       <c r="Y37" t="s">
-        <v>553</v>
+        <v>558</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>187</v>
       </c>
       <c r="AA37" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -5467,13 +5539,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C38" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D38" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="E38" t="s">
         <v>346</v>
@@ -5491,37 +5563,34 @@
         <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N38" t="s">
         <v>347</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38">
-        <v>99</v>
+        <v>66.98</v>
       </c>
       <c r="R38">
-        <v>16.5</v>
+        <v>11.16</v>
       </c>
       <c r="Y38" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>527</v>
+        <v>250</v>
       </c>
       <c r="AA38" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -5535,16 +5604,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C39" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -5568,28 +5637,25 @@
         <v>175</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39">
-        <v>33.49</v>
+        <v>66.98</v>
       </c>
       <c r="R39">
-        <v>5.58</v>
+        <v>11.16</v>
       </c>
       <c r="Y39" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="AA39" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -5603,16 +5669,16 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C40" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D40" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -5636,7 +5702,7 @@
         <v>145</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -5651,10 +5717,10 @@
         <v>16.5</v>
       </c>
       <c r="Y40" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AA40" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -5668,16 +5734,16 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D41" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
@@ -5692,16 +5758,16 @@
         <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -5710,16 +5776,16 @@
         <v>44</v>
       </c>
       <c r="Q41">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y41" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AA41" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -5733,16 +5799,16 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D42" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -5757,16 +5823,16 @@
         <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -5775,16 +5841,19 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R42">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y42" t="s">
-        <v>489</v>
+        <v>526</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>527</v>
       </c>
       <c r="AA42" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -5798,16 +5867,16 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C43" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="D43" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -5831,7 +5900,7 @@
         <v>175</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -5846,10 +5915,13 @@
         <v>5.58</v>
       </c>
       <c r="Y43" t="s">
-        <v>494</v>
+        <v>532</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>533</v>
       </c>
       <c r="AA43" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -5863,13 +5935,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="C44" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="D44" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -5887,13 +5959,13 @@
         <v>222</v>
       </c>
       <c r="K44" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
         <v>36</v>
@@ -5905,16 +5977,16 @@
         <v>44</v>
       </c>
       <c r="Q44">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R44">
-        <v>14.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y44" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AA44" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -5928,13 +6000,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C45" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D45" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -5952,37 +6024,34 @@
         <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
         <v>44</v>
       </c>
       <c r="Q45">
-        <v>66.98</v>
+        <v>34.99</v>
       </c>
       <c r="R45">
-        <v>11.16</v>
+        <v>5.83</v>
       </c>
       <c r="Y45" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>93</v>
+        <v>543</v>
       </c>
       <c r="AA45" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5996,13 +6065,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -6020,13 +6089,13 @@
         <v>222</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M46" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -6038,19 +6107,16 @@
         <v>44</v>
       </c>
       <c r="Q46">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R46">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y46" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="AA46" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -6064,13 +6130,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C47" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D47" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -6112,13 +6178,10 @@
         <v>5.58</v>
       </c>
       <c r="Y47" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="AA47" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -6132,13 +6195,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D48" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -6156,13 +6219,13 @@
         <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="N48" t="s">
         <v>36</v>
@@ -6174,16 +6237,16 @@
         <v>44</v>
       </c>
       <c r="Q48">
-        <v>33.49</v>
+        <v>89</v>
       </c>
       <c r="R48">
-        <v>5.58</v>
+        <v>14.83</v>
       </c>
       <c r="Y48" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="AA48" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -6197,16 +6260,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C49" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D49" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E49" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
@@ -6221,34 +6284,37 @@
         <v>222</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M49" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" t="s">
         <v>44</v>
       </c>
       <c r="Q49">
-        <v>34.99</v>
+        <v>66.98</v>
       </c>
       <c r="R49">
-        <v>5.83</v>
+        <v>11.16</v>
       </c>
       <c r="Y49" t="s">
-        <v>480</v>
+        <v>504</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>93</v>
       </c>
       <c r="AA49" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -6262,13 +6328,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C50" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D50" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -6283,16 +6349,16 @@
         <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M50" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -6304,16 +6370,19 @@
         <v>44</v>
       </c>
       <c r="Q50">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="R50">
-        <v>5.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y50" t="s">
-        <v>98</v>
+        <v>509</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>510</v>
       </c>
       <c r="AA50" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -6327,16 +6396,16 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="D51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -6348,19 +6417,19 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M51" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N51" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -6369,16 +6438,19 @@
         <v>44</v>
       </c>
       <c r="Q51">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R51">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y51" t="s">
-        <v>465</v>
+        <v>515</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>516</v>
       </c>
       <c r="AA51" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -6392,16 +6464,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="D52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="E52" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -6413,19 +6485,19 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -6434,16 +6506,16 @@
         <v>44</v>
       </c>
       <c r="Q52">
-        <v>99</v>
+        <v>33.49</v>
       </c>
       <c r="R52">
-        <v>16.5</v>
+        <v>5.58</v>
       </c>
       <c r="Y52" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="AA52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -6457,16 +6529,16 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D53" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -6478,19 +6550,19 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N53" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -6499,16 +6571,16 @@
         <v>44</v>
       </c>
       <c r="Q53">
-        <v>33.49</v>
+        <v>34.99</v>
       </c>
       <c r="R53">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y53" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AA53" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -6522,16 +6594,16 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D54" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E54" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
         <v>37</v>
@@ -6546,16 +6618,16 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N54" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -6564,16 +6636,16 @@
         <v>44</v>
       </c>
       <c r="Q54">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R54">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y54" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="AA54" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -6587,13 +6659,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D55" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E55" t="s">
         <v>346</v>
@@ -6623,28 +6695,28 @@
         <v>347</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" t="s">
         <v>44</v>
       </c>
       <c r="Q55">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="R55">
-        <v>29.66</v>
+        <v>14.83</v>
       </c>
       <c r="Y55" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AA55" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
       </c>
       <c r="AD55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="b">
         <v>0</v>
@@ -6652,16 +6724,16 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C56" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6676,16 +6748,16 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N56" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -6694,16 +6766,16 @@
         <v>44</v>
       </c>
       <c r="Q56">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R56">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y56" t="s">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AA56" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -6717,16 +6789,16 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="E57" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
@@ -6750,7 +6822,7 @@
         <v>175</v>
       </c>
       <c r="N57" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -6765,10 +6837,10 @@
         <v>5.58</v>
       </c>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="AA57" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -6782,13 +6854,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D58" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="E58" t="s">
         <v>346</v>
@@ -6806,13 +6878,13 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
         <v>347</v>
@@ -6824,19 +6896,16 @@
         <v>44</v>
       </c>
       <c r="Q58">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R58">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="AA58" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -6850,13 +6919,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C59" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="E59" t="s">
         <v>346</v>
@@ -6874,40 +6943,40 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s">
         <v>347</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P59" t="s">
         <v>44</v>
       </c>
       <c r="Q59">
-        <v>104.97</v>
+        <v>178</v>
       </c>
       <c r="R59">
-        <v>17.489999999999998</v>
+        <v>29.66</v>
       </c>
       <c r="Y59" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="AA59" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
       </c>
       <c r="AD59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" t="b">
         <v>0</v>
@@ -6915,16 +6984,16 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E60" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -6948,7 +7017,7 @@
         <v>78</v>
       </c>
       <c r="N60" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -6959,11 +7028,14 @@
       <c r="Q60">
         <v>23.99</v>
       </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
       <c r="Y60" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="AA60" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -6977,16 +7049,16 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D61" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -7001,16 +7073,16 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="M61" t="s">
-        <v>406</v>
+        <v>175</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -7019,19 +7091,16 @@
         <v>44</v>
       </c>
       <c r="Q61">
-        <v>89</v>
+        <v>33.49</v>
       </c>
       <c r="R61">
-        <v>14.83</v>
+        <v>5.58</v>
       </c>
       <c r="Y61" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="AA61" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -7045,16 +7114,16 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D62" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -7069,16 +7138,16 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N62" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -7087,16 +7156,19 @@
         <v>44</v>
       </c>
       <c r="Q62">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R62">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y62" t="s">
-        <v>417</v>
+        <v>439</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>438</v>
       </c>
       <c r="AA62" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -7110,16 +7182,16 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -7134,46 +7206,40 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N63" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>44</v>
       </c>
       <c r="Q63">
-        <v>23.99</v>
+        <v>104.97</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="Y63" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AA63" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AB63" t="s">
         <v>48</v>
       </c>
       <c r="AD63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="b">
         <v>0</v>
@@ -7181,13 +7247,13 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E64" t="s">
         <v>346</v>
@@ -7202,16 +7268,16 @@
         <v>39</v>
       </c>
       <c r="J64" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M64" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N64" t="s">
         <v>347</v>
@@ -7223,16 +7289,13 @@
         <v>44</v>
       </c>
       <c r="Q64">
-        <v>34.99</v>
-      </c>
-      <c r="R64">
-        <v>5.83</v>
+        <v>23.99</v>
       </c>
       <c r="Y64" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AA64" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="AB64" t="s">
         <v>48</v>
@@ -7246,13 +7309,13 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
@@ -7267,16 +7330,16 @@
         <v>39</v>
       </c>
       <c r="J65" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="N65" t="s">
         <v>36</v>
@@ -7288,16 +7351,19 @@
         <v>44</v>
       </c>
       <c r="Q65">
-        <v>34.99</v>
+        <v>89</v>
       </c>
       <c r="R65">
-        <v>5.83</v>
+        <v>14.83</v>
       </c>
       <c r="Y65" t="s">
-        <v>371</v>
+        <v>423</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>422</v>
       </c>
       <c r="AA65" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="AB65" t="s">
         <v>48</v>
@@ -7311,13 +7377,13 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C66" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
@@ -7332,7 +7398,7 @@
         <v>39</v>
       </c>
       <c r="J66" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K66" t="s">
         <v>89</v>
@@ -7359,10 +7425,10 @@
         <v>5.83</v>
       </c>
       <c r="Y66" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="AA66" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="AB66" t="s">
         <v>48</v>
@@ -7376,13 +7442,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
@@ -7397,16 +7463,16 @@
         <v>39</v>
       </c>
       <c r="J67" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M67" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N67" t="s">
         <v>36</v>
@@ -7424,16 +7490,22 @@
         <v>4</v>
       </c>
       <c r="Y67" t="s">
-        <v>381</v>
+        <v>412</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>411</v>
       </c>
       <c r="AA67" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="AB67" t="s">
         <v>48</v>
       </c>
       <c r="AD67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>409</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -7441,16 +7513,16 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D68" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -7465,16 +7537,16 @@
         <v>222</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -7483,19 +7555,16 @@
         <v>44</v>
       </c>
       <c r="Q68">
-        <v>14.49</v>
+        <v>34.99</v>
       </c>
       <c r="R68">
-        <v>2.42</v>
+        <v>5.83</v>
       </c>
       <c r="Y68" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA68" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AB68" t="s">
         <v>48</v>
@@ -7509,13 +7578,13 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
@@ -7533,13 +7602,13 @@
         <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -7551,19 +7620,16 @@
         <v>44</v>
       </c>
       <c r="Q69">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y69" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="AA69" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB69" t="s">
         <v>48</v>
@@ -7577,13 +7643,13 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C70" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
@@ -7601,13 +7667,13 @@
         <v>222</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -7619,16 +7685,16 @@
         <v>44</v>
       </c>
       <c r="Q70">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R70">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y70" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AA70" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="AB70" t="s">
         <v>48</v>
@@ -7642,13 +7708,13 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D71" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -7666,34 +7732,34 @@
         <v>222</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" t="s">
         <v>44</v>
       </c>
       <c r="Q71">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R71">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y71" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="AA71" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB71" t="s">
         <v>48</v>
@@ -7707,13 +7773,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C72" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D72" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
@@ -7731,13 +7797,13 @@
         <v>222</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="M72" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -7749,16 +7815,19 @@
         <v>44</v>
       </c>
       <c r="Q72">
-        <v>34.99</v>
+        <v>14.49</v>
       </c>
       <c r="R72">
-        <v>5.83</v>
+        <v>2.42</v>
       </c>
       <c r="Y72" t="s">
-        <v>392</v>
+        <v>355</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>356</v>
       </c>
       <c r="AA72" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AB72" t="s">
         <v>48</v>
@@ -7772,13 +7841,13 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C73" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D73" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
@@ -7796,13 +7865,13 @@
         <v>222</v>
       </c>
       <c r="K73" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L73" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M73" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -7814,22 +7883,25 @@
         <v>44</v>
       </c>
       <c r="Q73">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R73">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y73" t="s">
-        <v>397</v>
+        <v>360</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>93</v>
       </c>
       <c r="AA73" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="AB73" t="s">
         <v>48</v>
       </c>
       <c r="AD73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -7837,13 +7909,13 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="E74" t="s">
         <v>36</v>
@@ -7861,13 +7933,13 @@
         <v>222</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L74" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M74" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -7879,16 +7951,16 @@
         <v>44</v>
       </c>
       <c r="Q74">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R74">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y74" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="AA74" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="AB74" t="s">
         <v>48</v>
@@ -7902,13 +7974,13 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -7926,13 +7998,13 @@
         <v>222</v>
       </c>
       <c r="K75" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L75" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -7944,16 +8016,16 @@
         <v>44</v>
       </c>
       <c r="Q75">
-        <v>198</v>
+        <v>69.98</v>
       </c>
       <c r="R75">
-        <v>33</v>
+        <v>11.66</v>
       </c>
       <c r="Y75" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="AB75" t="s">
         <v>48</v>
@@ -7967,13 +8039,13 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E76" t="s">
         <v>36</v>
@@ -8015,10 +8087,10 @@
         <v>5.83</v>
       </c>
       <c r="Y76" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="AA76" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="AB76" t="s">
         <v>48</v>
@@ -8032,13 +8104,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="E77" t="s">
         <v>36</v>
@@ -8056,13 +8128,13 @@
         <v>222</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="L77" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -8074,25 +8146,22 @@
         <v>44</v>
       </c>
       <c r="Q77">
-        <v>79.989999999999995</v>
+        <v>99</v>
       </c>
       <c r="R77">
-        <v>13.33</v>
+        <v>16.5</v>
       </c>
       <c r="Y77" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="AA77" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="AB77" t="s">
         <v>48</v>
       </c>
       <c r="AD77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77" t="b">
         <v>0</v>
@@ -8100,13 +8169,13 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -8124,13 +8193,13 @@
         <v>222</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M78" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -8142,16 +8211,16 @@
         <v>44</v>
       </c>
       <c r="Q78">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y78" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AA78" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="AB78" t="s">
         <v>48</v>
@@ -8165,13 +8234,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -8201,25 +8270,22 @@
         <v>36</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="s">
         <v>44</v>
       </c>
       <c r="Q79">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="R79">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="Y79" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="AA79" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AB79" t="s">
         <v>48</v>
@@ -8233,13 +8299,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -8281,13 +8347,10 @@
         <v>5.83</v>
       </c>
       <c r="Y80" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA80" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AB80" t="s">
         <v>48</v>
@@ -8301,13 +8364,13 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -8325,13 +8388,13 @@
         <v>222</v>
       </c>
       <c r="K81" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L81" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M81" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -8343,19 +8406,19 @@
         <v>44</v>
       </c>
       <c r="Q81">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R81">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y81" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="Z81" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AA81" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AB81" t="s">
         <v>48</v>
@@ -8369,13 +8432,13 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -8417,10 +8480,10 @@
         <v>4</v>
       </c>
       <c r="Y82" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AA82" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AB82" t="s">
         <v>48</v>
@@ -8434,16 +8497,16 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D83" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E83" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -8458,25 +8521,37 @@
         <v>222</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L83" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M83" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="N83" t="s">
+        <v>36</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q83">
+        <v>99</v>
+      </c>
+      <c r="R83">
+        <v>16.5</v>
       </c>
       <c r="Y83" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Z83" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="AA83" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AB83" t="s">
         <v>48</v>
@@ -8490,13 +8565,13 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
@@ -8514,13 +8589,13 @@
         <v>222</v>
       </c>
       <c r="K84" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L84" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -8532,19 +8607,19 @@
         <v>44</v>
       </c>
       <c r="Q84">
-        <v>23.99</v>
+        <v>34.99</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y84" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Z84" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AA84" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AB84" t="s">
         <v>48</v>
@@ -8558,13 +8633,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -8582,13 +8657,13 @@
         <v>222</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L85" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M85" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -8600,16 +8675,19 @@
         <v>44</v>
       </c>
       <c r="Q85">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R85">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y85" t="s">
-        <v>230</v>
+        <v>301</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>302</v>
       </c>
       <c r="AA85" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="AB85" t="s">
         <v>48</v>
@@ -8623,13 +8701,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
@@ -8647,13 +8725,13 @@
         <v>222</v>
       </c>
       <c r="K86" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N86" t="s">
         <v>36</v>
@@ -8665,16 +8743,16 @@
         <v>44</v>
       </c>
       <c r="Q86">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R86">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y86" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="AA86" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB86" t="s">
         <v>48</v>
@@ -8688,16 +8766,16 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -8720,29 +8798,17 @@
       <c r="M87" t="s">
         <v>43</v>
       </c>
-      <c r="N87" t="s">
-        <v>36</v>
-      </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q87">
-        <v>23.99</v>
-      </c>
-      <c r="R87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="Z87" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="AA87" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="AB87" t="s">
         <v>48</v>
@@ -8756,13 +8822,13 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
@@ -8780,13 +8846,13 @@
         <v>222</v>
       </c>
       <c r="K88" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M88" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -8804,10 +8870,13 @@
         <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>291</v>
       </c>
       <c r="AA88" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AB88" t="s">
         <v>48</v>
@@ -8821,13 +8890,13 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
@@ -8845,13 +8914,13 @@
         <v>222</v>
       </c>
       <c r="K89" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N89" t="s">
         <v>36</v>
@@ -8863,16 +8932,16 @@
         <v>44</v>
       </c>
       <c r="Q89">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R89">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y89" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA89" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -8886,13 +8955,13 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -8910,13 +8979,13 @@
         <v>222</v>
       </c>
       <c r="K90" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L90" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M90" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="N90" t="s">
         <v>36</v>
@@ -8928,16 +8997,16 @@
         <v>44</v>
       </c>
       <c r="Q90">
-        <v>34.99</v>
+        <v>99</v>
       </c>
       <c r="R90">
-        <v>5.83</v>
+        <v>16.5</v>
       </c>
       <c r="Y90" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="AA90" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -8951,13 +9020,13 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -8999,10 +9068,13 @@
         <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>240</v>
       </c>
       <c r="AA91" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -9016,16 +9088,16 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E92" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
@@ -9037,34 +9109,37 @@
         <v>39</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L92" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M92" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="N92" t="s">
+        <v>36</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="s">
         <v>44</v>
       </c>
       <c r="Q92">
-        <v>29.16</v>
+        <v>23.99</v>
       </c>
       <c r="R92">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y92" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AA92" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -9078,13 +9153,13 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -9099,16 +9174,16 @@
         <v>39</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K93" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="L93" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M93" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="N93" t="s">
         <v>36</v>
@@ -9120,16 +9195,16 @@
         <v>44</v>
       </c>
       <c r="Q93">
-        <v>99</v>
+        <v>34.99</v>
       </c>
       <c r="R93">
-        <v>16.5</v>
+        <v>5.83</v>
       </c>
       <c r="Y93" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AA93" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -9143,13 +9218,13 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -9164,7 +9239,7 @@
         <v>39</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K94" t="s">
         <v>89</v>
@@ -9179,22 +9254,22 @@
         <v>36</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P94" t="s">
         <v>44</v>
       </c>
       <c r="Q94">
-        <v>69.98</v>
+        <v>34.99</v>
       </c>
       <c r="R94">
-        <v>11.66</v>
+        <v>5.83</v>
       </c>
       <c r="Y94" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AA94" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -9208,13 +9283,13 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
@@ -9229,16 +9304,16 @@
         <v>39</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K95" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="L95" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M95" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -9250,16 +9325,16 @@
         <v>44</v>
       </c>
       <c r="Q95">
-        <v>99</v>
+        <v>23.99</v>
       </c>
       <c r="R95">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="Y95" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA95" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -9273,16 +9348,16 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D96" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="F96" t="s">
         <v>37</v>
@@ -9297,37 +9372,31 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L96" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s">
-        <v>78</v>
-      </c>
-      <c r="N96" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="s">
         <v>44</v>
       </c>
       <c r="Q96">
-        <v>23.99</v>
+        <v>29.16</v>
       </c>
       <c r="R96">
-        <v>4</v>
+        <v>5.83</v>
       </c>
       <c r="Y96" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AA96" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -9341,13 +9410,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
@@ -9365,13 +9434,13 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L97" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M97" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N97" t="s">
         <v>36</v>
@@ -9383,19 +9452,16 @@
         <v>44</v>
       </c>
       <c r="Q97">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R97">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y97" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AA97" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -9409,13 +9475,13 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
@@ -9433,37 +9499,34 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L98" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M98" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98" t="s">
         <v>44</v>
       </c>
       <c r="Q98">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R98">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y98" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -9477,13 +9540,13 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
@@ -9501,13 +9564,13 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="L99" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M99" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -9519,16 +9582,16 @@
         <v>44</v>
       </c>
       <c r="Q99">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R99">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y99" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="AA99" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -9542,13 +9605,13 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
@@ -9566,13 +9629,13 @@
         <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L100" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M100" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N100" t="s">
         <v>36</v>
@@ -9590,10 +9653,13 @@
         <v>4</v>
       </c>
       <c r="Y100" t="s">
-        <v>66</v>
+        <v>285</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>286</v>
       </c>
       <c r="AA100" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -9607,13 +9673,13 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
@@ -9655,10 +9721,13 @@
         <v>4</v>
       </c>
       <c r="Y101" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>46</v>
       </c>
       <c r="AA101" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
@@ -9672,13 +9741,13 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
@@ -9696,13 +9765,13 @@
         <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L102" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M102" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N102" t="s">
         <v>36</v>
@@ -9714,16 +9783,19 @@
         <v>44</v>
       </c>
       <c r="Q102">
-        <v>23.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R102">
-        <v>4</v>
+        <v>13.33</v>
       </c>
       <c r="Y102" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>56</v>
       </c>
       <c r="AA102" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -9737,13 +9809,13 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
@@ -9785,10 +9857,10 @@
         <v>4</v>
       </c>
       <c r="Y103" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AA103" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -9802,13 +9874,13 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
         <v>36</v>
@@ -9826,37 +9898,34 @@
         <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L104" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M104" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N104" t="s">
         <v>36</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P104" t="s">
         <v>44</v>
       </c>
       <c r="Q104">
-        <v>69.98</v>
+        <v>23.99</v>
       </c>
       <c r="R104">
-        <v>11.66</v>
+        <v>4</v>
       </c>
       <c r="Y104" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="AA104" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -9870,13 +9939,13 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
         <v>36</v>
@@ -9894,13 +9963,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L105" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M105" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N105" t="s">
         <v>36</v>
@@ -9912,16 +9981,16 @@
         <v>44</v>
       </c>
       <c r="Q105">
-        <v>34.99</v>
+        <v>23.99</v>
       </c>
       <c r="R105">
-        <v>5.83</v>
+        <v>4</v>
       </c>
       <c r="Y105" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AA105" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -9935,13 +10004,13 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
@@ -9959,13 +10028,13 @@
         <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="L106" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M106" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N106" t="s">
         <v>36</v>
@@ -9983,13 +10052,10 @@
         <v>4</v>
       </c>
       <c r="Y106" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AA106" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -10003,13 +10069,13 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
         <v>36</v>
@@ -10027,13 +10093,13 @@
         <v>40</v>
       </c>
       <c r="K107" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L107" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M107" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N107" t="s">
         <v>36</v>
@@ -10045,19 +10111,16 @@
         <v>44</v>
       </c>
       <c r="Q107">
-        <v>79.989999999999995</v>
+        <v>23.99</v>
       </c>
       <c r="R107">
-        <v>13.33</v>
+        <v>4</v>
       </c>
       <c r="Y107" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AA107" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
@@ -10071,13 +10134,13 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
@@ -10095,37 +10158,37 @@
         <v>40</v>
       </c>
       <c r="K108" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L108" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M108" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N108" t="s">
         <v>36</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P108" t="s">
         <v>44</v>
       </c>
       <c r="Q108">
-        <v>79.989999999999995</v>
+        <v>69.98</v>
       </c>
       <c r="R108">
-        <v>13.33</v>
+        <v>11.66</v>
       </c>
       <c r="Y108" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Z108" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AA108" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
@@ -10139,13 +10202,13 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
@@ -10163,13 +10226,13 @@
         <v>40</v>
       </c>
       <c r="K109" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L109" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M109" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N109" t="s">
         <v>36</v>
@@ -10181,19 +10244,16 @@
         <v>44</v>
       </c>
       <c r="Q109">
-        <v>79.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="R109">
-        <v>13.33</v>
+        <v>5.83</v>
       </c>
       <c r="Y109" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="AA109" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="AB109" t="s">
         <v>48</v>
@@ -10207,13 +10267,13 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
@@ -10231,13 +10291,13 @@
         <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L110" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M110" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N110" t="s">
         <v>36</v>
@@ -10249,19 +10309,19 @@
         <v>44</v>
       </c>
       <c r="Q110">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R110">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y110" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="Z110" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AA110" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AB110" t="s">
         <v>48</v>
@@ -10275,13 +10335,13 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -10299,13 +10359,13 @@
         <v>40</v>
       </c>
       <c r="K111" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L111" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M111" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N111" t="s">
         <v>36</v>
@@ -10317,16 +10377,19 @@
         <v>44</v>
       </c>
       <c r="Q111">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R111">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y111" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>110</v>
       </c>
       <c r="AA111" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="AB111" t="s">
         <v>48</v>
@@ -10340,13 +10403,13 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
@@ -10364,34 +10427,37 @@
         <v>40</v>
       </c>
       <c r="K112" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L112" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M112" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N112" t="s">
         <v>36</v>
       </c>
       <c r="O112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P112" t="s">
         <v>44</v>
       </c>
       <c r="Q112">
-        <v>66.98</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R112">
-        <v>2.8</v>
+        <v>13.33</v>
       </c>
       <c r="Y112" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>116</v>
       </c>
       <c r="AA112" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AB112" t="s">
         <v>48</v>
@@ -10405,13 +10471,13 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
         <v>36</v>
@@ -10429,13 +10495,13 @@
         <v>40</v>
       </c>
       <c r="K113" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="L113" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M113" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N113" t="s">
         <v>36</v>
@@ -10447,19 +10513,19 @@
         <v>44</v>
       </c>
       <c r="Q113">
-        <v>99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R113">
-        <v>16.5</v>
+        <v>13.33</v>
       </c>
       <c r="Y113" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="AA113" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="AB113" t="s">
         <v>48</v>
@@ -10473,13 +10539,13 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
@@ -10521,13 +10587,13 @@
         <v>5.58</v>
       </c>
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AA114" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="AB114" t="s">
         <v>48</v>
@@ -10541,13 +10607,13 @@
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
@@ -10565,13 +10631,13 @@
         <v>40</v>
       </c>
       <c r="K115" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L115" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M115" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N115" t="s">
         <v>36</v>
@@ -10583,16 +10649,16 @@
         <v>44</v>
       </c>
       <c r="Q115">
-        <v>23.99</v>
+        <v>33.49</v>
       </c>
       <c r="R115">
-        <v>4</v>
+        <v>5.58</v>
       </c>
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AA115" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AB115" t="s">
         <v>48</v>
@@ -10606,13 +10672,13 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -10630,40 +10696,40 @@
         <v>40</v>
       </c>
       <c r="K116" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L116" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M116" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N116" t="s">
         <v>36</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P116" t="s">
         <v>44</v>
       </c>
       <c r="Q116">
-        <v>79.989999999999995</v>
+        <v>66.98</v>
       </c>
       <c r="R116">
-        <v>13.33</v>
+        <v>2.8</v>
       </c>
       <c r="Y116" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AA116" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AB116" t="s">
         <v>48</v>
       </c>
       <c r="AD116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG116" t="b">
         <v>0</v>
@@ -10671,13 +10737,13 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
         <v>36</v>
@@ -10695,13 +10761,13 @@
         <v>40</v>
       </c>
       <c r="K117" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="L117" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M117" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N117" t="s">
         <v>36</v>
@@ -10713,19 +10779,19 @@
         <v>44</v>
       </c>
       <c r="Q117">
-        <v>23.99</v>
+        <v>99</v>
       </c>
       <c r="R117">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="Y117" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Z117" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AA117" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AB117" t="s">
         <v>48</v>
@@ -10739,13 +10805,13 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
         <v>36</v>
@@ -10763,13 +10829,13 @@
         <v>40</v>
       </c>
       <c r="K118" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="L118" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="M118" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="N118" t="s">
         <v>36</v>
@@ -10787,10 +10853,13 @@
         <v>5.58</v>
       </c>
       <c r="Y118" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>153</v>
       </c>
       <c r="AA118" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AB118" t="s">
         <v>48</v>
@@ -10804,13 +10873,13 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E119" t="s">
         <v>36</v>
@@ -10828,13 +10897,13 @@
         <v>40</v>
       </c>
       <c r="K119" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="L119" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M119" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N119" t="s">
         <v>36</v>
@@ -10846,16 +10915,16 @@
         <v>44</v>
       </c>
       <c r="Q119">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R119">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y119" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="AA119" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB119" t="s">
         <v>48</v>
@@ -10869,13 +10938,13 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -10893,13 +10962,13 @@
         <v>40</v>
       </c>
       <c r="K120" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L120" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M120" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N120" t="s">
         <v>36</v>
@@ -10911,25 +10980,22 @@
         <v>44</v>
       </c>
       <c r="Q120">
-        <v>33.49</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="R120">
-        <v>5.58</v>
+        <v>13.33</v>
       </c>
       <c r="Y120" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AA120" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AB120" t="s">
         <v>48</v>
       </c>
       <c r="AD120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG120" t="b">
         <v>0</v>
@@ -10937,13 +11003,13 @@
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E121" t="s">
         <v>36</v>
@@ -10961,13 +11027,13 @@
         <v>40</v>
       </c>
       <c r="K121" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L121" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M121" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N121" t="s">
         <v>36</v>
@@ -10979,19 +11045,19 @@
         <v>44</v>
       </c>
       <c r="Q121">
-        <v>33.49</v>
+        <v>23.99</v>
       </c>
       <c r="R121">
-        <v>5.58</v>
+        <v>4</v>
       </c>
       <c r="Y121" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AA121" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AB121" t="s">
         <v>48</v>
@@ -11005,13 +11071,13 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D122" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E122" t="s">
         <v>36</v>
@@ -11029,13 +11095,13 @@
         <v>40</v>
       </c>
       <c r="K122" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="L122" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M122" t=